--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/程序员客栈项目开发报价单（因卓教育阶段二原型设计功能新增报价）.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/程序员客栈项目开发报价单（因卓教育阶段二原型设计功能新增报价）.xlsx
@@ -2271,6 +2271,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2280,83 +2301,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2364,7 +2313,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2379,29 +2340,68 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3598,8 +3598,8 @@
   </sheetPr>
   <dimension ref="A1:IV268"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:A210"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="12" customHeight="1"/>
@@ -3678,48 +3678,48 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:256" ht="23.1" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:256" ht="23.1" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:256" ht="43.2" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -3775,7 +3775,7 @@
       </c>
     </row>
     <row r="7" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="83" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -4039,14 +4039,14 @@
       <c r="IV7" s="54"/>
     </row>
     <row r="8" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="72" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="38" t="s">
@@ -4307,10 +4307,10 @@
       <c r="IV8" s="54"/>
     </row>
     <row r="9" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="38" t="s">
         <v>25</v>
       </c>
@@ -4569,10 +4569,10 @@
       <c r="IV9" s="54"/>
     </row>
     <row r="10" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="38" t="s">
         <v>26</v>
       </c>
@@ -4831,10 +4831,10 @@
       <c r="IV10" s="54"/>
     </row>
     <row r="11" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="38" t="s">
         <v>28</v>
       </c>
@@ -5093,10 +5093,10 @@
       <c r="IV11" s="54"/>
     </row>
     <row r="12" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="38" t="s">
         <v>30</v>
       </c>
@@ -5355,10 +5355,10 @@
       <c r="IV12" s="54"/>
     </row>
     <row r="13" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="38" t="s">
         <v>76</v>
       </c>
@@ -5617,10 +5617,10 @@
       <c r="IV13" s="54"/>
     </row>
     <row r="14" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="38" t="s">
         <v>31</v>
       </c>
@@ -5877,10 +5877,10 @@
       <c r="IV14" s="54"/>
     </row>
     <row r="15" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="38" t="s">
         <v>32</v>
       </c>
@@ -6139,9 +6139,9 @@
       <c r="IV15" s="54"/>
     </row>
     <row r="16" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="89"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="38" t="s">
         <v>33</v>
       </c>
@@ -6401,9 +6401,9 @@
       <c r="IV16" s="54"/>
     </row>
     <row r="17" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="89"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="38" t="s">
         <v>80</v>
       </c>
@@ -6663,9 +6663,9 @@
       <c r="IV17" s="54"/>
     </row>
     <row r="18" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="89"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="38" t="s">
         <v>35</v>
       </c>
@@ -6925,9 +6925,9 @@
       <c r="IV18" s="54"/>
     </row>
     <row r="19" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="89"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="39" t="s">
         <v>83</v>
       </c>
@@ -7187,9 +7187,9 @@
       <c r="IV19" s="54"/>
     </row>
     <row r="20" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="89" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="72" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="38" t="s">
@@ -7451,9 +7451,9 @@
       <c r="IV20" s="54"/>
     </row>
     <row r="21" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="90"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="38" t="s">
         <v>39</v>
       </c>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="81">
+      <c r="I21" s="64">
         <v>0.5</v>
       </c>
       <c r="J21" s="57"/>
@@ -7715,14 +7715,14 @@
       <c r="IV21" s="54"/>
     </row>
     <row r="22" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="75" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="40" t="s">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
-      <c r="I22" s="100"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
@@ -7983,10 +7983,10 @@
       <c r="IV22" s="54"/>
     </row>
     <row r="23" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="84"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="40" t="s">
         <v>90</v>
       </c>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
-      <c r="I23" s="100"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
@@ -8245,9 +8245,9 @@
       <c r="IV23" s="54"/>
     </row>
     <row r="24" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="41" t="s">
         <v>92</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
-      <c r="I24" s="100"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
@@ -8505,8 +8505,8 @@
       <c r="IV24" s="54"/>
     </row>
     <row r="25" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="40" t="s">
         <v>93</v>
       </c>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="100"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8769,12 +8769,12 @@
       <c r="IV25" s="54"/>
     </row>
     <row r="26" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="87" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="75" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="40" t="s">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
-      <c r="I26" s="100"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9035,10 +9035,10 @@
       <c r="IV26" s="54"/>
     </row>
     <row r="27" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="83"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="40" t="s">
         <v>100</v>
       </c>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="59"/>
-      <c r="I27" s="100"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9297,10 +9297,10 @@
       <c r="IV27" s="54"/>
     </row>
     <row r="28" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="83"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="40" t="s">
         <v>102</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
-      <c r="I28" s="100"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9559,10 +9559,10 @@
       <c r="IV28" s="54"/>
     </row>
     <row r="29" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="84"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="40" t="s">
         <v>104</v>
       </c>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
-      <c r="I29" s="100"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9821,9 +9821,9 @@
       <c r="IV29" s="54"/>
     </row>
     <row r="30" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="87" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="78" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="40" t="s">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="100"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -10085,9 +10085,9 @@
       <c r="IV30" s="54"/>
     </row>
     <row r="31" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="87"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="40" t="s">
         <v>92</v>
       </c>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="59"/>
-      <c r="I31" s="101"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
@@ -10347,14 +10347,14 @@
       <c r="IV31" s="54"/>
     </row>
     <row r="32" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="87" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="75" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="40" t="s">
@@ -10364,10 +10364,10 @@
         <v>113</v>
       </c>
       <c r="G32" s="40"/>
-      <c r="H32" s="60">
+      <c r="H32" s="67">
         <v>0.5</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="67">
         <v>0.5</v>
       </c>
       <c r="J32" s="57"/>
@@ -10619,10 +10619,10 @@
       <c r="IV32" s="54"/>
     </row>
     <row r="33" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="84"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="40" t="s">
         <v>114</v>
       </c>
@@ -10630,8 +10630,8 @@
         <v>115</v>
       </c>
       <c r="G33" s="40"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
@@ -10881,10 +10881,10 @@
       <c r="IV33" s="54"/>
     </row>
     <row r="34" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78" t="s">
         <v>116</v>
       </c>
       <c r="E34" s="40" t="s">
@@ -10894,8 +10894,8 @@
         <v>118</v>
       </c>
       <c r="G34" s="40"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
@@ -11145,10 +11145,10 @@
       <c r="IV34" s="54"/>
     </row>
     <row r="35" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="40" t="s">
         <v>119</v>
       </c>
@@ -11158,8 +11158,8 @@
       <c r="G35" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
@@ -11409,10 +11409,10 @@
       <c r="IV35" s="54"/>
     </row>
     <row r="36" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="40" t="s">
         <v>122</v>
       </c>
@@ -11420,8 +11420,8 @@
         <v>123</v>
       </c>
       <c r="G36" s="40"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
@@ -11671,10 +11671,10 @@
       <c r="IV36" s="54"/>
     </row>
     <row r="37" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78" t="s">
         <v>124</v>
       </c>
       <c r="E37" s="40" t="s">
@@ -11684,8 +11684,8 @@
         <v>118</v>
       </c>
       <c r="G37" s="40"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
@@ -11935,10 +11935,10 @@
       <c r="IV37" s="54"/>
     </row>
     <row r="38" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="40" t="s">
         <v>119</v>
       </c>
@@ -11946,8 +11946,8 @@
         <v>120</v>
       </c>
       <c r="G38" s="40"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
@@ -12197,10 +12197,10 @@
       <c r="IV38" s="54"/>
     </row>
     <row r="39" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="40" t="s">
         <v>122</v>
       </c>
@@ -12208,8 +12208,8 @@
         <v>123</v>
       </c>
       <c r="G39" s="40"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="57"/>
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
@@ -12459,9 +12459,9 @@
       <c r="IV39" s="54"/>
     </row>
     <row r="40" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="40" t="s">
         <v>125</v>
       </c>
@@ -12470,8 +12470,8 @@
         <v>126</v>
       </c>
       <c r="G40" s="40"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
@@ -12721,9 +12721,9 @@
       <c r="IV40" s="54"/>
     </row>
     <row r="41" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="40" t="s">
         <v>127</v>
       </c>
@@ -12732,8 +12732,8 @@
         <v>128</v>
       </c>
       <c r="G41" s="40"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
@@ -12983,10 +12983,10 @@
       <c r="IV41" s="54"/>
     </row>
     <row r="42" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78" t="s">
         <v>129</v>
       </c>
       <c r="E42" s="40" t="s">
@@ -12996,8 +12996,8 @@
         <v>131</v>
       </c>
       <c r="G42" s="40"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
@@ -13247,10 +13247,10 @@
       <c r="IV42" s="54"/>
     </row>
     <row r="43" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="40" t="s">
         <v>132</v>
       </c>
@@ -13258,8 +13258,8 @@
         <v>133</v>
       </c>
       <c r="G43" s="40"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="57"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
@@ -13509,10 +13509,10 @@
       <c r="IV43" s="54"/>
     </row>
     <row r="44" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E44" s="40" t="s">
@@ -13522,8 +13522,8 @@
         <v>136</v>
       </c>
       <c r="G44" s="40"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
@@ -13773,10 +13773,10 @@
       <c r="IV44" s="54"/>
     </row>
     <row r="45" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="40" t="s">
         <v>137</v>
       </c>
@@ -13784,8 +13784,8 @@
         <v>138</v>
       </c>
       <c r="G45" s="40"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
@@ -14035,17 +14035,17 @@
       <c r="IV45" s="54"/>
     </row>
     <row r="46" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="40" t="s">
         <v>139</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
@@ -14295,10 +14295,10 @@
       <c r="IV46" s="54"/>
     </row>
     <row r="47" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="40" t="s">
         <v>140</v>
       </c>
@@ -14306,8 +14306,8 @@
         <v>141</v>
       </c>
       <c r="G47" s="40"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
@@ -14557,10 +14557,10 @@
       <c r="IV47" s="54"/>
     </row>
     <row r="48" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="40" t="s">
         <v>142</v>
       </c>
@@ -14568,8 +14568,8 @@
         <v>143</v>
       </c>
       <c r="G48" s="40"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="L48" s="57"/>
@@ -14819,10 +14819,10 @@
       <c r="IV48" s="54"/>
     </row>
     <row r="49" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="40" t="s">
         <v>144</v>
       </c>
@@ -14830,8 +14830,8 @@
         <v>145</v>
       </c>
       <c r="G49" s="40"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
       <c r="L49" s="57"/>
@@ -15081,10 +15081,10 @@
       <c r="IV49" s="54"/>
     </row>
     <row r="50" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87" t="s">
+      <c r="A50" s="84"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78" t="s">
         <v>146</v>
       </c>
       <c r="E50" s="40" t="s">
@@ -15092,8 +15092,8 @@
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
       <c r="L50" s="57"/>
@@ -15343,17 +15343,17 @@
       <c r="IV50" s="54"/>
     </row>
     <row r="51" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="40" t="s">
         <v>148</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="L51" s="57"/>
@@ -15603,17 +15603,17 @@
       <c r="IV51" s="54"/>
     </row>
     <row r="52" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
       <c r="J52" s="57"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
@@ -15863,10 +15863,10 @@
       <c r="IV52" s="54"/>
     </row>
     <row r="53" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87" t="s">
+      <c r="A53" s="84"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78" t="s">
         <v>150</v>
       </c>
       <c r="E53" s="40" t="s">
@@ -15876,8 +15876,8 @@
         <v>152</v>
       </c>
       <c r="G53" s="40"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
@@ -16127,10 +16127,10 @@
       <c r="IV53" s="54"/>
     </row>
     <row r="54" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
       <c r="E54" s="40" t="s">
         <v>153</v>
       </c>
@@ -16138,8 +16138,8 @@
         <v>154</v>
       </c>
       <c r="G54" s="40"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
       <c r="J54" s="57"/>
       <c r="K54" s="57"/>
       <c r="L54" s="57"/>
@@ -16389,10 +16389,10 @@
       <c r="IV54" s="54"/>
     </row>
     <row r="55" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A55" s="64"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87" t="s">
+      <c r="A55" s="84"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="40" t="s">
@@ -16400,8 +16400,8 @@
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
       <c r="J55" s="57"/>
       <c r="K55" s="57"/>
       <c r="L55" s="57"/>
@@ -16651,17 +16651,17 @@
       <c r="IV55" s="54"/>
     </row>
     <row r="56" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
       <c r="E56" s="40" t="s">
         <v>157</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
       <c r="J56" s="57"/>
       <c r="K56" s="57"/>
       <c r="L56" s="57"/>
@@ -16911,17 +16911,17 @@
       <c r="IV56" s="54"/>
     </row>
     <row r="57" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
       <c r="E57" s="40" t="s">
         <v>158</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
       <c r="J57" s="57"/>
       <c r="K57" s="57"/>
       <c r="L57" s="57"/>
@@ -17171,10 +17171,10 @@
       <c r="IV57" s="54"/>
     </row>
     <row r="58" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
       <c r="E58" s="40" t="s">
         <v>159</v>
       </c>
@@ -17182,8 +17182,8 @@
         <v>160</v>
       </c>
       <c r="G58" s="40"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
       <c r="J58" s="57"/>
       <c r="K58" s="57"/>
       <c r="L58" s="57"/>
@@ -17433,9 +17433,9 @@
       <c r="IV58" s="54"/>
     </row>
     <row r="59" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78" t="s">
         <v>161</v>
       </c>
       <c r="D59" s="40" t="s">
@@ -17446,8 +17446,8 @@
         <v>162</v>
       </c>
       <c r="G59" s="40"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="57"/>
       <c r="K59" s="57"/>
       <c r="L59" s="57"/>
@@ -17697,10 +17697,10 @@
       <c r="IV59" s="54"/>
     </row>
     <row r="60" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87" t="s">
+      <c r="A60" s="84"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78" t="s">
         <v>163</v>
       </c>
       <c r="E60" s="40" t="s">
@@ -17710,8 +17710,8 @@
         <v>164</v>
       </c>
       <c r="G60" s="40"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
       <c r="J60" s="57"/>
       <c r="K60" s="57"/>
       <c r="L60" s="57"/>
@@ -17961,10 +17961,10 @@
       <c r="IV60" s="54"/>
     </row>
     <row r="61" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
       <c r="E61" s="40" t="s">
         <v>119</v>
       </c>
@@ -17974,8 +17974,8 @@
       <c r="G61" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="57"/>
       <c r="K61" s="57"/>
       <c r="L61" s="57"/>
@@ -18225,10 +18225,10 @@
       <c r="IV61" s="54"/>
     </row>
     <row r="62" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A62" s="64"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="40" t="s">
         <v>167</v>
       </c>
@@ -18236,8 +18236,8 @@
         <v>123</v>
       </c>
       <c r="G62" s="40"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
       <c r="J62" s="57"/>
       <c r="K62" s="57"/>
       <c r="L62" s="57"/>
@@ -18487,10 +18487,10 @@
       <c r="IV62" s="54"/>
     </row>
     <row r="63" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="64"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87" t="s">
+      <c r="A63" s="84"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78" t="s">
         <v>168</v>
       </c>
       <c r="E63" s="40" t="s">
@@ -18500,8 +18500,8 @@
         <v>164</v>
       </c>
       <c r="G63" s="40"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
       <c r="L63" s="57"/>
@@ -18751,10 +18751,10 @@
       <c r="IV63" s="54"/>
     </row>
     <row r="64" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A64" s="64"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
       <c r="E64" s="40" t="s">
         <v>119</v>
       </c>
@@ -18762,8 +18762,8 @@
         <v>165</v>
       </c>
       <c r="G64" s="40"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
       <c r="L64" s="57"/>
@@ -19013,10 +19013,10 @@
       <c r="IV64" s="54"/>
     </row>
     <row r="65" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
       <c r="E65" s="40" t="s">
         <v>167</v>
       </c>
@@ -19024,8 +19024,8 @@
         <v>123</v>
       </c>
       <c r="G65" s="40"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57"/>
@@ -19275,9 +19275,9 @@
       <c r="IV65" s="54"/>
     </row>
     <row r="66" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="40" t="s">
         <v>169</v>
       </c>
@@ -19286,8 +19286,8 @@
         <v>126</v>
       </c>
       <c r="G66" s="40"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
@@ -19537,9 +19537,9 @@
       <c r="IV66" s="54"/>
     </row>
     <row r="67" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A67" s="64"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="40" t="s">
         <v>127</v>
       </c>
@@ -19548,8 +19548,8 @@
         <v>170</v>
       </c>
       <c r="G67" s="40"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
@@ -19799,10 +19799,10 @@
       <c r="IV67" s="54"/>
     </row>
     <row r="68" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="64"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87" t="s">
+      <c r="A68" s="84"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78" t="s">
         <v>129</v>
       </c>
       <c r="E68" s="40" t="s">
@@ -19812,8 +19812,8 @@
         <v>172</v>
       </c>
       <c r="G68" s="40"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
@@ -20063,10 +20063,10 @@
       <c r="IV68" s="54"/>
     </row>
     <row r="69" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
       <c r="E69" s="40" t="s">
         <v>132</v>
       </c>
@@ -20074,8 +20074,8 @@
         <v>173</v>
       </c>
       <c r="G69" s="40"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
       <c r="J69" s="57"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57"/>
@@ -20325,10 +20325,10 @@
       <c r="IV69" s="54"/>
     </row>
     <row r="70" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A70" s="64"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87" t="s">
+      <c r="A70" s="84"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E70" s="40" t="s">
@@ -20338,8 +20338,8 @@
         <v>136</v>
       </c>
       <c r="G70" s="40"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57"/>
@@ -20589,10 +20589,10 @@
       <c r="IV70" s="54"/>
     </row>
     <row r="71" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A71" s="64"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
       <c r="E71" s="40" t="s">
         <v>137</v>
       </c>
@@ -20600,8 +20600,8 @@
         <v>138</v>
       </c>
       <c r="G71" s="40"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="57"/>
       <c r="K71" s="57"/>
       <c r="L71" s="57"/>
@@ -20851,17 +20851,17 @@
       <c r="IV71" s="54"/>
     </row>
     <row r="72" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A72" s="64"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
       <c r="E72" s="40" t="s">
         <v>139</v>
       </c>
       <c r="F72" s="40"/>
       <c r="G72" s="40"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
       <c r="J72" s="57"/>
       <c r="K72" s="57"/>
       <c r="L72" s="57"/>
@@ -21111,10 +21111,10 @@
       <c r="IV72" s="54"/>
     </row>
     <row r="73" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
       <c r="E73" s="40" t="s">
         <v>140</v>
       </c>
@@ -21122,8 +21122,8 @@
         <v>141</v>
       </c>
       <c r="G73" s="40"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="57"/>
       <c r="K73" s="57"/>
       <c r="L73" s="57"/>
@@ -21373,10 +21373,10 @@
       <c r="IV73" s="54"/>
     </row>
     <row r="74" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A74" s="64"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="40" t="s">
         <v>174</v>
       </c>
@@ -21384,8 +21384,8 @@
         <v>143</v>
       </c>
       <c r="G74" s="40"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
       <c r="J74" s="57"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
@@ -21635,10 +21635,10 @@
       <c r="IV74" s="54"/>
     </row>
     <row r="75" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A75" s="64"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="40" t="s">
         <v>144</v>
       </c>
@@ -21646,8 +21646,8 @@
         <v>145</v>
       </c>
       <c r="G75" s="40"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
@@ -21897,10 +21897,10 @@
       <c r="IV75" s="54"/>
     </row>
     <row r="76" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A76" s="64"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87" t="s">
+      <c r="A76" s="84"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78" t="s">
         <v>146</v>
       </c>
       <c r="E76" s="40" t="s">
@@ -21908,8 +21908,8 @@
       </c>
       <c r="F76" s="40"/>
       <c r="G76" s="40"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
       <c r="J76" s="57"/>
       <c r="K76" s="57"/>
       <c r="L76" s="57"/>
@@ -22159,17 +22159,17 @@
       <c r="IV76" s="54"/>
     </row>
     <row r="77" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A77" s="64"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="40" t="s">
         <v>148</v>
       </c>
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="57"/>
       <c r="K77" s="57"/>
       <c r="L77" s="57"/>
@@ -22419,17 +22419,17 @@
       <c r="IV77" s="54"/>
     </row>
     <row r="78" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A78" s="64"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F78" s="40"/>
       <c r="G78" s="40"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
       <c r="J78" s="57"/>
       <c r="K78" s="57"/>
       <c r="L78" s="57"/>
@@ -22679,10 +22679,10 @@
       <c r="IV78" s="54"/>
     </row>
     <row r="79" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="64"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="87"/>
-      <c r="D79" s="87" t="s">
+      <c r="A79" s="84"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78" t="s">
         <v>150</v>
       </c>
       <c r="E79" s="40" t="s">
@@ -22692,8 +22692,8 @@
         <v>152</v>
       </c>
       <c r="G79" s="40"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
       <c r="J79" s="57"/>
       <c r="K79" s="57"/>
       <c r="L79" s="57"/>
@@ -22943,10 +22943,10 @@
       <c r="IV79" s="54"/>
     </row>
     <row r="80" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A80" s="64"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
       <c r="E80" s="40" t="s">
         <v>153</v>
       </c>
@@ -22954,8 +22954,8 @@
         <v>154</v>
       </c>
       <c r="G80" s="40"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
       <c r="J80" s="57"/>
       <c r="K80" s="57"/>
       <c r="L80" s="57"/>
@@ -23205,9 +23205,9 @@
       <c r="IV80" s="54"/>
     </row>
     <row r="81" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87" t="s">
+      <c r="A81" s="84"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="40" t="s">
@@ -23218,8 +23218,8 @@
         <v>162</v>
       </c>
       <c r="G81" s="40"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
       <c r="J81" s="57"/>
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
@@ -23469,10 +23469,10 @@
       <c r="IV81" s="54"/>
     </row>
     <row r="82" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A82" s="64"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87" t="s">
+      <c r="A82" s="84"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78" t="s">
         <v>176</v>
       </c>
       <c r="E82" s="40" t="s">
@@ -23482,8 +23482,8 @@
         <v>164</v>
       </c>
       <c r="G82" s="40"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
       <c r="J82" s="57"/>
       <c r="K82" s="57"/>
       <c r="L82" s="57"/>
@@ -23733,10 +23733,10 @@
       <c r="IV82" s="54"/>
     </row>
     <row r="83" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="64"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
       <c r="E83" s="40" t="s">
         <v>119</v>
       </c>
@@ -23746,8 +23746,8 @@
       <c r="G83" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="57"/>
       <c r="K83" s="57"/>
       <c r="L83" s="57"/>
@@ -23997,10 +23997,10 @@
       <c r="IV83" s="54"/>
     </row>
     <row r="84" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A84" s="64"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
       <c r="E84" s="40" t="s">
         <v>167</v>
       </c>
@@ -24008,8 +24008,8 @@
         <v>123</v>
       </c>
       <c r="G84" s="40"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
       <c r="J84" s="57"/>
       <c r="K84" s="57"/>
       <c r="L84" s="57"/>
@@ -24259,10 +24259,10 @@
       <c r="IV84" s="54"/>
     </row>
     <row r="85" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="87" t="s">
+      <c r="A85" s="84"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78" t="s">
         <v>177</v>
       </c>
       <c r="E85" s="40" t="s">
@@ -24272,8 +24272,8 @@
         <v>164</v>
       </c>
       <c r="G85" s="40"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
       <c r="J85" s="57"/>
       <c r="K85" s="57"/>
       <c r="L85" s="57"/>
@@ -24523,10 +24523,10 @@
       <c r="IV85" s="54"/>
     </row>
     <row r="86" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A86" s="64"/>
-      <c r="B86" s="87"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="87"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
       <c r="E86" s="40" t="s">
         <v>119</v>
       </c>
@@ -24534,8 +24534,8 @@
         <v>165</v>
       </c>
       <c r="G86" s="40"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
       <c r="J86" s="57"/>
       <c r="K86" s="57"/>
       <c r="L86" s="57"/>
@@ -24785,10 +24785,10 @@
       <c r="IV86" s="54"/>
     </row>
     <row r="87" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="64"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
       <c r="E87" s="40" t="s">
         <v>167</v>
       </c>
@@ -24796,8 +24796,8 @@
         <v>123</v>
       </c>
       <c r="G87" s="40"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="57"/>
       <c r="K87" s="57"/>
       <c r="L87" s="57"/>
@@ -25047,9 +25047,9 @@
       <c r="IV87" s="54"/>
     </row>
     <row r="88" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="40" t="s">
         <v>178</v>
       </c>
@@ -25058,8 +25058,8 @@
         <v>126</v>
       </c>
       <c r="G88" s="40"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
       <c r="J88" s="57"/>
       <c r="K88" s="57"/>
       <c r="L88" s="57"/>
@@ -25309,9 +25309,9 @@
       <c r="IV88" s="54"/>
     </row>
     <row r="89" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="40" t="s">
         <v>127</v>
       </c>
@@ -25320,8 +25320,8 @@
         <v>170</v>
       </c>
       <c r="G89" s="40"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
       <c r="J89" s="57"/>
       <c r="K89" s="57"/>
       <c r="L89" s="57"/>
@@ -25571,10 +25571,10 @@
       <c r="IV89" s="54"/>
     </row>
     <row r="90" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A90" s="64"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="87"/>
-      <c r="D90" s="87" t="s">
+      <c r="A90" s="84"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78" t="s">
         <v>129</v>
       </c>
       <c r="E90" s="40" t="s">
@@ -25584,8 +25584,8 @@
         <v>180</v>
       </c>
       <c r="G90" s="40"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="68"/>
       <c r="J90" s="57"/>
       <c r="K90" s="57"/>
       <c r="L90" s="57"/>
@@ -25835,10 +25835,10 @@
       <c r="IV90" s="54"/>
     </row>
     <row r="91" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A91" s="64"/>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87"/>
-      <c r="D91" s="87"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
       <c r="E91" s="40" t="s">
         <v>132</v>
       </c>
@@ -25846,8 +25846,8 @@
         <v>181</v>
       </c>
       <c r="G91" s="40"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="57"/>
       <c r="K91" s="57"/>
       <c r="L91" s="57"/>
@@ -26097,10 +26097,10 @@
       <c r="IV91" s="54"/>
     </row>
     <row r="92" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A92" s="64"/>
-      <c r="B92" s="87"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="87" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E92" s="40" t="s">
@@ -26110,8 +26110,8 @@
         <v>136</v>
       </c>
       <c r="G92" s="40"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
       <c r="J92" s="57"/>
       <c r="K92" s="57"/>
       <c r="L92" s="57"/>
@@ -26361,10 +26361,10 @@
       <c r="IV92" s="54"/>
     </row>
     <row r="93" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="87"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
       <c r="E93" s="40" t="s">
         <v>137</v>
       </c>
@@ -26372,8 +26372,8 @@
         <v>138</v>
       </c>
       <c r="G93" s="40"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="57"/>
       <c r="K93" s="57"/>
       <c r="L93" s="57"/>
@@ -26623,17 +26623,17 @@
       <c r="IV93" s="54"/>
     </row>
     <row r="94" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A94" s="64"/>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="87"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
       <c r="E94" s="40" t="s">
         <v>139</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="68"/>
       <c r="J94" s="57"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
@@ -26883,10 +26883,10 @@
       <c r="IV94" s="54"/>
     </row>
     <row r="95" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="64"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="87"/>
+      <c r="A95" s="84"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
       <c r="E95" s="40" t="s">
         <v>140</v>
       </c>
@@ -26894,8 +26894,8 @@
         <v>141</v>
       </c>
       <c r="G95" s="40"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
       <c r="J95" s="57"/>
       <c r="K95" s="57"/>
       <c r="L95" s="57"/>
@@ -27145,10 +27145,10 @@
       <c r="IV95" s="54"/>
     </row>
     <row r="96" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A96" s="64"/>
-      <c r="B96" s="87"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="87"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
       <c r="E96" s="40" t="s">
         <v>142</v>
       </c>
@@ -27156,8 +27156,8 @@
         <v>143</v>
       </c>
       <c r="G96" s="40"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="57"/>
       <c r="K96" s="57"/>
       <c r="L96" s="57"/>
@@ -27407,10 +27407,10 @@
       <c r="IV96" s="54"/>
     </row>
     <row r="97" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
       <c r="E97" s="40" t="s">
         <v>144</v>
       </c>
@@ -27418,8 +27418,8 @@
         <v>145</v>
       </c>
       <c r="G97" s="40"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="68"/>
       <c r="J97" s="57"/>
       <c r="K97" s="57"/>
       <c r="L97" s="57"/>
@@ -27669,10 +27669,10 @@
       <c r="IV97" s="54"/>
     </row>
     <row r="98" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A98" s="64"/>
-      <c r="B98" s="87"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="87" t="s">
+      <c r="A98" s="84"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78" t="s">
         <v>146</v>
       </c>
       <c r="E98" s="40" t="s">
@@ -27680,8 +27680,8 @@
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
       <c r="J98" s="57"/>
       <c r="K98" s="57"/>
       <c r="L98" s="57"/>
@@ -27931,17 +27931,17 @@
       <c r="IV98" s="54"/>
     </row>
     <row r="99" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A99" s="64"/>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="78"/>
       <c r="E99" s="40" t="s">
         <v>148</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
-      <c r="H99" s="61"/>
-      <c r="I99" s="61"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
       <c r="J99" s="57"/>
       <c r="K99" s="57"/>
       <c r="L99" s="57"/>
@@ -28191,17 +28191,17 @@
       <c r="IV99" s="54"/>
     </row>
     <row r="100" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A100" s="64"/>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="87"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
       <c r="E100" s="40" t="s">
         <v>149</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="68"/>
       <c r="J100" s="57"/>
       <c r="K100" s="57"/>
       <c r="L100" s="57"/>
@@ -28451,10 +28451,10 @@
       <c r="IV100" s="54"/>
     </row>
     <row r="101" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A101" s="64"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="87"/>
-      <c r="D101" s="87" t="s">
+      <c r="A101" s="84"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78" t="s">
         <v>150</v>
       </c>
       <c r="E101" s="40" t="s">
@@ -28464,8 +28464,8 @@
         <v>152</v>
       </c>
       <c r="G101" s="40"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
       <c r="J101" s="57"/>
       <c r="K101" s="57"/>
       <c r="L101" s="57"/>
@@ -28715,10 +28715,10 @@
       <c r="IV101" s="54"/>
     </row>
     <row r="102" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A102" s="64"/>
-      <c r="B102" s="87"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="87"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
       <c r="E102" s="40" t="s">
         <v>153</v>
       </c>
@@ -28726,8 +28726,8 @@
         <v>154</v>
       </c>
       <c r="G102" s="40"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
       <c r="J102" s="57"/>
       <c r="K102" s="57"/>
       <c r="L102" s="57"/>
@@ -28977,11 +28977,11 @@
       <c r="IV102" s="54"/>
     </row>
     <row r="103" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A103" s="64"/>
-      <c r="B103" s="88" t="s">
+      <c r="A103" s="84"/>
+      <c r="B103" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="88" t="s">
+      <c r="C103" s="75" t="s">
         <v>183</v>
       </c>
       <c r="D103" s="40" t="s">
@@ -29243,9 +29243,9 @@
       <c r="IV103" s="54"/>
     </row>
     <row r="104" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A104" s="64"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="84"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="77"/>
       <c r="D104" s="40" t="s">
         <v>184</v>
       </c>
@@ -29505,9 +29505,9 @@
       <c r="IV104" s="54"/>
     </row>
     <row r="105" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A105" s="64"/>
-      <c r="B105" s="83"/>
-      <c r="C105" s="77" t="s">
+      <c r="A105" s="84"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="86" t="s">
         <v>186</v>
       </c>
       <c r="D105" s="42" t="s">
@@ -29767,9 +29767,9 @@
       <c r="IV105" s="54"/>
     </row>
     <row r="106" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A106" s="64"/>
-      <c r="B106" s="83"/>
-      <c r="C106" s="77"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="86"/>
       <c r="D106" s="42" t="s">
         <v>188</v>
       </c>
@@ -30027,9 +30027,9 @@
       <c r="IV106" s="54"/>
     </row>
     <row r="107" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A107" s="64"/>
-      <c r="B107" s="83"/>
-      <c r="C107" s="77" t="s">
+      <c r="A107" s="84"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="86" t="s">
         <v>189</v>
       </c>
       <c r="D107" s="42" t="s">
@@ -30289,9 +30289,9 @@
       <c r="IV107" s="54"/>
     </row>
     <row r="108" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A108" s="64"/>
-      <c r="B108" s="83"/>
-      <c r="C108" s="77"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="86"/>
       <c r="D108" s="42" t="s">
         <v>190</v>
       </c>
@@ -30551,10 +30551,10 @@
       <c r="IV108" s="54"/>
     </row>
     <row r="109" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A109" s="64"/>
-      <c r="B109" s="83"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77" t="s">
+      <c r="A109" s="84"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86" t="s">
         <v>192</v>
       </c>
       <c r="E109" s="42" t="s">
@@ -30815,10 +30815,10 @@
       <c r="IV109" s="54"/>
     </row>
     <row r="110" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A110" s="64"/>
-      <c r="B110" s="83"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="86"/>
       <c r="E110" s="42" t="s">
         <v>195</v>
       </c>
@@ -31077,10 +31077,10 @@
       <c r="IV110" s="54"/>
     </row>
     <row r="111" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A111" s="64"/>
-      <c r="B111" s="83"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
       <c r="E111" s="42" t="s">
         <v>197</v>
       </c>
@@ -31339,10 +31339,10 @@
       <c r="IV111" s="54"/>
     </row>
     <row r="112" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A112" s="64"/>
-      <c r="B112" s="83"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="86"/>
       <c r="E112" s="42" t="s">
         <v>199</v>
       </c>
@@ -31601,10 +31601,10 @@
       <c r="IV112" s="54"/>
     </row>
     <row r="113" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A113" s="64"/>
-      <c r="B113" s="83"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
       <c r="E113" s="42" t="s">
         <v>201</v>
       </c>
@@ -31863,10 +31863,10 @@
       <c r="IV113" s="54"/>
     </row>
     <row r="114" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A114" s="64"/>
-      <c r="B114" s="83"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="86"/>
       <c r="E114" s="42" t="s">
         <v>203</v>
       </c>
@@ -32125,10 +32125,10 @@
       <c r="IV114" s="54"/>
     </row>
     <row r="115" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A115" s="64"/>
-      <c r="B115" s="83"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
       <c r="E115" s="42" t="s">
         <v>205</v>
       </c>
@@ -32387,10 +32387,10 @@
       <c r="IV115" s="54"/>
     </row>
     <row r="116" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A116" s="64"/>
-      <c r="B116" s="83"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
+      <c r="A116" s="84"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
       <c r="E116" s="42" t="s">
         <v>207</v>
       </c>
@@ -32647,10 +32647,10 @@
       <c r="IV116" s="54"/>
     </row>
     <row r="117" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A117" s="64"/>
-      <c r="B117" s="83"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
       <c r="E117" s="42" t="s">
         <v>208</v>
       </c>
@@ -32909,9 +32909,9 @@
       <c r="IV117" s="54"/>
     </row>
     <row r="118" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A118" s="64"/>
-      <c r="B118" s="83"/>
-      <c r="C118" s="77"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="86"/>
       <c r="D118" s="42" t="s">
         <v>210</v>
       </c>
@@ -33171,9 +33171,9 @@
       <c r="IV118" s="54"/>
     </row>
     <row r="119" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A119" s="64"/>
-      <c r="B119" s="83"/>
-      <c r="C119" s="77"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="86"/>
       <c r="D119" s="42" t="s">
         <v>212</v>
       </c>
@@ -33433,9 +33433,9 @@
       <c r="IV119" s="54"/>
     </row>
     <row r="120" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A120" s="64"/>
-      <c r="B120" s="83"/>
-      <c r="C120" s="77" t="s">
+      <c r="A120" s="84"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="86" t="s">
         <v>214</v>
       </c>
       <c r="D120" s="42" t="s">
@@ -33697,9 +33697,9 @@
       <c r="IV120" s="54"/>
     </row>
     <row r="121" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A121" s="64"/>
-      <c r="B121" s="83"/>
-      <c r="C121" s="77"/>
+      <c r="A121" s="84"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="86"/>
       <c r="D121" s="42" t="s">
         <v>217</v>
       </c>
@@ -33957,9 +33957,9 @@
       <c r="IV121" s="54"/>
     </row>
     <row r="122" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A122" s="64"/>
-      <c r="B122" s="83"/>
-      <c r="C122" s="77"/>
+      <c r="A122" s="84"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="86"/>
       <c r="D122" s="42" t="s">
         <v>218</v>
       </c>
@@ -34217,9 +34217,9 @@
       <c r="IV122" s="54"/>
     </row>
     <row r="123" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A123" s="64"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="77"/>
+      <c r="A123" s="84"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="86"/>
       <c r="D123" s="42" t="s">
         <v>219</v>
       </c>
@@ -34479,11 +34479,11 @@
       <c r="IV123" s="54"/>
     </row>
     <row r="124" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A124" s="64"/>
-      <c r="B124" s="87" t="s">
+      <c r="A124" s="84"/>
+      <c r="B124" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C124" s="87" t="s">
+      <c r="C124" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D124" s="40" t="s">
@@ -34745,9 +34745,9 @@
       <c r="IV124" s="54"/>
     </row>
     <row r="125" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A125" s="64"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="87"/>
+      <c r="A125" s="84"/>
+      <c r="B125" s="78"/>
+      <c r="C125" s="78"/>
       <c r="D125" s="40" t="s">
         <v>49</v>
       </c>
@@ -35009,9 +35009,9 @@
       <c r="IV125" s="54"/>
     </row>
     <row r="126" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A126" s="64"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="87"/>
+      <c r="A126" s="84"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="78"/>
       <c r="D126" s="40" t="s">
         <v>51</v>
       </c>
@@ -35273,9 +35273,9 @@
       <c r="IV126" s="54"/>
     </row>
     <row r="127" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A127" s="64"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="87"/>
+      <c r="A127" s="84"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="78"/>
       <c r="D127" s="40" t="s">
         <v>53</v>
       </c>
@@ -35535,8 +35535,8 @@
       <c r="IV127" s="54"/>
     </row>
     <row r="128" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A128" s="64"/>
-      <c r="B128" s="87"/>
+      <c r="A128" s="84"/>
+      <c r="B128" s="78"/>
       <c r="C128" s="40" t="s">
         <v>55</v>
       </c>
@@ -35797,8 +35797,8 @@
       <c r="IV128" s="54"/>
     </row>
     <row r="129" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A129" s="64"/>
-      <c r="B129" s="87"/>
+      <c r="A129" s="84"/>
+      <c r="B129" s="78"/>
       <c r="C129" s="40" t="s">
         <v>224</v>
       </c>
@@ -36057,7 +36057,7 @@
       <c r="IV129" s="54"/>
     </row>
     <row r="130" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A130" s="64"/>
+      <c r="A130" s="84"/>
       <c r="B130" s="40" t="s">
         <v>57</v>
       </c>
@@ -36321,11 +36321,11 @@
       <c r="IV130" s="54"/>
     </row>
     <row r="131" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A131" s="64"/>
-      <c r="B131" s="77" t="s">
+      <c r="A131" s="84"/>
+      <c r="B131" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C131" s="77" t="s">
+      <c r="C131" s="86" t="s">
         <v>226</v>
       </c>
       <c r="D131" s="42" t="s">
@@ -36587,9 +36587,9 @@
       <c r="IV131" s="54"/>
     </row>
     <row r="132" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A132" s="64"/>
-      <c r="B132" s="77"/>
-      <c r="C132" s="77"/>
+      <c r="A132" s="84"/>
+      <c r="B132" s="86"/>
+      <c r="C132" s="86"/>
       <c r="D132" s="42" t="s">
         <v>83</v>
       </c>
@@ -36849,10 +36849,10 @@
       <c r="IV132" s="54"/>
     </row>
     <row r="133" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A133" s="64"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="81" t="s">
+      <c r="A133" s="84"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="64" t="s">
         <v>230</v>
       </c>
       <c r="E133" s="42" t="s">
@@ -37113,10 +37113,10 @@
       <c r="IV133" s="54"/>
     </row>
     <row r="134" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A134" s="64"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="85"/>
+      <c r="A134" s="84"/>
+      <c r="B134" s="86"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="87"/>
       <c r="E134" s="42" t="s">
         <v>233</v>
       </c>
@@ -37375,10 +37375,10 @@
       <c r="IV134" s="54"/>
     </row>
     <row r="135" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A135" s="64"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="85"/>
+      <c r="A135" s="84"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="87"/>
       <c r="E135" s="42" t="s">
         <v>235</v>
       </c>
@@ -37637,10 +37637,10 @@
       <c r="IV135" s="54"/>
     </row>
     <row r="136" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A136" s="64"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="77"/>
-      <c r="D136" s="85"/>
+      <c r="A136" s="84"/>
+      <c r="B136" s="86"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="87"/>
       <c r="E136" s="42" t="s">
         <v>237</v>
       </c>
@@ -37899,10 +37899,10 @@
       <c r="IV136" s="54"/>
     </row>
     <row r="137" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A137" s="64"/>
-      <c r="B137" s="77"/>
-      <c r="C137" s="77"/>
-      <c r="D137" s="83"/>
+      <c r="A137" s="84"/>
+      <c r="B137" s="86"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="74"/>
       <c r="E137" s="42" t="s">
         <v>34</v>
       </c>
@@ -38161,10 +38161,10 @@
       <c r="IV137" s="54"/>
     </row>
     <row r="138" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A138" s="64"/>
-      <c r="B138" s="77"/>
-      <c r="C138" s="77"/>
-      <c r="D138" s="83"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="86"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="74"/>
       <c r="E138" s="42" t="s">
         <v>35</v>
       </c>
@@ -38423,11 +38423,11 @@
       <c r="IV138" s="54"/>
     </row>
     <row r="139" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A139" s="64"/>
-      <c r="B139" s="77"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="77" t="s">
+      <c r="A139" s="84"/>
+      <c r="B139" s="86"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="86" t="s">
         <v>241</v>
       </c>
       <c r="F139" s="42" t="s">
@@ -38685,11 +38685,11 @@
       <c r="IV139" s="54"/>
     </row>
     <row r="140" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A140" s="64"/>
-      <c r="B140" s="77"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="83"/>
-      <c r="E140" s="77"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="86"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="86"/>
       <c r="F140" s="42" t="s">
         <v>243</v>
       </c>
@@ -38945,11 +38945,11 @@
       <c r="IV140" s="54"/>
     </row>
     <row r="141" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A141" s="64"/>
-      <c r="B141" s="77"/>
-      <c r="C141" s="77"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="77"/>
+      <c r="A141" s="84"/>
+      <c r="B141" s="86"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="86"/>
       <c r="F141" s="42" t="s">
         <v>244</v>
       </c>
@@ -39205,10 +39205,10 @@
       <c r="IV141" s="54"/>
     </row>
     <row r="142" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A142" s="64"/>
-      <c r="B142" s="77"/>
-      <c r="C142" s="77"/>
-      <c r="D142" s="83"/>
+      <c r="A142" s="84"/>
+      <c r="B142" s="86"/>
+      <c r="C142" s="86"/>
+      <c r="D142" s="74"/>
       <c r="E142" s="43" t="s">
         <v>245</v>
       </c>
@@ -39467,11 +39467,11 @@
       <c r="IV142" s="54"/>
     </row>
     <row r="143" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A143" s="64"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="77" t="s">
+      <c r="A143" s="84"/>
+      <c r="B143" s="86"/>
+      <c r="C143" s="86"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="86" t="s">
         <v>246</v>
       </c>
       <c r="F143" s="42" t="s">
@@ -39729,11 +39729,11 @@
       <c r="IV143" s="54"/>
     </row>
     <row r="144" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A144" s="64"/>
-      <c r="B144" s="77"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="83"/>
-      <c r="E144" s="77"/>
+      <c r="A144" s="84"/>
+      <c r="B144" s="86"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="86"/>
       <c r="F144" s="42" t="s">
         <v>248</v>
       </c>
@@ -39989,11 +39989,11 @@
       <c r="IV144" s="54"/>
     </row>
     <row r="145" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A145" s="64"/>
-      <c r="B145" s="77"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="77"/>
+      <c r="A145" s="84"/>
+      <c r="B145" s="86"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="86"/>
       <c r="F145" s="42" t="s">
         <v>249</v>
       </c>
@@ -40249,11 +40249,11 @@
       <c r="IV145" s="54"/>
     </row>
     <row r="146" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A146" s="64"/>
-      <c r="B146" s="77"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="77"/>
+      <c r="A146" s="84"/>
+      <c r="B146" s="86"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="86"/>
       <c r="F146" s="42" t="s">
         <v>250</v>
       </c>
@@ -40509,11 +40509,11 @@
       <c r="IV146" s="54"/>
     </row>
     <row r="147" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A147" s="64"/>
-      <c r="B147" s="77"/>
-      <c r="C147" s="77"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="77"/>
+      <c r="A147" s="84"/>
+      <c r="B147" s="86"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="86"/>
       <c r="F147" s="42" t="s">
         <v>251</v>
       </c>
@@ -40769,11 +40769,11 @@
       <c r="IV147" s="54"/>
     </row>
     <row r="148" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A148" s="64"/>
-      <c r="B148" s="77"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="77" t="s">
+      <c r="A148" s="84"/>
+      <c r="B148" s="86"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="86" t="s">
         <v>252</v>
       </c>
       <c r="F148" s="42" t="s">
@@ -41031,11 +41031,11 @@
       <c r="IV148" s="54"/>
     </row>
     <row r="149" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A149" s="64"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="83"/>
-      <c r="E149" s="77"/>
+      <c r="A149" s="84"/>
+      <c r="B149" s="86"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="86"/>
       <c r="F149" s="42" t="s">
         <v>248</v>
       </c>
@@ -41291,11 +41291,11 @@
       <c r="IV149" s="54"/>
     </row>
     <row r="150" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A150" s="64"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="77"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="86"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="86"/>
       <c r="F150" s="42" t="s">
         <v>249</v>
       </c>
@@ -41551,11 +41551,11 @@
       <c r="IV150" s="54"/>
     </row>
     <row r="151" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A151" s="64"/>
-      <c r="B151" s="77"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="77"/>
+      <c r="A151" s="84"/>
+      <c r="B151" s="86"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="86"/>
       <c r="F151" s="42" t="s">
         <v>250</v>
       </c>
@@ -41811,11 +41811,11 @@
       <c r="IV151" s="54"/>
     </row>
     <row r="152" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A152" s="64"/>
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="83"/>
-      <c r="E152" s="77"/>
+      <c r="A152" s="84"/>
+      <c r="B152" s="86"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="86"/>
       <c r="F152" s="42" t="s">
         <v>251</v>
       </c>
@@ -42071,11 +42071,11 @@
       <c r="IV152" s="54"/>
     </row>
     <row r="153" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A153" s="64"/>
-      <c r="B153" s="77"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="83"/>
-      <c r="E153" s="77" t="s">
+      <c r="A153" s="84"/>
+      <c r="B153" s="86"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="86" t="s">
         <v>253</v>
       </c>
       <c r="F153" s="42" t="s">
@@ -42333,11 +42333,11 @@
       <c r="IV153" s="54"/>
     </row>
     <row r="154" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A154" s="64"/>
-      <c r="B154" s="77"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="83"/>
-      <c r="E154" s="77"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="86"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="86"/>
       <c r="F154" s="42" t="s">
         <v>243</v>
       </c>
@@ -42593,11 +42593,11 @@
       <c r="IV154" s="54"/>
     </row>
     <row r="155" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A155" s="64"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="83"/>
-      <c r="E155" s="77"/>
+      <c r="A155" s="84"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="86"/>
       <c r="F155" s="42" t="s">
         <v>244</v>
       </c>
@@ -42853,10 +42853,10 @@
       <c r="IV155" s="54"/>
     </row>
     <row r="156" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A156" s="64"/>
-      <c r="B156" s="77"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="83"/>
+      <c r="A156" s="84"/>
+      <c r="B156" s="86"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="74"/>
       <c r="E156" s="43" t="s">
         <v>254</v>
       </c>
@@ -43115,11 +43115,11 @@
       <c r="IV156" s="54"/>
     </row>
     <row r="157" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A157" s="64"/>
-      <c r="B157" s="77"/>
-      <c r="C157" s="77"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="77" t="s">
+      <c r="A157" s="84"/>
+      <c r="B157" s="86"/>
+      <c r="C157" s="86"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="86" t="s">
         <v>255</v>
       </c>
       <c r="F157" s="42" t="s">
@@ -43377,11 +43377,11 @@
       <c r="IV157" s="54"/>
     </row>
     <row r="158" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A158" s="64"/>
-      <c r="B158" s="77"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="77"/>
+      <c r="A158" s="84"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="86"/>
       <c r="F158" s="42" t="s">
         <v>248</v>
       </c>
@@ -43637,11 +43637,11 @@
       <c r="IV158" s="54"/>
     </row>
     <row r="159" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A159" s="64"/>
-      <c r="B159" s="77"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="77"/>
+      <c r="A159" s="84"/>
+      <c r="B159" s="86"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="86"/>
       <c r="F159" s="42" t="s">
         <v>257</v>
       </c>
@@ -43897,11 +43897,11 @@
       <c r="IV159" s="54"/>
     </row>
     <row r="160" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A160" s="64"/>
-      <c r="B160" s="77"/>
-      <c r="C160" s="77"/>
-      <c r="D160" s="83"/>
-      <c r="E160" s="77"/>
+      <c r="A160" s="84"/>
+      <c r="B160" s="86"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="86"/>
       <c r="F160" s="42" t="s">
         <v>258</v>
       </c>
@@ -44157,11 +44157,11 @@
       <c r="IV160" s="54"/>
     </row>
     <row r="161" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A161" s="64"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="83"/>
-      <c r="E161" s="77"/>
+      <c r="A161" s="84"/>
+      <c r="B161" s="86"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="86"/>
       <c r="F161" s="42" t="s">
         <v>259</v>
       </c>
@@ -44417,11 +44417,11 @@
       <c r="IV161" s="54"/>
     </row>
     <row r="162" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A162" s="64"/>
-      <c r="B162" s="77"/>
-      <c r="C162" s="77"/>
-      <c r="D162" s="83"/>
-      <c r="E162" s="77" t="s">
+      <c r="A162" s="84"/>
+      <c r="B162" s="86"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="86" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="42" t="s">
@@ -44679,11 +44679,11 @@
       <c r="IV162" s="54"/>
     </row>
     <row r="163" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A163" s="64"/>
-      <c r="B163" s="77"/>
-      <c r="C163" s="77"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="77"/>
+      <c r="A163" s="84"/>
+      <c r="B163" s="86"/>
+      <c r="C163" s="86"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="86"/>
       <c r="F163" s="42" t="s">
         <v>257</v>
       </c>
@@ -44939,11 +44939,11 @@
       <c r="IV163" s="54"/>
     </row>
     <row r="164" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A164" s="64"/>
-      <c r="B164" s="77"/>
-      <c r="C164" s="77"/>
-      <c r="D164" s="83"/>
-      <c r="E164" s="77"/>
+      <c r="A164" s="84"/>
+      <c r="B164" s="86"/>
+      <c r="C164" s="86"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="86"/>
       <c r="F164" s="42" t="s">
         <v>258</v>
       </c>
@@ -45199,11 +45199,11 @@
       <c r="IV164" s="54"/>
     </row>
     <row r="165" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A165" s="64"/>
-      <c r="B165" s="77"/>
-      <c r="C165" s="77"/>
-      <c r="D165" s="84"/>
-      <c r="E165" s="77"/>
+      <c r="A165" s="84"/>
+      <c r="B165" s="86"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="77"/>
+      <c r="E165" s="86"/>
       <c r="F165" s="42" t="s">
         <v>259</v>
       </c>
@@ -45459,10 +45459,10 @@
       <c r="IV165" s="54"/>
     </row>
     <row r="166" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A166" s="64"/>
-      <c r="B166" s="77"/>
-      <c r="C166" s="77"/>
-      <c r="D166" s="77" t="s">
+      <c r="A166" s="84"/>
+      <c r="B166" s="86"/>
+      <c r="C166" s="86"/>
+      <c r="D166" s="86" t="s">
         <v>261</v>
       </c>
       <c r="E166" s="42" t="s">
@@ -45721,10 +45721,10 @@
       <c r="IV166" s="54"/>
     </row>
     <row r="167" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A167" s="64"/>
-      <c r="B167" s="77"/>
-      <c r="C167" s="77"/>
-      <c r="D167" s="77"/>
+      <c r="A167" s="84"/>
+      <c r="B167" s="86"/>
+      <c r="C167" s="86"/>
+      <c r="D167" s="86"/>
       <c r="E167" s="42" t="s">
         <v>35</v>
       </c>
@@ -45981,10 +45981,10 @@
       <c r="IV167" s="54"/>
     </row>
     <row r="168" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A168" s="64"/>
-      <c r="B168" s="77"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="77"/>
+      <c r="A168" s="84"/>
+      <c r="B168" s="86"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="86"/>
       <c r="E168" s="42" t="s">
         <v>262</v>
       </c>
@@ -46243,10 +46243,10 @@
       <c r="IV168" s="54"/>
     </row>
     <row r="169" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A169" s="64"/>
-      <c r="B169" s="77"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="77"/>
+      <c r="A169" s="84"/>
+      <c r="B169" s="86"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="86"/>
       <c r="E169" s="42" t="s">
         <v>264</v>
       </c>
@@ -46505,10 +46505,10 @@
       <c r="IV169" s="54"/>
     </row>
     <row r="170" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A170" s="64"/>
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
+      <c r="A170" s="84"/>
+      <c r="B170" s="86"/>
+      <c r="C170" s="86"/>
+      <c r="D170" s="86"/>
       <c r="E170" s="42" t="s">
         <v>266</v>
       </c>
@@ -46767,10 +46767,10 @@
       <c r="IV170" s="54"/>
     </row>
     <row r="171" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A171" s="64"/>
-      <c r="B171" s="77"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="77"/>
+      <c r="A171" s="84"/>
+      <c r="B171" s="86"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="86"/>
       <c r="E171" s="42" t="s">
         <v>60</v>
       </c>
@@ -47029,10 +47029,10 @@
       <c r="IV171" s="54"/>
     </row>
     <row r="172" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A172" s="64"/>
-      <c r="B172" s="77"/>
-      <c r="C172" s="77"/>
-      <c r="D172" s="77"/>
+      <c r="A172" s="84"/>
+      <c r="B172" s="86"/>
+      <c r="C172" s="86"/>
+      <c r="D172" s="86"/>
       <c r="E172" s="42" t="s">
         <v>269</v>
       </c>
@@ -47291,10 +47291,10 @@
       <c r="IV172" s="54"/>
     </row>
     <row r="173" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A173" s="64"/>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
+      <c r="A173" s="84"/>
+      <c r="B173" s="86"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="86"/>
       <c r="E173" s="42" t="s">
         <v>271</v>
       </c>
@@ -47553,9 +47553,9 @@
       <c r="IV173" s="54"/>
     </row>
     <row r="174" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A174" s="64"/>
-      <c r="B174" s="77"/>
-      <c r="C174" s="77"/>
+      <c r="A174" s="84"/>
+      <c r="B174" s="86"/>
+      <c r="C174" s="86"/>
       <c r="D174" s="42" t="s">
         <v>273</v>
       </c>
@@ -47815,9 +47815,9 @@
       <c r="IV174" s="54"/>
     </row>
     <row r="175" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A175" s="64"/>
-      <c r="B175" s="77"/>
-      <c r="C175" s="77" t="s">
+      <c r="A175" s="84"/>
+      <c r="B175" s="86"/>
+      <c r="C175" s="86" t="s">
         <v>275</v>
       </c>
       <c r="D175" s="42" t="s">
@@ -47828,10 +47828,10 @@
         <v>229</v>
       </c>
       <c r="G175" s="42"/>
-      <c r="H175" s="60">
+      <c r="H175" s="67">
         <v>0.5</v>
       </c>
-      <c r="I175" s="60">
+      <c r="I175" s="67">
         <v>0.5</v>
       </c>
       <c r="J175" s="57"/>
@@ -48083,9 +48083,9 @@
       <c r="IV175" s="54"/>
     </row>
     <row r="176" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A176" s="64"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="77"/>
+      <c r="A176" s="84"/>
+      <c r="B176" s="86"/>
+      <c r="C176" s="86"/>
       <c r="D176" s="42" t="s">
         <v>276</v>
       </c>
@@ -48094,8 +48094,8 @@
         <v>277</v>
       </c>
       <c r="G176" s="42"/>
-      <c r="H176" s="61"/>
-      <c r="I176" s="61"/>
+      <c r="H176" s="68"/>
+      <c r="I176" s="68"/>
       <c r="J176" s="57"/>
       <c r="K176" s="57"/>
       <c r="L176" s="57"/>
@@ -48345,9 +48345,9 @@
       <c r="IV176" s="54"/>
     </row>
     <row r="177" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A177" s="64"/>
-      <c r="B177" s="77"/>
-      <c r="C177" s="77"/>
+      <c r="A177" s="84"/>
+      <c r="B177" s="86"/>
+      <c r="C177" s="86"/>
       <c r="D177" s="43" t="s">
         <v>278</v>
       </c>
@@ -48358,8 +48358,8 @@
       <c r="G177" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="H177" s="61"/>
-      <c r="I177" s="61"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="68"/>
       <c r="J177" s="57"/>
       <c r="K177" s="57"/>
       <c r="L177" s="57"/>
@@ -48609,9 +48609,9 @@
       <c r="IV177" s="54"/>
     </row>
     <row r="178" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A178" s="64"/>
-      <c r="B178" s="77"/>
-      <c r="C178" s="77"/>
+      <c r="A178" s="84"/>
+      <c r="B178" s="86"/>
+      <c r="C178" s="86"/>
       <c r="D178" s="42" t="s">
         <v>281</v>
       </c>
@@ -48620,8 +48620,8 @@
         <v>282</v>
       </c>
       <c r="G178" s="42"/>
-      <c r="H178" s="61"/>
-      <c r="I178" s="61"/>
+      <c r="H178" s="68"/>
+      <c r="I178" s="68"/>
       <c r="J178" s="57"/>
       <c r="K178" s="57"/>
       <c r="L178" s="57"/>
@@ -48871,11 +48871,11 @@
       <c r="IV178" s="54"/>
     </row>
     <row r="179" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A179" s="64"/>
-      <c r="B179" s="81" t="s">
+      <c r="A179" s="84"/>
+      <c r="B179" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="81" t="s">
+      <c r="C179" s="64" t="s">
         <v>284</v>
       </c>
       <c r="D179" s="42" t="s">
@@ -48884,8 +48884,8 @@
       <c r="E179" s="42"/>
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
-      <c r="H179" s="62"/>
-      <c r="I179" s="62"/>
+      <c r="H179" s="69"/>
+      <c r="I179" s="69"/>
       <c r="J179" s="57"/>
       <c r="K179" s="57"/>
       <c r="L179" s="57"/>
@@ -49135,16 +49135,16 @@
       <c r="IV179" s="54"/>
     </row>
     <row r="180" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A180" s="64"/>
-      <c r="B180" s="85"/>
-      <c r="C180" s="85"/>
+      <c r="A180" s="84"/>
+      <c r="B180" s="87"/>
+      <c r="C180" s="87"/>
       <c r="D180" s="42" t="s">
         <v>286</v>
       </c>
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
       <c r="G180" s="42"/>
-      <c r="H180" s="60">
+      <c r="H180" s="67">
         <v>0.5</v>
       </c>
       <c r="I180" s="57"/>
@@ -49397,16 +49397,16 @@
       <c r="IV180" s="54"/>
     </row>
     <row r="181" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A181" s="64"/>
-      <c r="B181" s="85"/>
-      <c r="C181" s="86"/>
+      <c r="A181" s="84"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="88"/>
       <c r="D181" s="42" t="s">
         <v>287</v>
       </c>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
-      <c r="H181" s="61"/>
+      <c r="H181" s="68"/>
       <c r="I181" s="57"/>
       <c r="J181" s="57"/>
       <c r="K181" s="57"/>
@@ -49657,9 +49657,9 @@
       <c r="IV181" s="54"/>
     </row>
     <row r="182" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A182" s="64"/>
-      <c r="B182" s="85"/>
-      <c r="C182" s="81" t="s">
+      <c r="A182" s="84"/>
+      <c r="B182" s="87"/>
+      <c r="C182" s="64" t="s">
         <v>288</v>
       </c>
       <c r="D182" s="42" t="s">
@@ -49670,7 +49670,7 @@
         <v>290</v>
       </c>
       <c r="G182" s="42"/>
-      <c r="H182" s="61"/>
+      <c r="H182" s="68"/>
       <c r="I182" s="57"/>
       <c r="J182" s="57"/>
       <c r="K182" s="57"/>
@@ -49921,9 +49921,9 @@
       <c r="IV182" s="54"/>
     </row>
     <row r="183" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A183" s="64"/>
-      <c r="B183" s="85"/>
-      <c r="C183" s="86"/>
+      <c r="A183" s="84"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="88"/>
       <c r="D183" s="42" t="s">
         <v>291</v>
       </c>
@@ -49932,7 +49932,7 @@
         <v>292</v>
       </c>
       <c r="G183" s="42"/>
-      <c r="H183" s="61"/>
+      <c r="H183" s="68"/>
       <c r="I183" s="57"/>
       <c r="J183" s="57"/>
       <c r="K183" s="57"/>
@@ -50183,9 +50183,9 @@
       <c r="IV183" s="54"/>
     </row>
     <row r="184" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A184" s="64"/>
-      <c r="B184" s="85"/>
-      <c r="C184" s="81" t="s">
+      <c r="A184" s="84"/>
+      <c r="B184" s="87"/>
+      <c r="C184" s="64" t="s">
         <v>293</v>
       </c>
       <c r="D184" s="42" t="s">
@@ -50196,7 +50196,7 @@
         <v>294</v>
       </c>
       <c r="G184" s="42"/>
-      <c r="H184" s="61"/>
+      <c r="H184" s="68"/>
       <c r="I184" s="57"/>
       <c r="J184" s="57"/>
       <c r="K184" s="57"/>
@@ -50447,16 +50447,16 @@
       <c r="IV184" s="54"/>
     </row>
     <row r="185" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A185" s="64"/>
-      <c r="B185" s="85"/>
-      <c r="C185" s="85"/>
+      <c r="A185" s="84"/>
+      <c r="B185" s="87"/>
+      <c r="C185" s="87"/>
       <c r="D185" s="42" t="s">
         <v>286</v>
       </c>
       <c r="E185" s="42"/>
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
-      <c r="H185" s="61"/>
+      <c r="H185" s="68"/>
       <c r="I185" s="57"/>
       <c r="J185" s="57"/>
       <c r="K185" s="57"/>
@@ -50707,16 +50707,16 @@
       <c r="IV185" s="54"/>
     </row>
     <row r="186" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A186" s="64"/>
-      <c r="B186" s="86"/>
-      <c r="C186" s="86"/>
+      <c r="A186" s="84"/>
+      <c r="B186" s="88"/>
+      <c r="C186" s="88"/>
       <c r="D186" s="42" t="s">
         <v>287</v>
       </c>
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
       <c r="G186" s="42"/>
-      <c r="H186" s="62"/>
+      <c r="H186" s="69"/>
       <c r="I186" s="57"/>
       <c r="J186" s="57"/>
       <c r="K186" s="57"/>
@@ -50967,8 +50967,8 @@
       <c r="IV186" s="54"/>
     </row>
     <row r="187" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A187" s="64"/>
-      <c r="B187" s="81" t="s">
+      <c r="A187" s="84"/>
+      <c r="B187" s="64" t="s">
         <v>295</v>
       </c>
       <c r="C187" s="42" t="s">
@@ -50978,7 +50978,7 @@
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
-      <c r="H187" s="60">
+      <c r="H187" s="67">
         <v>0.5</v>
       </c>
       <c r="I187" s="57"/>
@@ -51231,9 +51231,9 @@
       <c r="IV187" s="54"/>
     </row>
     <row r="188" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A188" s="64"/>
-      <c r="B188" s="82"/>
-      <c r="C188" s="77" t="s">
+      <c r="A188" s="84"/>
+      <c r="B188" s="96"/>
+      <c r="C188" s="86" t="s">
         <v>297</v>
       </c>
       <c r="D188" s="42" t="s">
@@ -51244,7 +51244,7 @@
         <v>299</v>
       </c>
       <c r="G188" s="42"/>
-      <c r="H188" s="61"/>
+      <c r="H188" s="68"/>
       <c r="I188" s="57"/>
       <c r="J188" s="57"/>
       <c r="K188" s="57"/>
@@ -51495,9 +51495,9 @@
       <c r="IV188" s="54"/>
     </row>
     <row r="189" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A189" s="64"/>
-      <c r="B189" s="83"/>
-      <c r="C189" s="77"/>
+      <c r="A189" s="84"/>
+      <c r="B189" s="74"/>
+      <c r="C189" s="86"/>
       <c r="D189" s="42" t="s">
         <v>300</v>
       </c>
@@ -51506,7 +51506,7 @@
         <v>299</v>
       </c>
       <c r="G189" s="42"/>
-      <c r="H189" s="61"/>
+      <c r="H189" s="68"/>
       <c r="I189" s="57"/>
       <c r="J189" s="57"/>
       <c r="K189" s="57"/>
@@ -51757,9 +51757,9 @@
       <c r="IV189" s="54"/>
     </row>
     <row r="190" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A190" s="64"/>
-      <c r="B190" s="83"/>
-      <c r="C190" s="77"/>
+      <c r="A190" s="84"/>
+      <c r="B190" s="74"/>
+      <c r="C190" s="86"/>
       <c r="D190" s="42" t="s">
         <v>22</v>
       </c>
@@ -51768,7 +51768,7 @@
         <v>301</v>
       </c>
       <c r="G190" s="42"/>
-      <c r="H190" s="61"/>
+      <c r="H190" s="68"/>
       <c r="I190" s="57"/>
       <c r="J190" s="57"/>
       <c r="K190" s="57"/>
@@ -52019,9 +52019,9 @@
       <c r="IV190" s="54"/>
     </row>
     <row r="191" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A191" s="64"/>
-      <c r="B191" s="83"/>
-      <c r="C191" s="77" t="s">
+      <c r="A191" s="84"/>
+      <c r="B191" s="74"/>
+      <c r="C191" s="86" t="s">
         <v>302</v>
       </c>
       <c r="D191" s="42" t="s">
@@ -52032,7 +52032,7 @@
         <v>304</v>
       </c>
       <c r="G191" s="42"/>
-      <c r="H191" s="61"/>
+      <c r="H191" s="68"/>
       <c r="I191" s="57"/>
       <c r="J191" s="57"/>
       <c r="K191" s="57"/>
@@ -52283,9 +52283,9 @@
       <c r="IV191" s="54"/>
     </row>
     <row r="192" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A192" s="64"/>
-      <c r="B192" s="83"/>
-      <c r="C192" s="77"/>
+      <c r="A192" s="84"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="86"/>
       <c r="D192" s="42" t="s">
         <v>305</v>
       </c>
@@ -52294,7 +52294,7 @@
         <v>304</v>
       </c>
       <c r="G192" s="42"/>
-      <c r="H192" s="61"/>
+      <c r="H192" s="68"/>
       <c r="I192" s="57"/>
       <c r="J192" s="57"/>
       <c r="K192" s="57"/>
@@ -52545,9 +52545,9 @@
       <c r="IV192" s="54"/>
     </row>
     <row r="193" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A193" s="64"/>
-      <c r="B193" s="83"/>
-      <c r="C193" s="77" t="s">
+      <c r="A193" s="84"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="86" t="s">
         <v>306</v>
       </c>
       <c r="D193" s="42" t="s">
@@ -52558,7 +52558,7 @@
         <v>308</v>
       </c>
       <c r="G193" s="42"/>
-      <c r="H193" s="61"/>
+      <c r="H193" s="68"/>
       <c r="I193" s="57"/>
       <c r="J193" s="57"/>
       <c r="K193" s="57"/>
@@ -52809,9 +52809,9 @@
       <c r="IV193" s="54"/>
     </row>
     <row r="194" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A194" s="64"/>
-      <c r="B194" s="84"/>
-      <c r="C194" s="77"/>
+      <c r="A194" s="84"/>
+      <c r="B194" s="77"/>
+      <c r="C194" s="86"/>
       <c r="D194" s="42" t="s">
         <v>309</v>
       </c>
@@ -52820,7 +52820,7 @@
         <v>123</v>
       </c>
       <c r="G194" s="42"/>
-      <c r="H194" s="61"/>
+      <c r="H194" s="68"/>
       <c r="I194" s="57"/>
       <c r="J194" s="57"/>
       <c r="K194" s="57"/>
@@ -53071,11 +53071,11 @@
       <c r="IV194" s="54"/>
     </row>
     <row r="195" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A195" s="64"/>
-      <c r="B195" s="77" t="s">
+      <c r="A195" s="84"/>
+      <c r="B195" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="C195" s="77" t="s">
+      <c r="C195" s="86" t="s">
         <v>311</v>
       </c>
       <c r="D195" s="42" t="s">
@@ -53088,7 +53088,7 @@
         <v>313</v>
       </c>
       <c r="G195" s="42"/>
-      <c r="H195" s="61"/>
+      <c r="H195" s="68"/>
       <c r="I195" s="57"/>
       <c r="J195" s="57"/>
       <c r="K195" s="57"/>
@@ -53339,9 +53339,9 @@
       <c r="IV195" s="54"/>
     </row>
     <row r="196" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A196" s="64"/>
-      <c r="B196" s="77"/>
-      <c r="C196" s="77"/>
+      <c r="A196" s="84"/>
+      <c r="B196" s="86"/>
+      <c r="C196" s="86"/>
       <c r="D196" s="42"/>
       <c r="E196" s="42" t="s">
         <v>314</v>
@@ -53350,7 +53350,7 @@
         <v>123</v>
       </c>
       <c r="G196" s="42"/>
-      <c r="H196" s="61"/>
+      <c r="H196" s="68"/>
       <c r="I196" s="57"/>
       <c r="J196" s="57"/>
       <c r="K196" s="57"/>
@@ -53601,11 +53601,11 @@
       <c r="IV196" s="54"/>
     </row>
     <row r="197" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A197" s="64"/>
-      <c r="B197" s="77" t="s">
+      <c r="A197" s="84"/>
+      <c r="B197" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="C197" s="77" t="s">
+      <c r="C197" s="86" t="s">
         <v>316</v>
       </c>
       <c r="D197" s="42" t="s">
@@ -53618,7 +53618,7 @@
       <c r="G197" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="H197" s="61"/>
+      <c r="H197" s="68"/>
       <c r="I197" s="57"/>
       <c r="J197" s="57"/>
       <c r="K197" s="57"/>
@@ -53869,9 +53869,9 @@
       <c r="IV197" s="54"/>
     </row>
     <row r="198" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A198" s="64"/>
-      <c r="B198" s="77"/>
-      <c r="C198" s="77"/>
+      <c r="A198" s="84"/>
+      <c r="B198" s="86"/>
+      <c r="C198" s="86"/>
       <c r="D198" s="42" t="s">
         <v>320</v>
       </c>
@@ -53880,7 +53880,7 @@
         <v>318</v>
       </c>
       <c r="G198" s="42"/>
-      <c r="H198" s="61"/>
+      <c r="H198" s="68"/>
       <c r="I198" s="57"/>
       <c r="J198" s="57"/>
       <c r="K198" s="57"/>
@@ -54131,9 +54131,9 @@
       <c r="IV198" s="54"/>
     </row>
     <row r="199" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A199" s="65"/>
-      <c r="B199" s="77"/>
-      <c r="C199" s="77"/>
+      <c r="A199" s="85"/>
+      <c r="B199" s="86"/>
+      <c r="C199" s="86"/>
       <c r="D199" s="42" t="s">
         <v>321</v>
       </c>
@@ -54142,7 +54142,7 @@
         <v>318</v>
       </c>
       <c r="G199" s="42"/>
-      <c r="H199" s="62"/>
+      <c r="H199" s="69"/>
       <c r="I199" s="57"/>
       <c r="J199" s="57"/>
       <c r="K199" s="57"/>
@@ -54393,13 +54393,13 @@
       <c r="IV199" s="54"/>
     </row>
     <row r="200" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A200" s="63" t="s">
+      <c r="A200" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="B200" s="70" t="s">
+      <c r="B200" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C200" s="80" t="s">
+      <c r="C200" s="95" t="s">
         <v>42</v>
       </c>
       <c r="D200" s="44" t="s">
@@ -54661,9 +54661,9 @@
       <c r="IV200" s="54"/>
     </row>
     <row r="201" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A201" s="64"/>
-      <c r="B201" s="78"/>
-      <c r="C201" s="80"/>
+      <c r="A201" s="84"/>
+      <c r="B201" s="93"/>
+      <c r="C201" s="95"/>
       <c r="D201" s="44" t="s">
         <v>44</v>
       </c>
@@ -54923,9 +54923,9 @@
       <c r="IV201" s="54"/>
     </row>
     <row r="202" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A202" s="64"/>
-      <c r="B202" s="78"/>
-      <c r="C202" s="80"/>
+      <c r="A202" s="84"/>
+      <c r="B202" s="93"/>
+      <c r="C202" s="95"/>
       <c r="D202" s="44" t="s">
         <v>325</v>
       </c>
@@ -55185,9 +55185,9 @@
       <c r="IV202" s="54"/>
     </row>
     <row r="203" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A203" s="64"/>
-      <c r="B203" s="78"/>
-      <c r="C203" s="80"/>
+      <c r="A203" s="84"/>
+      <c r="B203" s="93"/>
+      <c r="C203" s="95"/>
       <c r="D203" s="44" t="s">
         <v>327</v>
       </c>
@@ -55447,10 +55447,10 @@
       <c r="IV203" s="54"/>
     </row>
     <row r="204" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A204" s="64"/>
-      <c r="B204" s="78"/>
-      <c r="C204" s="80"/>
-      <c r="D204" s="70" t="s">
+      <c r="A204" s="84"/>
+      <c r="B204" s="93"/>
+      <c r="C204" s="95"/>
+      <c r="D204" s="92" t="s">
         <v>329</v>
       </c>
       <c r="E204" s="44" t="s">
@@ -55711,10 +55711,10 @@
       <c r="IV204" s="54"/>
     </row>
     <row r="205" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A205" s="64"/>
-      <c r="B205" s="78"/>
-      <c r="C205" s="80"/>
-      <c r="D205" s="67"/>
+      <c r="A205" s="84"/>
+      <c r="B205" s="93"/>
+      <c r="C205" s="95"/>
+      <c r="D205" s="98"/>
       <c r="E205" s="44" t="s">
         <v>332</v>
       </c>
@@ -55973,10 +55973,10 @@
       <c r="IV205" s="54"/>
     </row>
     <row r="206" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A206" s="64"/>
-      <c r="B206" s="78"/>
-      <c r="C206" s="80"/>
-      <c r="D206" s="67"/>
+      <c r="A206" s="84"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="95"/>
+      <c r="D206" s="98"/>
       <c r="E206" s="44" t="s">
         <v>199</v>
       </c>
@@ -56235,10 +56235,10 @@
       <c r="IV206" s="54"/>
     </row>
     <row r="207" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A207" s="64"/>
-      <c r="B207" s="78"/>
-      <c r="C207" s="80"/>
-      <c r="D207" s="68"/>
+      <c r="A207" s="84"/>
+      <c r="B207" s="93"/>
+      <c r="C207" s="95"/>
+      <c r="D207" s="99"/>
       <c r="E207" s="44" t="s">
         <v>201</v>
       </c>
@@ -56497,9 +56497,9 @@
       <c r="IV207" s="54"/>
     </row>
     <row r="208" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A208" s="64"/>
-      <c r="B208" s="78"/>
-      <c r="C208" s="80"/>
+      <c r="A208" s="84"/>
+      <c r="B208" s="93"/>
+      <c r="C208" s="95"/>
       <c r="D208" s="44" t="s">
         <v>45</v>
       </c>
@@ -56759,9 +56759,9 @@
       <c r="IV208" s="54"/>
     </row>
     <row r="209" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A209" s="64"/>
-      <c r="B209" s="78"/>
-      <c r="C209" s="80"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="93"/>
+      <c r="C209" s="95"/>
       <c r="D209" s="44" t="s">
         <v>337</v>
       </c>
@@ -57021,9 +57021,9 @@
       <c r="IV209" s="54"/>
     </row>
     <row r="210" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A210" s="65"/>
-      <c r="B210" s="79"/>
-      <c r="C210" s="80"/>
+      <c r="A210" s="85"/>
+      <c r="B210" s="94"/>
+      <c r="C210" s="95"/>
       <c r="D210" s="44" t="s">
         <v>339</v>
       </c>
@@ -57283,7 +57283,7 @@
       <c r="IV210" s="54"/>
     </row>
     <row r="211" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A211" s="63" t="s">
+      <c r="A211" s="83" t="s">
         <v>341</v>
       </c>
       <c r="B211" s="45" t="s">
@@ -57547,7 +57547,7 @@
       <c r="IT211" s="54"/>
     </row>
     <row r="212" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A212" s="64"/>
+      <c r="A212" s="84"/>
       <c r="B212" s="46" t="s">
         <v>74</v>
       </c>
@@ -57807,8 +57807,8 @@
       <c r="IT212" s="54"/>
     </row>
     <row r="213" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A213" s="64"/>
-      <c r="B213" s="71" t="s">
+      <c r="A213" s="84"/>
+      <c r="B213" s="101" t="s">
         <v>20</v>
       </c>
       <c r="C213" s="46" t="s">
@@ -58069,8 +58069,8 @@
       <c r="IT213" s="54"/>
     </row>
     <row r="214" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A214" s="64"/>
-      <c r="B214" s="71"/>
+      <c r="A214" s="84"/>
+      <c r="B214" s="101"/>
       <c r="C214" s="46" t="s">
         <v>348</v>
       </c>
@@ -58329,14 +58329,14 @@
       <c r="IT214" s="54"/>
     </row>
     <row r="215" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A215" s="64"/>
-      <c r="B215" s="71" t="s">
+      <c r="A215" s="84"/>
+      <c r="B215" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="C215" s="71" t="s">
+      <c r="C215" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="D215" s="72" t="s">
+      <c r="D215" s="91" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="48" t="s">
@@ -58593,10 +58593,10 @@
       <c r="IT215" s="54"/>
     </row>
     <row r="216" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A216" s="64"/>
-      <c r="B216" s="71"/>
-      <c r="C216" s="71"/>
-      <c r="D216" s="73"/>
+      <c r="A216" s="84"/>
+      <c r="B216" s="101"/>
+      <c r="C216" s="101"/>
+      <c r="D216" s="102"/>
       <c r="E216" s="46" t="s">
         <v>353</v>
       </c>
@@ -58853,10 +58853,10 @@
       <c r="IT216" s="54"/>
     </row>
     <row r="217" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A217" s="64"/>
-      <c r="B217" s="71"/>
-      <c r="C217" s="71"/>
-      <c r="D217" s="73"/>
+      <c r="A217" s="84"/>
+      <c r="B217" s="101"/>
+      <c r="C217" s="101"/>
+      <c r="D217" s="102"/>
       <c r="E217" s="46" t="s">
         <v>355</v>
       </c>
@@ -59113,10 +59113,10 @@
       <c r="IT217" s="54"/>
     </row>
     <row r="218" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A218" s="64"/>
-      <c r="B218" s="71"/>
-      <c r="C218" s="71"/>
-      <c r="D218" s="74"/>
+      <c r="A218" s="84"/>
+      <c r="B218" s="101"/>
+      <c r="C218" s="101"/>
+      <c r="D218" s="90"/>
       <c r="E218" s="46" t="s">
         <v>357</v>
       </c>
@@ -59373,10 +59373,10 @@
       <c r="IT218" s="54"/>
     </row>
     <row r="219" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A219" s="64"/>
-      <c r="B219" s="71"/>
-      <c r="C219" s="71"/>
-      <c r="D219" s="75" t="s">
+      <c r="A219" s="84"/>
+      <c r="B219" s="101"/>
+      <c r="C219" s="101"/>
+      <c r="D219" s="89" t="s">
         <v>359</v>
       </c>
       <c r="E219" s="46" t="s">
@@ -59635,10 +59635,10 @@
       <c r="IT219" s="54"/>
     </row>
     <row r="220" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A220" s="64"/>
-      <c r="B220" s="71"/>
-      <c r="C220" s="71"/>
-      <c r="D220" s="73"/>
+      <c r="A220" s="84"/>
+      <c r="B220" s="101"/>
+      <c r="C220" s="101"/>
+      <c r="D220" s="102"/>
       <c r="E220" s="48" t="s">
         <v>355</v>
       </c>
@@ -59895,10 +59895,10 @@
       <c r="IT220" s="54"/>
     </row>
     <row r="221" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A221" s="64"/>
-      <c r="B221" s="71"/>
-      <c r="C221" s="71"/>
-      <c r="D221" s="73"/>
+      <c r="A221" s="84"/>
+      <c r="B221" s="101"/>
+      <c r="C221" s="101"/>
+      <c r="D221" s="102"/>
       <c r="E221" s="46" t="s">
         <v>363</v>
       </c>
@@ -60155,10 +60155,10 @@
       <c r="IT221" s="54"/>
     </row>
     <row r="222" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A222" s="64"/>
-      <c r="B222" s="71"/>
-      <c r="C222" s="71"/>
-      <c r="D222" s="74"/>
+      <c r="A222" s="84"/>
+      <c r="B222" s="101"/>
+      <c r="C222" s="101"/>
+      <c r="D222" s="90"/>
       <c r="E222" s="46" t="s">
         <v>350</v>
       </c>
@@ -60415,9 +60415,9 @@
       <c r="IT222" s="54"/>
     </row>
     <row r="223" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A223" s="64"/>
-      <c r="B223" s="71"/>
-      <c r="C223" s="72" t="s">
+      <c r="A223" s="84"/>
+      <c r="B223" s="101"/>
+      <c r="C223" s="91" t="s">
         <v>365</v>
       </c>
       <c r="D223" s="46" t="s">
@@ -60429,7 +60429,7 @@
       </c>
       <c r="G223" s="46"/>
       <c r="H223" s="57"/>
-      <c r="I223" s="60">
+      <c r="I223" s="67">
         <v>0.5</v>
       </c>
       <c r="J223" s="57"/>
@@ -60679,9 +60679,9 @@
       <c r="IT223" s="54"/>
     </row>
     <row r="224" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A224" s="64"/>
-      <c r="B224" s="71"/>
-      <c r="C224" s="74"/>
+      <c r="A224" s="84"/>
+      <c r="B224" s="101"/>
+      <c r="C224" s="90"/>
       <c r="D224" s="46" t="s">
         <v>368</v>
       </c>
@@ -60691,7 +60691,7 @@
       </c>
       <c r="G224" s="46"/>
       <c r="H224" s="57"/>
-      <c r="I224" s="61"/>
+      <c r="I224" s="68"/>
       <c r="J224" s="57"/>
       <c r="K224" s="57"/>
       <c r="L224" s="57"/>
@@ -60939,9 +60939,9 @@
       <c r="IT224" s="54"/>
     </row>
     <row r="225" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A225" s="64"/>
-      <c r="B225" s="71"/>
-      <c r="C225" s="71" t="s">
+      <c r="A225" s="84"/>
+      <c r="B225" s="101"/>
+      <c r="C225" s="101" t="s">
         <v>370</v>
       </c>
       <c r="D225" s="46" t="s">
@@ -60953,7 +60953,7 @@
       </c>
       <c r="G225" s="46"/>
       <c r="H225" s="57"/>
-      <c r="I225" s="61"/>
+      <c r="I225" s="68"/>
       <c r="J225" s="57"/>
       <c r="K225" s="57"/>
       <c r="L225" s="57"/>
@@ -61201,9 +61201,9 @@
       <c r="IT225" s="54"/>
     </row>
     <row r="226" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A226" s="64"/>
-      <c r="B226" s="71"/>
-      <c r="C226" s="71"/>
+      <c r="A226" s="84"/>
+      <c r="B226" s="101"/>
+      <c r="C226" s="101"/>
       <c r="D226" s="46" t="s">
         <v>373</v>
       </c>
@@ -61211,7 +61211,7 @@
       <c r="F226" s="46"/>
       <c r="G226" s="46"/>
       <c r="H226" s="57"/>
-      <c r="I226" s="61"/>
+      <c r="I226" s="68"/>
       <c r="J226" s="57"/>
       <c r="K226" s="57"/>
       <c r="L226" s="57"/>
@@ -61459,9 +61459,9 @@
       <c r="IT226" s="54"/>
     </row>
     <row r="227" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A227" s="64"/>
-      <c r="B227" s="71"/>
-      <c r="C227" s="71"/>
+      <c r="A227" s="84"/>
+      <c r="B227" s="101"/>
+      <c r="C227" s="101"/>
       <c r="D227" s="46" t="s">
         <v>374</v>
       </c>
@@ -61469,7 +61469,7 @@
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
       <c r="H227" s="57"/>
-      <c r="I227" s="62"/>
+      <c r="I227" s="69"/>
       <c r="J227" s="57"/>
       <c r="K227" s="57"/>
       <c r="L227" s="57"/>
@@ -61717,8 +61717,8 @@
       <c r="IT227" s="54"/>
     </row>
     <row r="228" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A228" s="64"/>
-      <c r="B228" s="72" t="s">
+      <c r="A228" s="84"/>
+      <c r="B228" s="91" t="s">
         <v>375</v>
       </c>
       <c r="C228" s="46" t="s">
@@ -61731,7 +61731,7 @@
       </c>
       <c r="G228" s="46"/>
       <c r="H228" s="46"/>
-      <c r="I228" s="60">
+      <c r="I228" s="67">
         <v>1</v>
       </c>
       <c r="J228" s="57"/>
@@ -61981,8 +61981,8 @@
       <c r="IT228" s="54"/>
     </row>
     <row r="229" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A229" s="64"/>
-      <c r="B229" s="76"/>
+      <c r="A229" s="84"/>
+      <c r="B229" s="103"/>
       <c r="C229" s="46" t="s">
         <v>378</v>
       </c>
@@ -61993,7 +61993,7 @@
       </c>
       <c r="G229" s="46"/>
       <c r="H229" s="46"/>
-      <c r="I229" s="61"/>
+      <c r="I229" s="68"/>
       <c r="J229" s="57"/>
       <c r="K229" s="57"/>
       <c r="L229" s="57"/>
@@ -62241,9 +62241,9 @@
       <c r="IT229" s="54"/>
     </row>
     <row r="230" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A230" s="64"/>
-      <c r="B230" s="73"/>
-      <c r="C230" s="72" t="s">
+      <c r="A230" s="84"/>
+      <c r="B230" s="102"/>
+      <c r="C230" s="91" t="s">
         <v>380</v>
       </c>
       <c r="D230" s="46" t="s">
@@ -62255,7 +62255,7 @@
       </c>
       <c r="G230" s="46"/>
       <c r="H230" s="46"/>
-      <c r="I230" s="61"/>
+      <c r="I230" s="68"/>
       <c r="J230" s="57"/>
       <c r="K230" s="57"/>
       <c r="L230" s="57"/>
@@ -62503,9 +62503,9 @@
       <c r="IT230" s="54"/>
     </row>
     <row r="231" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A231" s="64"/>
-      <c r="B231" s="73"/>
-      <c r="C231" s="74"/>
+      <c r="A231" s="84"/>
+      <c r="B231" s="102"/>
+      <c r="C231" s="90"/>
       <c r="D231" s="46" t="s">
         <v>383</v>
       </c>
@@ -62515,7 +62515,7 @@
       </c>
       <c r="G231" s="46"/>
       <c r="H231" s="46"/>
-      <c r="I231" s="61"/>
+      <c r="I231" s="68"/>
       <c r="J231" s="57"/>
       <c r="K231" s="57"/>
       <c r="L231" s="57"/>
@@ -62763,9 +62763,9 @@
       <c r="IT231" s="54"/>
     </row>
     <row r="232" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A232" s="64"/>
-      <c r="B232" s="73"/>
-      <c r="C232" s="71" t="s">
+      <c r="A232" s="84"/>
+      <c r="B232" s="102"/>
+      <c r="C232" s="101" t="s">
         <v>385</v>
       </c>
       <c r="D232" s="46" t="s">
@@ -62777,7 +62777,7 @@
       </c>
       <c r="G232" s="46"/>
       <c r="H232" s="46"/>
-      <c r="I232" s="61"/>
+      <c r="I232" s="68"/>
       <c r="J232" s="57"/>
       <c r="K232" s="57"/>
       <c r="L232" s="57"/>
@@ -63025,9 +63025,9 @@
       <c r="IT232" s="54"/>
     </row>
     <row r="233" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A233" s="64"/>
-      <c r="B233" s="73"/>
-      <c r="C233" s="71"/>
+      <c r="A233" s="84"/>
+      <c r="B233" s="102"/>
+      <c r="C233" s="101"/>
       <c r="D233" s="46" t="s">
         <v>388</v>
       </c>
@@ -63037,7 +63037,7 @@
       </c>
       <c r="G233" s="46"/>
       <c r="H233" s="46"/>
-      <c r="I233" s="61"/>
+      <c r="I233" s="68"/>
       <c r="J233" s="57"/>
       <c r="K233" s="57"/>
       <c r="L233" s="57"/>
@@ -63285,9 +63285,9 @@
       <c r="IT233" s="54"/>
     </row>
     <row r="234" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A234" s="64"/>
-      <c r="B234" s="73"/>
-      <c r="C234" s="71"/>
+      <c r="A234" s="84"/>
+      <c r="B234" s="102"/>
+      <c r="C234" s="101"/>
       <c r="D234" s="46" t="s">
         <v>390</v>
       </c>
@@ -63297,7 +63297,7 @@
       </c>
       <c r="G234" s="46"/>
       <c r="H234" s="46"/>
-      <c r="I234" s="61"/>
+      <c r="I234" s="68"/>
       <c r="J234" s="57"/>
       <c r="K234" s="57"/>
       <c r="L234" s="57"/>
@@ -63545,8 +63545,8 @@
       <c r="IT234" s="54"/>
     </row>
     <row r="235" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A235" s="64"/>
-      <c r="B235" s="74"/>
+      <c r="A235" s="84"/>
+      <c r="B235" s="90"/>
       <c r="C235" s="46" t="s">
         <v>392</v>
       </c>
@@ -63559,7 +63559,7 @@
       </c>
       <c r="G235" s="46"/>
       <c r="H235" s="46"/>
-      <c r="I235" s="61"/>
+      <c r="I235" s="68"/>
       <c r="J235" s="57"/>
       <c r="K235" s="57"/>
       <c r="L235" s="57"/>
@@ -63807,11 +63807,11 @@
       <c r="IT235" s="54"/>
     </row>
     <row r="236" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A236" s="64"/>
-      <c r="B236" s="75" t="s">
+      <c r="A236" s="84"/>
+      <c r="B236" s="89" t="s">
         <v>395</v>
       </c>
-      <c r="C236" s="72" t="s">
+      <c r="C236" s="91" t="s">
         <v>396</v>
       </c>
       <c r="D236" s="46" t="s">
@@ -63823,7 +63823,7 @@
       </c>
       <c r="G236" s="46"/>
       <c r="H236" s="46"/>
-      <c r="I236" s="61"/>
+      <c r="I236" s="68"/>
       <c r="J236" s="57"/>
       <c r="K236" s="57"/>
       <c r="L236" s="57"/>
@@ -64071,9 +64071,9 @@
       <c r="IT236" s="54"/>
     </row>
     <row r="237" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A237" s="65"/>
-      <c r="B237" s="74"/>
-      <c r="C237" s="74"/>
+      <c r="A237" s="85"/>
+      <c r="B237" s="90"/>
+      <c r="C237" s="90"/>
       <c r="D237" s="46" t="s">
         <v>399</v>
       </c>
@@ -64083,7 +64083,7 @@
       </c>
       <c r="G237" s="46"/>
       <c r="H237" s="46"/>
-      <c r="I237" s="62"/>
+      <c r="I237" s="69"/>
       <c r="J237" s="57"/>
       <c r="K237" s="57"/>
       <c r="L237" s="57"/>
@@ -64331,7 +64331,7 @@
       <c r="IT237" s="54"/>
     </row>
     <row r="238" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A238" s="63" t="s">
+      <c r="A238" s="83" t="s">
         <v>401</v>
       </c>
       <c r="B238" s="50" t="s">
@@ -64597,7 +64597,7 @@
       <c r="IV238" s="54"/>
     </row>
     <row r="239" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A239" s="64"/>
+      <c r="A239" s="84"/>
       <c r="B239" s="52" t="s">
         <v>61</v>
       </c>
@@ -64861,7 +64861,7 @@
       <c r="IV239" s="54"/>
     </row>
     <row r="240" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A240" s="64"/>
+      <c r="A240" s="84"/>
       <c r="B240" s="52" t="s">
         <v>57</v>
       </c>
@@ -65125,7 +65125,7 @@
       <c r="IV240" s="54"/>
     </row>
     <row r="241" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A241" s="64"/>
+      <c r="A241" s="84"/>
       <c r="B241" s="52" t="s">
         <v>405</v>
       </c>
@@ -65387,8 +65387,8 @@
       <c r="IV241" s="54"/>
     </row>
     <row r="242" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A242" s="64"/>
-      <c r="B242" s="66" t="s">
+      <c r="A242" s="84"/>
+      <c r="B242" s="97" t="s">
         <v>407</v>
       </c>
       <c r="C242" s="52" t="s">
@@ -65401,7 +65401,7 @@
       </c>
       <c r="G242" s="52"/>
       <c r="H242" s="57"/>
-      <c r="I242" s="60">
+      <c r="I242" s="67">
         <v>1</v>
       </c>
       <c r="J242" s="57"/>
@@ -65653,8 +65653,8 @@
       <c r="IV242" s="54"/>
     </row>
     <row r="243" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A243" s="64"/>
-      <c r="B243" s="67"/>
+      <c r="A243" s="84"/>
+      <c r="B243" s="98"/>
       <c r="C243" s="52" t="s">
         <v>410</v>
       </c>
@@ -65665,7 +65665,7 @@
       </c>
       <c r="G243" s="52"/>
       <c r="H243" s="57"/>
-      <c r="I243" s="61"/>
+      <c r="I243" s="68"/>
       <c r="J243" s="57"/>
       <c r="K243" s="57"/>
       <c r="L243" s="57"/>
@@ -65915,8 +65915,8 @@
       <c r="IV243" s="54"/>
     </row>
     <row r="244" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A244" s="64"/>
-      <c r="B244" s="67"/>
+      <c r="A244" s="84"/>
+      <c r="B244" s="98"/>
       <c r="C244" s="52" t="s">
         <v>412</v>
       </c>
@@ -65927,7 +65927,7 @@
       </c>
       <c r="G244" s="52"/>
       <c r="H244" s="57"/>
-      <c r="I244" s="61"/>
+      <c r="I244" s="68"/>
       <c r="J244" s="57"/>
       <c r="K244" s="57"/>
       <c r="L244" s="57"/>
@@ -66177,8 +66177,8 @@
       <c r="IV244" s="54"/>
     </row>
     <row r="245" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A245" s="64"/>
-      <c r="B245" s="67"/>
+      <c r="A245" s="84"/>
+      <c r="B245" s="98"/>
       <c r="C245" s="52" t="s">
         <v>414</v>
       </c>
@@ -66189,7 +66189,7 @@
       </c>
       <c r="G245" s="52"/>
       <c r="H245" s="57"/>
-      <c r="I245" s="61"/>
+      <c r="I245" s="68"/>
       <c r="J245" s="57"/>
       <c r="K245" s="57"/>
       <c r="L245" s="57"/>
@@ -66439,8 +66439,8 @@
       <c r="IV245" s="54"/>
     </row>
     <row r="246" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A246" s="64"/>
-      <c r="B246" s="67"/>
+      <c r="A246" s="84"/>
+      <c r="B246" s="98"/>
       <c r="C246" s="52" t="s">
         <v>416</v>
       </c>
@@ -66451,7 +66451,7 @@
       </c>
       <c r="G246" s="52"/>
       <c r="H246" s="57"/>
-      <c r="I246" s="61"/>
+      <c r="I246" s="68"/>
       <c r="J246" s="57"/>
       <c r="K246" s="57"/>
       <c r="L246" s="57"/>
@@ -66701,8 +66701,8 @@
       <c r="IV246" s="54"/>
     </row>
     <row r="247" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A247" s="64"/>
-      <c r="B247" s="67"/>
+      <c r="A247" s="84"/>
+      <c r="B247" s="98"/>
       <c r="C247" s="52" t="s">
         <v>418</v>
       </c>
@@ -66713,7 +66713,7 @@
       </c>
       <c r="G247" s="52"/>
       <c r="H247" s="57"/>
-      <c r="I247" s="61"/>
+      <c r="I247" s="68"/>
       <c r="J247" s="57"/>
       <c r="K247" s="57"/>
       <c r="L247" s="57"/>
@@ -66963,8 +66963,8 @@
       <c r="IV247" s="54"/>
     </row>
     <row r="248" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A248" s="64"/>
-      <c r="B248" s="68"/>
+      <c r="A248" s="84"/>
+      <c r="B248" s="99"/>
       <c r="C248" s="52" t="s">
         <v>420</v>
       </c>
@@ -66975,7 +66975,7 @@
       </c>
       <c r="G248" s="52"/>
       <c r="H248" s="57"/>
-      <c r="I248" s="61"/>
+      <c r="I248" s="68"/>
       <c r="J248" s="57"/>
       <c r="K248" s="57"/>
       <c r="L248" s="57"/>
@@ -67225,8 +67225,8 @@
       <c r="IV248" s="54"/>
     </row>
     <row r="249" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A249" s="64"/>
-      <c r="B249" s="69" t="s">
+      <c r="A249" s="84"/>
+      <c r="B249" s="100" t="s">
         <v>422</v>
       </c>
       <c r="C249" s="53" t="s">
@@ -67241,7 +67241,7 @@
       </c>
       <c r="G249" s="53"/>
       <c r="H249" s="57"/>
-      <c r="I249" s="61"/>
+      <c r="I249" s="68"/>
       <c r="J249" s="57"/>
       <c r="K249" s="57"/>
       <c r="L249" s="57"/>
@@ -67491,9 +67491,9 @@
       <c r="IV249" s="54"/>
     </row>
     <row r="250" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A250" s="64"/>
-      <c r="B250" s="69"/>
-      <c r="C250" s="69" t="s">
+      <c r="A250" s="84"/>
+      <c r="B250" s="100"/>
+      <c r="C250" s="100" t="s">
         <v>425</v>
       </c>
       <c r="D250" s="53" t="s">
@@ -67505,7 +67505,7 @@
       </c>
       <c r="G250" s="53"/>
       <c r="H250" s="57"/>
-      <c r="I250" s="61"/>
+      <c r="I250" s="68"/>
       <c r="J250" s="57"/>
       <c r="K250" s="57"/>
       <c r="L250" s="57"/>
@@ -67755,9 +67755,9 @@
       <c r="IV250" s="54"/>
     </row>
     <row r="251" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A251" s="64"/>
-      <c r="B251" s="69"/>
-      <c r="C251" s="69"/>
+      <c r="A251" s="84"/>
+      <c r="B251" s="100"/>
+      <c r="C251" s="100"/>
       <c r="D251" s="53" t="s">
         <v>286</v>
       </c>
@@ -67765,7 +67765,7 @@
       <c r="F251" s="53"/>
       <c r="G251" s="53"/>
       <c r="H251" s="57"/>
-      <c r="I251" s="61"/>
+      <c r="I251" s="68"/>
       <c r="J251" s="57"/>
       <c r="K251" s="57"/>
       <c r="L251" s="57"/>
@@ -68015,9 +68015,9 @@
       <c r="IV251" s="54"/>
     </row>
     <row r="252" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A252" s="64"/>
-      <c r="B252" s="69"/>
-      <c r="C252" s="69"/>
+      <c r="A252" s="84"/>
+      <c r="B252" s="100"/>
+      <c r="C252" s="100"/>
       <c r="D252" s="53" t="s">
         <v>287</v>
       </c>
@@ -68025,7 +68025,7 @@
       <c r="F252" s="53"/>
       <c r="G252" s="53"/>
       <c r="H252" s="57"/>
-      <c r="I252" s="61"/>
+      <c r="I252" s="68"/>
       <c r="J252" s="57"/>
       <c r="K252" s="57"/>
       <c r="L252" s="57"/>
@@ -68275,8 +68275,8 @@
       <c r="IV252" s="54"/>
     </row>
     <row r="253" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A253" s="64"/>
-      <c r="B253" s="66" t="s">
+      <c r="A253" s="84"/>
+      <c r="B253" s="97" t="s">
         <v>427</v>
       </c>
       <c r="C253" s="52" t="s">
@@ -68289,7 +68289,7 @@
       </c>
       <c r="G253" s="52"/>
       <c r="H253" s="57"/>
-      <c r="I253" s="61"/>
+      <c r="I253" s="68"/>
       <c r="J253" s="57"/>
       <c r="K253" s="57"/>
       <c r="L253" s="57"/>
@@ -68539,8 +68539,8 @@
       <c r="IV253" s="54"/>
     </row>
     <row r="254" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A254" s="64"/>
-      <c r="B254" s="67"/>
+      <c r="A254" s="84"/>
+      <c r="B254" s="98"/>
       <c r="C254" s="52" t="s">
         <v>430</v>
       </c>
@@ -68551,7 +68551,7 @@
       </c>
       <c r="G254" s="52"/>
       <c r="H254" s="57"/>
-      <c r="I254" s="61"/>
+      <c r="I254" s="68"/>
       <c r="J254" s="57"/>
       <c r="K254" s="57"/>
       <c r="L254" s="57"/>
@@ -68801,8 +68801,8 @@
       <c r="IV254" s="54"/>
     </row>
     <row r="255" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A255" s="64"/>
-      <c r="B255" s="67"/>
+      <c r="A255" s="84"/>
+      <c r="B255" s="98"/>
       <c r="C255" s="52" t="s">
         <v>432</v>
       </c>
@@ -68811,7 +68811,7 @@
       <c r="F255" s="52"/>
       <c r="G255" s="52"/>
       <c r="H255" s="57"/>
-      <c r="I255" s="61"/>
+      <c r="I255" s="68"/>
       <c r="J255" s="57"/>
       <c r="K255" s="57"/>
       <c r="L255" s="57"/>
@@ -69061,8 +69061,8 @@
       <c r="IV255" s="54"/>
     </row>
     <row r="256" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A256" s="64"/>
-      <c r="B256" s="67"/>
+      <c r="A256" s="84"/>
+      <c r="B256" s="98"/>
       <c r="C256" s="52" t="s">
         <v>433</v>
       </c>
@@ -69071,7 +69071,7 @@
       <c r="F256" s="52"/>
       <c r="G256" s="52"/>
       <c r="H256" s="57"/>
-      <c r="I256" s="62"/>
+      <c r="I256" s="69"/>
       <c r="J256" s="57"/>
       <c r="K256" s="57"/>
       <c r="L256" s="57"/>
@@ -69321,8 +69321,8 @@
       <c r="IV256" s="54"/>
     </row>
     <row r="257" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A257" s="65"/>
-      <c r="B257" s="68"/>
+      <c r="A257" s="85"/>
+      <c r="B257" s="99"/>
       <c r="C257" s="52" t="s">
         <v>434</v>
       </c>
@@ -69818,19 +69818,19 @@
       <c r="E266" s="33"/>
       <c r="F266" s="34"/>
       <c r="G266" s="34"/>
-      <c r="H266" s="95">
+      <c r="H266" s="82">
         <f>H265+I265+J265+K265+L265+M265+N265+O265+P265+Q265</f>
         <v>5091.4285714285716</v>
       </c>
-      <c r="I266" s="96"/>
-      <c r="J266" s="96"/>
-      <c r="K266" s="96"/>
-      <c r="L266" s="96"/>
-      <c r="M266" s="96"/>
-      <c r="N266" s="96"/>
-      <c r="O266" s="96"/>
-      <c r="P266" s="96"/>
-      <c r="Q266" s="96"/>
+      <c r="I266" s="61"/>
+      <c r="J266" s="61"/>
+      <c r="K266" s="61"/>
+      <c r="L266" s="61"/>
+      <c r="M266" s="61"/>
+      <c r="N266" s="61"/>
+      <c r="O266" s="61"/>
+      <c r="P266" s="61"/>
+      <c r="Q266" s="61"/>
     </row>
     <row r="267" spans="1:256" ht="12" customHeight="1">
       <c r="A267" s="32" t="s">
@@ -69842,56 +69842,103 @@
       <c r="E267" s="33"/>
       <c r="F267" s="34"/>
       <c r="G267" s="34"/>
-      <c r="H267" s="95">
+      <c r="H267" s="82">
         <f>H266*1.06</f>
         <v>5396.9142857142861</v>
       </c>
-      <c r="I267" s="96"/>
-      <c r="J267" s="96"/>
-      <c r="K267" s="96"/>
-      <c r="L267" s="96"/>
-      <c r="M267" s="96"/>
-      <c r="N267" s="96"/>
-      <c r="O267" s="96"/>
-      <c r="P267" s="96"/>
-      <c r="Q267" s="96"/>
+      <c r="I267" s="61"/>
+      <c r="J267" s="61"/>
+      <c r="K267" s="61"/>
+      <c r="L267" s="61"/>
+      <c r="M267" s="61"/>
+      <c r="N267" s="61"/>
+      <c r="O267" s="61"/>
+      <c r="P267" s="61"/>
+      <c r="Q267" s="61"/>
     </row>
     <row r="268" spans="1:256" ht="12" customHeight="1">
-      <c r="A268" s="92" t="s">
+      <c r="A268" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B268" s="93"/>
-      <c r="C268" s="93"/>
-      <c r="D268" s="93"/>
-      <c r="E268" s="93"/>
-      <c r="F268" s="93"/>
-      <c r="G268" s="93"/>
-      <c r="H268" s="93"/>
-      <c r="I268" s="93"/>
-      <c r="J268" s="93"/>
-      <c r="K268" s="93"/>
-      <c r="L268" s="93"/>
-      <c r="M268" s="93"/>
-      <c r="N268" s="93"/>
-      <c r="O268" s="93"/>
-      <c r="P268" s="93"/>
-      <c r="Q268" s="94"/>
+      <c r="B268" s="80"/>
+      <c r="C268" s="80"/>
+      <c r="D268" s="80"/>
+      <c r="E268" s="80"/>
+      <c r="F268" s="80"/>
+      <c r="G268" s="80"/>
+      <c r="H268" s="80"/>
+      <c r="I268" s="80"/>
+      <c r="J268" s="80"/>
+      <c r="K268" s="80"/>
+      <c r="L268" s="80"/>
+      <c r="M268" s="80"/>
+      <c r="N268" s="80"/>
+      <c r="O268" s="80"/>
+      <c r="P268" s="80"/>
+      <c r="Q268" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="I21:I31"/>
-    <mergeCell ref="H32:H102"/>
-    <mergeCell ref="I32:I102"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="I228:I237"/>
+    <mergeCell ref="I223:I227"/>
+    <mergeCell ref="I242:I256"/>
+    <mergeCell ref="H175:H179"/>
+    <mergeCell ref="I175:I179"/>
+    <mergeCell ref="H180:H186"/>
+    <mergeCell ref="H187:H199"/>
+    <mergeCell ref="A238:A257"/>
+    <mergeCell ref="B242:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="D204:D207"/>
+    <mergeCell ref="A211:A237"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B227"/>
+    <mergeCell ref="C215:C222"/>
+    <mergeCell ref="D215:D218"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="B187:B194"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="D166:D173"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="B179:B186"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E143:E147"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="B131:B178"/>
+    <mergeCell ref="C131:C174"/>
+    <mergeCell ref="D133:D165"/>
+    <mergeCell ref="B103:B123"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C119"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="C120:C123"/>
     <mergeCell ref="A268:Q268"/>
     <mergeCell ref="H266:Q266"/>
     <mergeCell ref="H267:Q267"/>
@@ -69916,6 +69963,19 @@
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="I21:I31"/>
+    <mergeCell ref="H32:H102"/>
+    <mergeCell ref="I32:I102"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="C59:C80"/>
     <mergeCell ref="D60:D62"/>
@@ -69923,66 +69983,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="D70:D75"/>
     <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="B131:B178"/>
-    <mergeCell ref="C131:C174"/>
-    <mergeCell ref="D133:D165"/>
-    <mergeCell ref="B103:B123"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C119"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="D166:D173"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="B179:B186"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E143:E147"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="B187:B194"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="I228:I237"/>
-    <mergeCell ref="I223:I227"/>
-    <mergeCell ref="I242:I256"/>
-    <mergeCell ref="H175:H179"/>
-    <mergeCell ref="I175:I179"/>
-    <mergeCell ref="H180:H186"/>
-    <mergeCell ref="H187:H199"/>
-    <mergeCell ref="A238:A257"/>
-    <mergeCell ref="B242:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="D204:D207"/>
-    <mergeCell ref="A211:A237"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B227"/>
-    <mergeCell ref="C215:C222"/>
-    <mergeCell ref="D215:D218"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C232:C234"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/程序员客栈项目开发报价单（因卓教育阶段二原型设计功能新增报价）.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/程序员客栈项目开发报价单（因卓教育阶段二原型设计功能新增报价）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="436">
   <si>
     <t>程序员客栈——项目报价清单</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>工作量（天数）</t>
-  </si>
-  <si>
-    <t>模块</t>
   </si>
   <si>
     <t>一级菜单</t>
@@ -2271,27 +2268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2301,31 +2277,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2340,67 +2367,37 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3678,114 +3675,112 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:256" ht="23.1" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
     </row>
     <row r="5" spans="1:256" ht="23.1" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:256" ht="43.2" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="L6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="M6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="O6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="P6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="Q6" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="83" t="s">
-        <v>73</v>
+      <c r="A7" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="56"/>
@@ -4039,21 +4034,21 @@
       <c r="IV7" s="54"/>
     </row>
     <row r="8" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="D8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="E8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="F8" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>24</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="57"/>
@@ -4307,15 +4302,15 @@
       <c r="IV8" s="54"/>
     </row>
     <row r="9" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="57"/>
@@ -4569,15 +4564,15 @@
       <c r="IV9" s="54"/>
     </row>
     <row r="10" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="57"/>
@@ -4831,15 +4826,15 @@
       <c r="IV10" s="54"/>
     </row>
     <row r="11" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="57"/>
@@ -5093,15 +5088,15 @@
       <c r="IV11" s="54"/>
     </row>
     <row r="12" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="57"/>
@@ -5355,15 +5350,15 @@
       <c r="IV12" s="54"/>
     </row>
     <row r="13" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="84"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="57"/>
@@ -5617,12 +5612,12 @@
       <c r="IV13" s="54"/>
     </row>
     <row r="14" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -5877,15 +5872,15 @@
       <c r="IV14" s="54"/>
     </row>
     <row r="15" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="84"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="57"/>
@@ -6139,15 +6134,15 @@
       <c r="IV15" s="54"/>
     </row>
     <row r="16" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="84"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="57"/>
@@ -6401,15 +6396,15 @@
       <c r="IV16" s="54"/>
     </row>
     <row r="17" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="84"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="57"/>
@@ -6663,15 +6658,15 @@
       <c r="IV17" s="54"/>
     </row>
     <row r="18" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="84"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="57"/>
@@ -6925,15 +6920,15 @@
       <c r="IV18" s="54"/>
     </row>
     <row r="19" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="84"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="57"/>
@@ -7187,17 +7182,17 @@
       <c r="IV19" s="54"/>
     </row>
     <row r="20" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="72" t="s">
-        <v>36</v>
+      <c r="A20" s="64"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="94" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="57"/>
@@ -7451,19 +7446,19 @@
       <c r="IV20" s="54"/>
     </row>
     <row r="21" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="84"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="73"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="64">
+      <c r="I21" s="81">
         <v>0.5</v>
       </c>
       <c r="J21" s="57"/>
@@ -7715,25 +7710,25 @@
       <c r="IV21" s="54"/>
     </row>
     <row r="22" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="84"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="D22" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="E22" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="F22" s="40" t="s">
         <v>88</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>89</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
-      <c r="I22" s="65"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
@@ -7983,19 +7978,19 @@
       <c r="IV22" s="54"/>
     </row>
     <row r="23" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
-      <c r="I23" s="65"/>
+      <c r="I23" s="99"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
@@ -8245,17 +8240,17 @@
       <c r="IV23" s="54"/>
     </row>
     <row r="24" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="84"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
-      <c r="I24" s="65"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
@@ -8505,21 +8500,21 @@
       <c r="IV24" s="54"/>
     </row>
     <row r="25" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="99"/>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -8769,23 +8764,23 @@
       <c r="IV25" s="54"/>
     </row>
     <row r="26" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="84"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="78" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="E26" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="F26" s="40" t="s">
         <v>98</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>99</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
-      <c r="I26" s="65"/>
+      <c r="I26" s="99"/>
       <c r="J26" s="57"/>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9035,19 +9030,19 @@
       <c r="IV26" s="54"/>
     </row>
     <row r="27" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="74"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="59"/>
-      <c r="I27" s="65"/>
+      <c r="I27" s="99"/>
       <c r="J27" s="57"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9297,19 +9292,19 @@
       <c r="IV27" s="54"/>
     </row>
     <row r="28" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="84"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="74"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
-      <c r="I28" s="65"/>
+      <c r="I28" s="99"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9559,19 +9554,19 @@
       <c r="IV28" s="54"/>
     </row>
     <row r="29" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="84"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
-      <c r="I29" s="65"/>
+      <c r="I29" s="99"/>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9821,21 +9816,21 @@
       <c r="IV29" s="54"/>
     </row>
     <row r="30" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="78" t="s">
-        <v>106</v>
+      <c r="A30" s="64"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="87" t="s">
+        <v>105</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="65"/>
+      <c r="I30" s="99"/>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -10085,19 +10080,19 @@
       <c r="IV30" s="54"/>
     </row>
     <row r="31" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="84"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="78"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="59"/>
-      <c r="I31" s="66"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
@@ -10347,27 +10342,27 @@
       <c r="IV31" s="54"/>
     </row>
     <row r="32" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="D32" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="E32" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="F32" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="40" t="s">
-        <v>113</v>
-      </c>
       <c r="G32" s="40"/>
-      <c r="H32" s="67">
+      <c r="H32" s="60">
         <v>0.5</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="60">
         <v>0.5</v>
       </c>
       <c r="J32" s="57"/>
@@ -10619,19 +10614,19 @@
       <c r="IV32" s="54"/>
     </row>
     <row r="33" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>115</v>
-      </c>
       <c r="G33" s="40"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
@@ -10881,21 +10876,21 @@
       <c r="IV33" s="54"/>
     </row>
     <row r="34" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A34" s="84"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="F34" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>118</v>
-      </c>
       <c r="G34" s="40"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
@@ -11145,21 +11140,21 @@
       <c r="IV34" s="54"/>
     </row>
     <row r="35" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="G35" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
@@ -11409,19 +11404,19 @@
       <c r="IV35" s="54"/>
     </row>
     <row r="36" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="84"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="40" t="s">
-        <v>123</v>
-      </c>
       <c r="G36" s="40"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
@@ -11671,21 +11666,21 @@
       <c r="IV36" s="54"/>
     </row>
     <row r="37" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A37" s="84"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78" t="s">
-        <v>124</v>
+      <c r="A37" s="64"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87" t="s">
+        <v>123</v>
       </c>
       <c r="E37" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="40" t="s">
-        <v>118</v>
-      </c>
       <c r="G37" s="40"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
@@ -11935,19 +11930,19 @@
       <c r="IV37" s="54"/>
     </row>
     <row r="38" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="40" t="s">
-        <v>120</v>
-      </c>
       <c r="G38" s="40"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
@@ -12197,19 +12192,19 @@
       <c r="IV38" s="54"/>
     </row>
     <row r="39" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="40" t="s">
-        <v>123</v>
-      </c>
       <c r="G39" s="40"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
       <c r="J39" s="57"/>
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
@@ -12459,19 +12454,19 @@
       <c r="IV39" s="54"/>
     </row>
     <row r="40" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="84"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="40"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
@@ -12721,19 +12716,19 @@
       <c r="IV40" s="54"/>
     </row>
     <row r="41" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
       <c r="D41" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="40"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
@@ -12983,21 +12978,21 @@
       <c r="IV41" s="54"/>
     </row>
     <row r="42" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="F42" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="40" t="s">
-        <v>131</v>
-      </c>
       <c r="G42" s="40"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
@@ -13247,19 +13242,19 @@
       <c r="IV42" s="54"/>
     </row>
     <row r="43" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
       <c r="E43" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="40" t="s">
-        <v>133</v>
-      </c>
       <c r="G43" s="40"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="57"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
@@ -13509,21 +13504,21 @@
       <c r="IV43" s="54"/>
     </row>
     <row r="44" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="F44" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="G44" s="40"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
@@ -13773,19 +13768,19 @@
       <c r="IV44" s="54"/>
     </row>
     <row r="45" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
       <c r="E45" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="G45" s="40"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
@@ -14035,17 +14030,17 @@
       <c r="IV45" s="54"/>
     </row>
     <row r="46" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
       <c r="E46" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
@@ -14295,19 +14290,19 @@
       <c r="IV46" s="54"/>
     </row>
     <row r="47" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
       <c r="E47" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="G47" s="40"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
@@ -14557,19 +14552,19 @@
       <c r="IV47" s="54"/>
     </row>
     <row r="48" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
       <c r="E48" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="40" t="s">
-        <v>143</v>
-      </c>
       <c r="G48" s="40"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="L48" s="57"/>
@@ -14819,19 +14814,19 @@
       <c r="IV48" s="54"/>
     </row>
     <row r="49" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
       <c r="E49" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="40" t="s">
-        <v>145</v>
-      </c>
       <c r="G49" s="40"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
       <c r="L49" s="57"/>
@@ -15081,19 +15076,19 @@
       <c r="IV49" s="54"/>
     </row>
     <row r="50" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78" t="s">
-        <v>146</v>
+      <c r="A50" s="64"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
       <c r="L50" s="57"/>
@@ -15343,17 +15338,17 @@
       <c r="IV50" s="54"/>
     </row>
     <row r="51" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="L51" s="57"/>
@@ -15603,17 +15598,17 @@
       <c r="IV51" s="54"/>
     </row>
     <row r="52" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
       <c r="E52" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
       <c r="J52" s="57"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
@@ -15863,21 +15858,21 @@
       <c r="IV52" s="54"/>
     </row>
     <row r="53" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="F53" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="40" t="s">
-        <v>152</v>
-      </c>
       <c r="G53" s="40"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
@@ -16127,19 +16122,19 @@
       <c r="IV53" s="54"/>
     </row>
     <row r="54" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="84"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
       <c r="E54" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F54" s="40" t="s">
-        <v>154</v>
-      </c>
       <c r="G54" s="40"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
       <c r="J54" s="57"/>
       <c r="K54" s="57"/>
       <c r="L54" s="57"/>
@@ -16389,19 +16384,19 @@
       <c r="IV54" s="54"/>
     </row>
     <row r="55" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A55" s="84"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78" t="s">
-        <v>155</v>
+      <c r="A55" s="64"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87" t="s">
+        <v>154</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
       <c r="J55" s="57"/>
       <c r="K55" s="57"/>
       <c r="L55" s="57"/>
@@ -16651,17 +16646,17 @@
       <c r="IV55" s="54"/>
     </row>
     <row r="56" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
       <c r="J56" s="57"/>
       <c r="K56" s="57"/>
       <c r="L56" s="57"/>
@@ -16911,17 +16906,17 @@
       <c r="IV56" s="54"/>
     </row>
     <row r="57" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A57" s="84"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
       <c r="E57" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
       <c r="J57" s="57"/>
       <c r="K57" s="57"/>
       <c r="L57" s="57"/>
@@ -17171,19 +17166,19 @@
       <c r="IV57" s="54"/>
     </row>
     <row r="58" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A58" s="84"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
       <c r="E58" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="40" t="s">
-        <v>160</v>
-      </c>
       <c r="G58" s="40"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
       <c r="J58" s="57"/>
       <c r="K58" s="57"/>
       <c r="L58" s="57"/>
@@ -17433,21 +17428,21 @@
       <c r="IV58" s="54"/>
     </row>
     <row r="59" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A59" s="84"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78" t="s">
-        <v>161</v>
+      <c r="A59" s="64"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87" t="s">
+        <v>160</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G59" s="40"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
       <c r="J59" s="57"/>
       <c r="K59" s="57"/>
       <c r="L59" s="57"/>
@@ -17697,21 +17692,21 @@
       <c r="IV59" s="54"/>
     </row>
     <row r="60" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A60" s="84"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78" t="s">
+      <c r="A60" s="64"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>164</v>
-      </c>
       <c r="G60" s="40"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
       <c r="J60" s="57"/>
       <c r="K60" s="57"/>
       <c r="L60" s="57"/>
@@ -17961,21 +17956,21 @@
       <c r="IV60" s="54"/>
     </row>
     <row r="61" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A61" s="84"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
       <c r="E61" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G61" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
       <c r="J61" s="57"/>
       <c r="K61" s="57"/>
       <c r="L61" s="57"/>
@@ -18225,19 +18220,19 @@
       <c r="IV61" s="54"/>
     </row>
     <row r="62" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A62" s="84"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" s="40"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
       <c r="J62" s="57"/>
       <c r="K62" s="57"/>
       <c r="L62" s="57"/>
@@ -18487,21 +18482,21 @@
       <c r="IV62" s="54"/>
     </row>
     <row r="63" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="84"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78" t="s">
-        <v>168</v>
+      <c r="A63" s="64"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="87" t="s">
+        <v>167</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G63" s="40"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
       <c r="L63" s="57"/>
@@ -18751,19 +18746,19 @@
       <c r="IV63" s="54"/>
     </row>
     <row r="64" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A64" s="84"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
       <c r="E64" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G64" s="40"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
       <c r="L64" s="57"/>
@@ -19013,19 +19008,19 @@
       <c r="IV64" s="54"/>
     </row>
     <row r="65" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A65" s="84"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
       <c r="E65" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G65" s="40"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57"/>
@@ -19275,19 +19270,19 @@
       <c r="IV65" s="54"/>
     </row>
     <row r="66" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
       <c r="D66" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="40"/>
       <c r="F66" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G66" s="40"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
@@ -19537,19 +19532,19 @@
       <c r="IV66" s="54"/>
     </row>
     <row r="67" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A67" s="84"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
       <c r="D67" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G67" s="40"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
@@ -19799,21 +19794,21 @@
       <c r="IV67" s="54"/>
     </row>
     <row r="68" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="84"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78" t="s">
-        <v>129</v>
+      <c r="A68" s="64"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="E68" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F68" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F68" s="40" t="s">
-        <v>172</v>
-      </c>
       <c r="G68" s="40"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
@@ -20063,19 +20058,19 @@
       <c r="IV68" s="54"/>
     </row>
     <row r="69" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A69" s="84"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
       <c r="E69" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G69" s="40"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
       <c r="J69" s="57"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57"/>
@@ -20325,21 +20320,21 @@
       <c r="IV69" s="54"/>
     </row>
     <row r="70" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A70" s="84"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="F70" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="G70" s="40"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57"/>
@@ -20589,19 +20584,19 @@
       <c r="IV70" s="54"/>
     </row>
     <row r="71" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A71" s="84"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
       <c r="E71" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="G71" s="40"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
       <c r="J71" s="57"/>
       <c r="K71" s="57"/>
       <c r="L71" s="57"/>
@@ -20851,17 +20846,17 @@
       <c r="IV71" s="54"/>
     </row>
     <row r="72" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A72" s="84"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
       <c r="E72" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F72" s="40"/>
       <c r="G72" s="40"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
       <c r="J72" s="57"/>
       <c r="K72" s="57"/>
       <c r="L72" s="57"/>
@@ -21111,19 +21106,19 @@
       <c r="IV72" s="54"/>
     </row>
     <row r="73" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A73" s="84"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="G73" s="40"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
       <c r="J73" s="57"/>
       <c r="K73" s="57"/>
       <c r="L73" s="57"/>
@@ -21373,19 +21368,19 @@
       <c r="IV73" s="54"/>
     </row>
     <row r="74" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A74" s="84"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
       <c r="E74" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G74" s="40"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
       <c r="J74" s="57"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
@@ -21635,19 +21630,19 @@
       <c r="IV74" s="54"/>
     </row>
     <row r="75" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A75" s="84"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
       <c r="E75" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F75" s="40" t="s">
-        <v>145</v>
-      </c>
       <c r="G75" s="40"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
@@ -21897,19 +21892,19 @@
       <c r="IV75" s="54"/>
     </row>
     <row r="76" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A76" s="84"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78" t="s">
-        <v>146</v>
+      <c r="A76" s="64"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" s="40"/>
       <c r="G76" s="40"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
       <c r="J76" s="57"/>
       <c r="K76" s="57"/>
       <c r="L76" s="57"/>
@@ -22159,17 +22154,17 @@
       <c r="IV76" s="54"/>
     </row>
     <row r="77" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A77" s="84"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
       <c r="J77" s="57"/>
       <c r="K77" s="57"/>
       <c r="L77" s="57"/>
@@ -22419,17 +22414,17 @@
       <c r="IV77" s="54"/>
     </row>
     <row r="78" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A78" s="84"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
       <c r="E78" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78" s="40"/>
       <c r="G78" s="40"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
       <c r="J78" s="57"/>
       <c r="K78" s="57"/>
       <c r="L78" s="57"/>
@@ -22679,21 +22674,21 @@
       <c r="IV78" s="54"/>
     </row>
     <row r="79" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="84"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78" t="s">
+      <c r="A79" s="64"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="F79" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="40" t="s">
-        <v>152</v>
-      </c>
       <c r="G79" s="40"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
       <c r="J79" s="57"/>
       <c r="K79" s="57"/>
       <c r="L79" s="57"/>
@@ -22943,19 +22938,19 @@
       <c r="IV79" s="54"/>
     </row>
     <row r="80" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A80" s="84"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="87"/>
       <c r="E80" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F80" s="40" t="s">
-        <v>154</v>
-      </c>
       <c r="G80" s="40"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
       <c r="J80" s="57"/>
       <c r="K80" s="57"/>
       <c r="L80" s="57"/>
@@ -23205,21 +23200,21 @@
       <c r="IV80" s="54"/>
     </row>
     <row r="81" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="84"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78" t="s">
-        <v>175</v>
+      <c r="A81" s="64"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87" t="s">
+        <v>174</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81" s="40"/>
       <c r="F81" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G81" s="40"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
       <c r="J81" s="57"/>
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
@@ -23469,21 +23464,21 @@
       <c r="IV81" s="54"/>
     </row>
     <row r="82" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A82" s="84"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78" t="s">
-        <v>176</v>
+      <c r="A82" s="64"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="87" t="s">
+        <v>175</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F82" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G82" s="40"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
       <c r="J82" s="57"/>
       <c r="K82" s="57"/>
       <c r="L82" s="57"/>
@@ -23733,21 +23728,21 @@
       <c r="IV82" s="54"/>
     </row>
     <row r="83" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="84"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F83" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G83" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
       <c r="J83" s="57"/>
       <c r="K83" s="57"/>
       <c r="L83" s="57"/>
@@ -23997,19 +23992,19 @@
       <c r="IV83" s="54"/>
     </row>
     <row r="84" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A84" s="84"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="87"/>
       <c r="E84" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F84" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G84" s="40"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
       <c r="J84" s="57"/>
       <c r="K84" s="57"/>
       <c r="L84" s="57"/>
@@ -24259,21 +24254,21 @@
       <c r="IV84" s="54"/>
     </row>
     <row r="85" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A85" s="84"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78" t="s">
-        <v>177</v>
+      <c r="A85" s="64"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="87" t="s">
+        <v>176</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G85" s="40"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
       <c r="J85" s="57"/>
       <c r="K85" s="57"/>
       <c r="L85" s="57"/>
@@ -24523,19 +24518,19 @@
       <c r="IV85" s="54"/>
     </row>
     <row r="86" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A86" s="84"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G86" s="40"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
       <c r="J86" s="57"/>
       <c r="K86" s="57"/>
       <c r="L86" s="57"/>
@@ -24785,19 +24780,19 @@
       <c r="IV86" s="54"/>
     </row>
     <row r="87" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="84"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="87"/>
       <c r="E87" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G87" s="40"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
       <c r="J87" s="57"/>
       <c r="K87" s="57"/>
       <c r="L87" s="57"/>
@@ -25047,19 +25042,19 @@
       <c r="IV87" s="54"/>
     </row>
     <row r="88" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A88" s="84"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
       <c r="D88" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88" s="40"/>
       <c r="F88" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" s="40"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
       <c r="J88" s="57"/>
       <c r="K88" s="57"/>
       <c r="L88" s="57"/>
@@ -25309,19 +25304,19 @@
       <c r="IV88" s="54"/>
     </row>
     <row r="89" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A89" s="84"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
       <c r="D89" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="40"/>
       <c r="F89" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G89" s="40"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
       <c r="J89" s="57"/>
       <c r="K89" s="57"/>
       <c r="L89" s="57"/>
@@ -25571,21 +25566,21 @@
       <c r="IV89" s="54"/>
     </row>
     <row r="90" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A90" s="84"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78" t="s">
-        <v>129</v>
+      <c r="A90" s="64"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="E90" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="F90" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="G90" s="40"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
       <c r="J90" s="57"/>
       <c r="K90" s="57"/>
       <c r="L90" s="57"/>
@@ -25835,19 +25830,19 @@
       <c r="IV90" s="54"/>
     </row>
     <row r="91" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A91" s="84"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="87"/>
       <c r="E91" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G91" s="40"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="68"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
       <c r="J91" s="57"/>
       <c r="K91" s="57"/>
       <c r="L91" s="57"/>
@@ -26097,21 +26092,21 @@
       <c r="IV91" s="54"/>
     </row>
     <row r="92" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A92" s="84"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="78" t="s">
+      <c r="A92" s="64"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="F92" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="G92" s="40"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
       <c r="J92" s="57"/>
       <c r="K92" s="57"/>
       <c r="L92" s="57"/>
@@ -26361,19 +26356,19 @@
       <c r="IV92" s="54"/>
     </row>
     <row r="93" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A93" s="84"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="87"/>
       <c r="E93" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F93" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="G93" s="40"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
       <c r="J93" s="57"/>
       <c r="K93" s="57"/>
       <c r="L93" s="57"/>
@@ -26623,17 +26618,17 @@
       <c r="IV93" s="54"/>
     </row>
     <row r="94" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A94" s="84"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
       <c r="E94" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
       <c r="J94" s="57"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
@@ -26883,19 +26878,19 @@
       <c r="IV94" s="54"/>
     </row>
     <row r="95" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="84"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="78"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="87"/>
       <c r="E95" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F95" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="G95" s="40"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
       <c r="J95" s="57"/>
       <c r="K95" s="57"/>
       <c r="L95" s="57"/>
@@ -27145,19 +27140,19 @@
       <c r="IV95" s="54"/>
     </row>
     <row r="96" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A96" s="84"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="78"/>
-      <c r="D96" s="78"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="87"/>
       <c r="E96" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F96" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="40" t="s">
-        <v>143</v>
-      </c>
       <c r="G96" s="40"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
       <c r="J96" s="57"/>
       <c r="K96" s="57"/>
       <c r="L96" s="57"/>
@@ -27407,19 +27402,19 @@
       <c r="IV96" s="54"/>
     </row>
     <row r="97" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A97" s="84"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="87"/>
       <c r="E97" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F97" s="40" t="s">
-        <v>145</v>
-      </c>
       <c r="G97" s="40"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
       <c r="J97" s="57"/>
       <c r="K97" s="57"/>
       <c r="L97" s="57"/>
@@ -27669,19 +27664,19 @@
       <c r="IV97" s="54"/>
     </row>
     <row r="98" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A98" s="84"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="78" t="s">
-        <v>146</v>
+      <c r="A98" s="64"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
       <c r="J98" s="57"/>
       <c r="K98" s="57"/>
       <c r="L98" s="57"/>
@@ -27931,17 +27926,17 @@
       <c r="IV98" s="54"/>
     </row>
     <row r="99" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A99" s="84"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="78"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
       <c r="E99" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
       <c r="J99" s="57"/>
       <c r="K99" s="57"/>
       <c r="L99" s="57"/>
@@ -28191,17 +28186,17 @@
       <c r="IV99" s="54"/>
     </row>
     <row r="100" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A100" s="84"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="68"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="57"/>
       <c r="K100" s="57"/>
       <c r="L100" s="57"/>
@@ -28451,21 +28446,21 @@
       <c r="IV100" s="54"/>
     </row>
     <row r="101" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A101" s="84"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78" t="s">
+      <c r="A101" s="64"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="F101" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F101" s="40" t="s">
-        <v>152</v>
-      </c>
       <c r="G101" s="40"/>
-      <c r="H101" s="68"/>
-      <c r="I101" s="68"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
       <c r="J101" s="57"/>
       <c r="K101" s="57"/>
       <c r="L101" s="57"/>
@@ -28715,19 +28710,19 @@
       <c r="IV101" s="54"/>
     </row>
     <row r="102" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A102" s="84"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="78"/>
-      <c r="D102" s="78"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="87"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="87"/>
       <c r="E102" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F102" s="40" t="s">
-        <v>154</v>
-      </c>
       <c r="G102" s="40"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="57"/>
       <c r="K102" s="57"/>
       <c r="L102" s="57"/>
@@ -28977,19 +28972,19 @@
       <c r="IV102" s="54"/>
     </row>
     <row r="103" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A103" s="84"/>
-      <c r="B103" s="75" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="75" t="s">
-        <v>183</v>
-      </c>
       <c r="D103" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E103" s="40"/>
       <c r="F103" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G103" s="40"/>
       <c r="H103" s="57"/>
@@ -29243,15 +29238,15 @@
       <c r="IV103" s="54"/>
     </row>
     <row r="104" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A104" s="84"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="77"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="84"/>
       <c r="D104" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104" s="40"/>
       <c r="F104" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G104" s="40"/>
       <c r="H104" s="57"/>
@@ -29505,13 +29500,13 @@
       <c r="IV104" s="54"/>
     </row>
     <row r="105" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A105" s="84"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="86" t="s">
-        <v>186</v>
+      <c r="A105" s="64"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="77" t="s">
+        <v>185</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="42"/>
@@ -29767,11 +29762,11 @@
       <c r="IV105" s="54"/>
     </row>
     <row r="106" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A106" s="84"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="86"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
@@ -30027,13 +30022,13 @@
       <c r="IV106" s="54"/>
     </row>
     <row r="107" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A107" s="84"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="86" t="s">
-        <v>189</v>
+      <c r="A107" s="64"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="77" t="s">
+        <v>188</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
@@ -30289,15 +30284,15 @@
       <c r="IV107" s="54"/>
     </row>
     <row r="108" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A108" s="84"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="86"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="77"/>
       <c r="D108" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E108" s="42"/>
       <c r="F108" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G108" s="42"/>
       <c r="H108" s="57"/>
@@ -30551,17 +30546,17 @@
       <c r="IV108" s="54"/>
     </row>
     <row r="109" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A109" s="84"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="86" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="E109" s="42" t="s">
+      <c r="F109" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="F109" s="42" t="s">
-        <v>194</v>
       </c>
       <c r="G109" s="42"/>
       <c r="H109" s="57"/>
@@ -30815,15 +30810,15 @@
       <c r="IV109" s="54"/>
     </row>
     <row r="110" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A110" s="84"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="86"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
       <c r="E110" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F110" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G110" s="42"/>
       <c r="H110" s="57"/>
@@ -31077,15 +31072,15 @@
       <c r="IV110" s="54"/>
     </row>
     <row r="111" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A111" s="84"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
       <c r="E111" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F111" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G111" s="42"/>
       <c r="H111" s="57"/>
@@ -31339,15 +31334,15 @@
       <c r="IV111" s="54"/>
     </row>
     <row r="112" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A112" s="84"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="86"/>
-      <c r="D112" s="86"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
       <c r="E112" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F112" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G112" s="42"/>
       <c r="H112" s="57"/>
@@ -31601,15 +31596,15 @@
       <c r="IV112" s="54"/>
     </row>
     <row r="113" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A113" s="84"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
       <c r="E113" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F113" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G113" s="42"/>
       <c r="H113" s="57"/>
@@ -31863,15 +31858,15 @@
       <c r="IV113" s="54"/>
     </row>
     <row r="114" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A114" s="84"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="86"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
       <c r="E114" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F114" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G114" s="42"/>
       <c r="H114" s="57"/>
@@ -32125,15 +32120,15 @@
       <c r="IV114" s="54"/>
     </row>
     <row r="115" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A115" s="84"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="86"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
       <c r="E115" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G115" s="42"/>
       <c r="H115" s="57"/>
@@ -32387,12 +32382,12 @@
       <c r="IV115" s="54"/>
     </row>
     <row r="116" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A116" s="84"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="86"/>
-      <c r="D116" s="86"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
       <c r="E116" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
@@ -32647,15 +32642,15 @@
       <c r="IV116" s="54"/>
     </row>
     <row r="117" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A117" s="84"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
       <c r="E117" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G117" s="42"/>
       <c r="H117" s="57"/>
@@ -32909,15 +32904,15 @@
       <c r="IV117" s="54"/>
     </row>
     <row r="118" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A118" s="84"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="86"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="83"/>
+      <c r="C118" s="77"/>
       <c r="D118" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E118" s="42"/>
       <c r="F118" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G118" s="42"/>
       <c r="H118" s="57"/>
@@ -33171,15 +33166,15 @@
       <c r="IV118" s="54"/>
     </row>
     <row r="119" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A119" s="84"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="86"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="83"/>
+      <c r="C119" s="77"/>
       <c r="D119" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E119" s="42"/>
       <c r="F119" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G119" s="42"/>
       <c r="H119" s="57"/>
@@ -33433,17 +33428,17 @@
       <c r="IV119" s="54"/>
     </row>
     <row r="120" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A120" s="84"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="86" t="s">
-        <v>214</v>
+      <c r="A120" s="64"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="77" t="s">
+        <v>213</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E120" s="42"/>
       <c r="F120" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G120" s="42"/>
       <c r="H120" s="57"/>
@@ -33697,11 +33692,11 @@
       <c r="IV120" s="54"/>
     </row>
     <row r="121" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A121" s="84"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="86"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="77"/>
       <c r="D121" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E121" s="42"/>
       <c r="F121" s="42"/>
@@ -33957,11 +33952,11 @@
       <c r="IV121" s="54"/>
     </row>
     <row r="122" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A122" s="84"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="86"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="77"/>
       <c r="D122" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E122" s="42"/>
       <c r="F122" s="42"/>
@@ -34217,15 +34212,15 @@
       <c r="IV122" s="54"/>
     </row>
     <row r="123" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A123" s="84"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="86"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="77"/>
       <c r="D123" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E123" s="42"/>
       <c r="F123" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G123" s="42"/>
       <c r="H123" s="57"/>
@@ -34479,19 +34474,19 @@
       <c r="IV123" s="54"/>
     </row>
     <row r="124" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A124" s="84"/>
-      <c r="B124" s="78" t="s">
-        <v>221</v>
+      <c r="A124" s="64"/>
+      <c r="B124" s="87" t="s">
+        <v>220</v>
       </c>
-      <c r="C124" s="78" t="s">
-        <v>46</v>
+      <c r="C124" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E124" s="40"/>
       <c r="F124" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124" s="40"/>
       <c r="H124" s="57"/>
@@ -34745,18 +34740,18 @@
       <c r="IV124" s="54"/>
     </row>
     <row r="125" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A125" s="84"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="78"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="87"/>
       <c r="D125" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E125" s="40"/>
       <c r="F125" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H125" s="57"/>
       <c r="I125" s="57"/>
@@ -35009,18 +35004,18 @@
       <c r="IV125" s="54"/>
     </row>
     <row r="126" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A126" s="84"/>
-      <c r="B126" s="78"/>
-      <c r="C126" s="78"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="87"/>
       <c r="D126" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E126" s="40"/>
       <c r="F126" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G126" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H126" s="57"/>
       <c r="I126" s="57"/>
@@ -35273,15 +35268,15 @@
       <c r="IV126" s="54"/>
     </row>
     <row r="127" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A127" s="84"/>
-      <c r="B127" s="78"/>
-      <c r="C127" s="78"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="87"/>
       <c r="D127" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E127" s="40"/>
       <c r="F127" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G127" s="40"/>
       <c r="H127" s="57"/>
@@ -35535,15 +35530,15 @@
       <c r="IV127" s="54"/>
     </row>
     <row r="128" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A128" s="84"/>
-      <c r="B128" s="78"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="87"/>
       <c r="C128" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="40"/>
       <c r="F128" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G128" s="40"/>
       <c r="H128" s="57"/>
@@ -35797,10 +35792,10 @@
       <c r="IV128" s="54"/>
     </row>
     <row r="129" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A129" s="84"/>
-      <c r="B129" s="78"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="87"/>
       <c r="C129" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D129" s="40"/>
       <c r="E129" s="40"/>
@@ -36057,17 +36052,17 @@
       <c r="IV129" s="54"/>
     </row>
     <row r="130" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A130" s="84"/>
+      <c r="A130" s="64"/>
       <c r="B130" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
       <c r="F130" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G130" s="40"/>
       <c r="H130" s="57"/>
@@ -36321,19 +36316,19 @@
       <c r="IV130" s="54"/>
     </row>
     <row r="131" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A131" s="84"/>
-      <c r="B131" s="86" t="s">
+      <c r="A131" s="64"/>
+      <c r="B131" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C131" s="86" t="s">
+      <c r="D131" s="42" t="s">
         <v>226</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>227</v>
       </c>
       <c r="E131" s="42"/>
       <c r="F131" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G131" s="42"/>
       <c r="H131" s="57"/>
@@ -36587,15 +36582,15 @@
       <c r="IV131" s="54"/>
     </row>
     <row r="132" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A132" s="84"/>
-      <c r="B132" s="86"/>
-      <c r="C132" s="86"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="77"/>
       <c r="D132" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E132" s="42"/>
       <c r="F132" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G132" s="42"/>
       <c r="H132" s="57"/>
@@ -36849,17 +36844,17 @@
       <c r="IV132" s="54"/>
     </row>
     <row r="133" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A133" s="84"/>
-      <c r="B133" s="86"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="64" t="s">
+      <c r="A133" s="64"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="E133" s="42" t="s">
+      <c r="F133" s="42" t="s">
         <v>231</v>
-      </c>
-      <c r="F133" s="42" t="s">
-        <v>232</v>
       </c>
       <c r="G133" s="42"/>
       <c r="H133" s="57"/>
@@ -37113,15 +37108,15 @@
       <c r="IV133" s="54"/>
     </row>
     <row r="134" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A134" s="84"/>
-      <c r="B134" s="86"/>
-      <c r="C134" s="86"/>
-      <c r="D134" s="87"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="85"/>
       <c r="E134" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F134" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G134" s="42"/>
       <c r="H134" s="57"/>
@@ -37375,15 +37370,15 @@
       <c r="IV134" s="54"/>
     </row>
     <row r="135" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A135" s="84"/>
-      <c r="B135" s="86"/>
-      <c r="C135" s="86"/>
-      <c r="D135" s="87"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="85"/>
       <c r="E135" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F135" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G135" s="42"/>
       <c r="H135" s="57"/>
@@ -37637,15 +37632,15 @@
       <c r="IV135" s="54"/>
     </row>
     <row r="136" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A136" s="84"/>
-      <c r="B136" s="86"/>
-      <c r="C136" s="86"/>
-      <c r="D136" s="87"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="85"/>
       <c r="E136" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F136" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G136" s="42"/>
       <c r="H136" s="57"/>
@@ -37899,15 +37894,15 @@
       <c r="IV136" s="54"/>
     </row>
     <row r="137" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A137" s="84"/>
-      <c r="B137" s="86"/>
-      <c r="C137" s="86"/>
-      <c r="D137" s="74"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="77"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G137" s="42"/>
       <c r="H137" s="57"/>
@@ -38161,15 +38156,15 @@
       <c r="IV137" s="54"/>
     </row>
     <row r="138" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A138" s="84"/>
-      <c r="B138" s="86"/>
-      <c r="C138" s="86"/>
-      <c r="D138" s="74"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="83"/>
       <c r="E138" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F138" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G138" s="42"/>
       <c r="H138" s="57"/>
@@ -38423,15 +38418,15 @@
       <c r="IV138" s="54"/>
     </row>
     <row r="139" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A139" s="84"/>
-      <c r="B139" s="86"/>
-      <c r="C139" s="86"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="86" t="s">
-        <v>241</v>
+      <c r="A139" s="64"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="77" t="s">
+        <v>240</v>
       </c>
       <c r="F139" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G139" s="42"/>
       <c r="H139" s="57"/>
@@ -38685,13 +38680,13 @@
       <c r="IV139" s="54"/>
     </row>
     <row r="140" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A140" s="84"/>
-      <c r="B140" s="86"/>
-      <c r="C140" s="86"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="86"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="77"/>
       <c r="F140" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G140" s="42"/>
       <c r="H140" s="57"/>
@@ -38945,13 +38940,13 @@
       <c r="IV140" s="54"/>
     </row>
     <row r="141" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A141" s="84"/>
-      <c r="B141" s="86"/>
-      <c r="C141" s="86"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="86"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="77"/>
       <c r="F141" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G141" s="42"/>
       <c r="H141" s="57"/>
@@ -39205,15 +39200,15 @@
       <c r="IV141" s="54"/>
     </row>
     <row r="142" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A142" s="84"/>
-      <c r="B142" s="86"/>
-      <c r="C142" s="86"/>
-      <c r="D142" s="74"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="83"/>
       <c r="E142" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G142" s="42"/>
       <c r="H142" s="57"/>
@@ -39467,15 +39462,15 @@
       <c r="IV142" s="54"/>
     </row>
     <row r="143" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A143" s="84"/>
-      <c r="B143" s="86"/>
-      <c r="C143" s="86"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="86" t="s">
-        <v>246</v>
+      <c r="A143" s="64"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="77" t="s">
+        <v>245</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G143" s="42"/>
       <c r="H143" s="57"/>
@@ -39729,13 +39724,13 @@
       <c r="IV143" s="54"/>
     </row>
     <row r="144" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A144" s="84"/>
-      <c r="B144" s="86"/>
-      <c r="C144" s="86"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="86"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="83"/>
+      <c r="E144" s="77"/>
       <c r="F144" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G144" s="42"/>
       <c r="H144" s="57"/>
@@ -39989,13 +39984,13 @@
       <c r="IV144" s="54"/>
     </row>
     <row r="145" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A145" s="84"/>
-      <c r="B145" s="86"/>
-      <c r="C145" s="86"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="86"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="77"/>
       <c r="F145" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G145" s="42"/>
       <c r="H145" s="57"/>
@@ -40249,13 +40244,13 @@
       <c r="IV145" s="54"/>
     </row>
     <row r="146" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A146" s="84"/>
-      <c r="B146" s="86"/>
-      <c r="C146" s="86"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="86"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="77"/>
       <c r="F146" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G146" s="42"/>
       <c r="H146" s="57"/>
@@ -40509,13 +40504,13 @@
       <c r="IV146" s="54"/>
     </row>
     <row r="147" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A147" s="84"/>
-      <c r="B147" s="86"/>
-      <c r="C147" s="86"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="86"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="77"/>
       <c r="F147" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G147" s="42"/>
       <c r="H147" s="57"/>
@@ -40769,15 +40764,15 @@
       <c r="IV147" s="54"/>
     </row>
     <row r="148" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A148" s="84"/>
-      <c r="B148" s="86"/>
-      <c r="C148" s="86"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="86" t="s">
-        <v>252</v>
+      <c r="A148" s="64"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G148" s="42"/>
       <c r="H148" s="57"/>
@@ -41031,13 +41026,13 @@
       <c r="IV148" s="54"/>
     </row>
     <row r="149" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A149" s="84"/>
-      <c r="B149" s="86"/>
-      <c r="C149" s="86"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="86"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="77"/>
       <c r="F149" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G149" s="42"/>
       <c r="H149" s="57"/>
@@ -41291,13 +41286,13 @@
       <c r="IV149" s="54"/>
     </row>
     <row r="150" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A150" s="84"/>
-      <c r="B150" s="86"/>
-      <c r="C150" s="86"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="86"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="77"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="77"/>
       <c r="F150" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G150" s="42"/>
       <c r="H150" s="57"/>
@@ -41551,13 +41546,13 @@
       <c r="IV150" s="54"/>
     </row>
     <row r="151" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A151" s="84"/>
-      <c r="B151" s="86"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="86"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="77"/>
       <c r="F151" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G151" s="42"/>
       <c r="H151" s="57"/>
@@ -41811,13 +41806,13 @@
       <c r="IV151" s="54"/>
     </row>
     <row r="152" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A152" s="84"/>
-      <c r="B152" s="86"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="86"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="77"/>
       <c r="F152" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G152" s="42"/>
       <c r="H152" s="57"/>
@@ -42071,15 +42066,15 @@
       <c r="IV152" s="54"/>
     </row>
     <row r="153" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A153" s="84"/>
-      <c r="B153" s="86"/>
-      <c r="C153" s="86"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="86" t="s">
-        <v>253</v>
+      <c r="A153" s="64"/>
+      <c r="B153" s="77"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="77" t="s">
+        <v>252</v>
       </c>
       <c r="F153" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G153" s="42"/>
       <c r="H153" s="57"/>
@@ -42333,13 +42328,13 @@
       <c r="IV153" s="54"/>
     </row>
     <row r="154" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A154" s="84"/>
-      <c r="B154" s="86"/>
-      <c r="C154" s="86"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="86"/>
+      <c r="A154" s="64"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="83"/>
+      <c r="E154" s="77"/>
       <c r="F154" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G154" s="42"/>
       <c r="H154" s="57"/>
@@ -42593,13 +42588,13 @@
       <c r="IV154" s="54"/>
     </row>
     <row r="155" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A155" s="84"/>
-      <c r="B155" s="86"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="86"/>
+      <c r="A155" s="64"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="83"/>
+      <c r="E155" s="77"/>
       <c r="F155" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G155" s="42"/>
       <c r="H155" s="57"/>
@@ -42853,15 +42848,15 @@
       <c r="IV155" s="54"/>
     </row>
     <row r="156" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A156" s="84"/>
-      <c r="B156" s="86"/>
-      <c r="C156" s="86"/>
-      <c r="D156" s="74"/>
+      <c r="A156" s="64"/>
+      <c r="B156" s="77"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="83"/>
       <c r="E156" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F156" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G156" s="42"/>
       <c r="H156" s="57"/>
@@ -43115,15 +43110,15 @@
       <c r="IV156" s="54"/>
     </row>
     <row r="157" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A157" s="84"/>
-      <c r="B157" s="86"/>
-      <c r="C157" s="86"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="86" t="s">
-        <v>255</v>
+      <c r="A157" s="64"/>
+      <c r="B157" s="77"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="77" t="s">
+        <v>254</v>
       </c>
       <c r="F157" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G157" s="42"/>
       <c r="H157" s="57"/>
@@ -43377,13 +43372,13 @@
       <c r="IV157" s="54"/>
     </row>
     <row r="158" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A158" s="84"/>
-      <c r="B158" s="86"/>
-      <c r="C158" s="86"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="86"/>
+      <c r="A158" s="64"/>
+      <c r="B158" s="77"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="77"/>
       <c r="F158" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G158" s="42"/>
       <c r="H158" s="57"/>
@@ -43637,13 +43632,13 @@
       <c r="IV158" s="54"/>
     </row>
     <row r="159" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A159" s="84"/>
-      <c r="B159" s="86"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="86"/>
+      <c r="A159" s="64"/>
+      <c r="B159" s="77"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="77"/>
       <c r="F159" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G159" s="42"/>
       <c r="H159" s="57"/>
@@ -43897,13 +43892,13 @@
       <c r="IV159" s="54"/>
     </row>
     <row r="160" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A160" s="84"/>
-      <c r="B160" s="86"/>
-      <c r="C160" s="86"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="86"/>
+      <c r="A160" s="64"/>
+      <c r="B160" s="77"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="83"/>
+      <c r="E160" s="77"/>
       <c r="F160" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G160" s="42"/>
       <c r="H160" s="57"/>
@@ -44157,13 +44152,13 @@
       <c r="IV160" s="54"/>
     </row>
     <row r="161" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A161" s="84"/>
-      <c r="B161" s="86"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="86"/>
+      <c r="A161" s="64"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="83"/>
+      <c r="E161" s="77"/>
       <c r="F161" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G161" s="42"/>
       <c r="H161" s="57"/>
@@ -44417,15 +44412,15 @@
       <c r="IV161" s="54"/>
     </row>
     <row r="162" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A162" s="84"/>
-      <c r="B162" s="86"/>
-      <c r="C162" s="86"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="86" t="s">
-        <v>260</v>
+      <c r="A162" s="64"/>
+      <c r="B162" s="77"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="83"/>
+      <c r="E162" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="F162" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G162" s="42"/>
       <c r="H162" s="57"/>
@@ -44679,13 +44674,13 @@
       <c r="IV162" s="54"/>
     </row>
     <row r="163" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A163" s="84"/>
-      <c r="B163" s="86"/>
-      <c r="C163" s="86"/>
-      <c r="D163" s="74"/>
-      <c r="E163" s="86"/>
+      <c r="A163" s="64"/>
+      <c r="B163" s="77"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="83"/>
+      <c r="E163" s="77"/>
       <c r="F163" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G163" s="42"/>
       <c r="H163" s="57"/>
@@ -44939,13 +44934,13 @@
       <c r="IV163" s="54"/>
     </row>
     <row r="164" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A164" s="84"/>
-      <c r="B164" s="86"/>
-      <c r="C164" s="86"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="86"/>
+      <c r="A164" s="64"/>
+      <c r="B164" s="77"/>
+      <c r="C164" s="77"/>
+      <c r="D164" s="83"/>
+      <c r="E164" s="77"/>
       <c r="F164" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G164" s="42"/>
       <c r="H164" s="57"/>
@@ -45199,13 +45194,13 @@
       <c r="IV164" s="54"/>
     </row>
     <row r="165" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A165" s="84"/>
-      <c r="B165" s="86"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="77"/>
-      <c r="E165" s="86"/>
+      <c r="A165" s="64"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="84"/>
+      <c r="E165" s="77"/>
       <c r="F165" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G165" s="42"/>
       <c r="H165" s="57"/>
@@ -45459,14 +45454,14 @@
       <c r="IV165" s="54"/>
     </row>
     <row r="166" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A166" s="84"/>
-      <c r="B166" s="86"/>
-      <c r="C166" s="86"/>
-      <c r="D166" s="86" t="s">
-        <v>261</v>
+      <c r="A166" s="64"/>
+      <c r="B166" s="77"/>
+      <c r="C166" s="77"/>
+      <c r="D166" s="77" t="s">
+        <v>260</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166" s="42"/>
       <c r="G166" s="42"/>
@@ -45721,12 +45716,12 @@
       <c r="IV166" s="54"/>
     </row>
     <row r="167" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A167" s="84"/>
-      <c r="B167" s="86"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="86"/>
+      <c r="A167" s="64"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="77"/>
       <c r="E167" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
@@ -45981,15 +45976,15 @@
       <c r="IV167" s="54"/>
     </row>
     <row r="168" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A168" s="84"/>
-      <c r="B168" s="86"/>
-      <c r="C168" s="86"/>
-      <c r="D168" s="86"/>
+      <c r="A168" s="64"/>
+      <c r="B168" s="77"/>
+      <c r="C168" s="77"/>
+      <c r="D168" s="77"/>
       <c r="E168" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F168" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G168" s="42"/>
       <c r="H168" s="57"/>
@@ -46243,15 +46238,15 @@
       <c r="IV168" s="54"/>
     </row>
     <row r="169" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A169" s="84"/>
-      <c r="B169" s="86"/>
-      <c r="C169" s="86"/>
-      <c r="D169" s="86"/>
+      <c r="A169" s="64"/>
+      <c r="B169" s="77"/>
+      <c r="C169" s="77"/>
+      <c r="D169" s="77"/>
       <c r="E169" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F169" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G169" s="42"/>
       <c r="H169" s="57"/>
@@ -46505,15 +46500,15 @@
       <c r="IV169" s="54"/>
     </row>
     <row r="170" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A170" s="84"/>
-      <c r="B170" s="86"/>
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
+      <c r="A170" s="64"/>
+      <c r="B170" s="77"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="77"/>
       <c r="E170" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F170" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G170" s="42"/>
       <c r="H170" s="57"/>
@@ -46767,15 +46762,15 @@
       <c r="IV170" s="54"/>
     </row>
     <row r="171" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A171" s="84"/>
-      <c r="B171" s="86"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="86"/>
+      <c r="A171" s="64"/>
+      <c r="B171" s="77"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="77"/>
       <c r="E171" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F171" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G171" s="42"/>
       <c r="H171" s="57"/>
@@ -47029,15 +47024,15 @@
       <c r="IV171" s="54"/>
     </row>
     <row r="172" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A172" s="84"/>
-      <c r="B172" s="86"/>
-      <c r="C172" s="86"/>
-      <c r="D172" s="86"/>
+      <c r="A172" s="64"/>
+      <c r="B172" s="77"/>
+      <c r="C172" s="77"/>
+      <c r="D172" s="77"/>
       <c r="E172" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F172" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G172" s="42"/>
       <c r="H172" s="57"/>
@@ -47291,15 +47286,15 @@
       <c r="IV172" s="54"/>
     </row>
     <row r="173" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A173" s="84"/>
-      <c r="B173" s="86"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="86"/>
+      <c r="A173" s="64"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
       <c r="E173" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F173" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G173" s="42"/>
       <c r="H173" s="57"/>
@@ -47553,15 +47548,15 @@
       <c r="IV173" s="54"/>
     </row>
     <row r="174" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A174" s="84"/>
-      <c r="B174" s="86"/>
-      <c r="C174" s="86"/>
+      <c r="A174" s="64"/>
+      <c r="B174" s="77"/>
+      <c r="C174" s="77"/>
       <c r="D174" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E174" s="42"/>
       <c r="F174" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G174" s="42"/>
       <c r="H174" s="57"/>
@@ -47815,23 +47810,23 @@
       <c r="IV174" s="54"/>
     </row>
     <row r="175" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A175" s="84"/>
-      <c r="B175" s="86"/>
-      <c r="C175" s="86" t="s">
-        <v>275</v>
+      <c r="A175" s="64"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="77" t="s">
+        <v>274</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E175" s="42"/>
       <c r="F175" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G175" s="42"/>
-      <c r="H175" s="67">
+      <c r="H175" s="60">
         <v>0.5</v>
       </c>
-      <c r="I175" s="67">
+      <c r="I175" s="60">
         <v>0.5</v>
       </c>
       <c r="J175" s="57"/>
@@ -48083,19 +48078,19 @@
       <c r="IV175" s="54"/>
     </row>
     <row r="176" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A176" s="84"/>
-      <c r="B176" s="86"/>
-      <c r="C176" s="86"/>
+      <c r="A176" s="64"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="77"/>
       <c r="D176" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E176" s="42"/>
       <c r="F176" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G176" s="42"/>
-      <c r="H176" s="68"/>
-      <c r="I176" s="68"/>
+      <c r="H176" s="61"/>
+      <c r="I176" s="61"/>
       <c r="J176" s="57"/>
       <c r="K176" s="57"/>
       <c r="L176" s="57"/>
@@ -48345,21 +48340,21 @@
       <c r="IV176" s="54"/>
     </row>
     <row r="177" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A177" s="84"/>
-      <c r="B177" s="86"/>
-      <c r="C177" s="86"/>
+      <c r="A177" s="64"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="77"/>
       <c r="D177" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E177" s="42"/>
       <c r="F177" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G177" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="G177" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="H177" s="68"/>
-      <c r="I177" s="68"/>
+      <c r="H177" s="61"/>
+      <c r="I177" s="61"/>
       <c r="J177" s="57"/>
       <c r="K177" s="57"/>
       <c r="L177" s="57"/>
@@ -48609,19 +48604,19 @@
       <c r="IV177" s="54"/>
     </row>
     <row r="178" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A178" s="84"/>
-      <c r="B178" s="86"/>
-      <c r="C178" s="86"/>
+      <c r="A178" s="64"/>
+      <c r="B178" s="77"/>
+      <c r="C178" s="77"/>
       <c r="D178" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E178" s="42"/>
       <c r="F178" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G178" s="42"/>
-      <c r="H178" s="68"/>
-      <c r="I178" s="68"/>
+      <c r="H178" s="61"/>
+      <c r="I178" s="61"/>
       <c r="J178" s="57"/>
       <c r="K178" s="57"/>
       <c r="L178" s="57"/>
@@ -48871,21 +48866,21 @@
       <c r="IV178" s="54"/>
     </row>
     <row r="179" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A179" s="84"/>
-      <c r="B179" s="64" t="s">
+      <c r="A179" s="64"/>
+      <c r="B179" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="C179" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="64" t="s">
+      <c r="D179" s="42" t="s">
         <v>284</v>
-      </c>
-      <c r="D179" s="42" t="s">
-        <v>285</v>
       </c>
       <c r="E179" s="42"/>
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
-      <c r="H179" s="69"/>
-      <c r="I179" s="69"/>
+      <c r="H179" s="62"/>
+      <c r="I179" s="62"/>
       <c r="J179" s="57"/>
       <c r="K179" s="57"/>
       <c r="L179" s="57"/>
@@ -49135,16 +49130,16 @@
       <c r="IV179" s="54"/>
     </row>
     <row r="180" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A180" s="84"/>
-      <c r="B180" s="87"/>
-      <c r="C180" s="87"/>
+      <c r="A180" s="64"/>
+      <c r="B180" s="85"/>
+      <c r="C180" s="85"/>
       <c r="D180" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
       <c r="G180" s="42"/>
-      <c r="H180" s="67">
+      <c r="H180" s="60">
         <v>0.5</v>
       </c>
       <c r="I180" s="57"/>
@@ -49397,16 +49392,16 @@
       <c r="IV180" s="54"/>
     </row>
     <row r="181" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A181" s="84"/>
-      <c r="B181" s="87"/>
-      <c r="C181" s="88"/>
+      <c r="A181" s="64"/>
+      <c r="B181" s="85"/>
+      <c r="C181" s="86"/>
       <c r="D181" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
-      <c r="H181" s="68"/>
+      <c r="H181" s="61"/>
       <c r="I181" s="57"/>
       <c r="J181" s="57"/>
       <c r="K181" s="57"/>
@@ -49657,20 +49652,20 @@
       <c r="IV181" s="54"/>
     </row>
     <row r="182" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A182" s="84"/>
-      <c r="B182" s="87"/>
-      <c r="C182" s="64" t="s">
-        <v>288</v>
+      <c r="A182" s="64"/>
+      <c r="B182" s="85"/>
+      <c r="C182" s="81" t="s">
+        <v>287</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E182" s="42"/>
       <c r="F182" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G182" s="42"/>
-      <c r="H182" s="68"/>
+      <c r="H182" s="61"/>
       <c r="I182" s="57"/>
       <c r="J182" s="57"/>
       <c r="K182" s="57"/>
@@ -49921,18 +49916,18 @@
       <c r="IV182" s="54"/>
     </row>
     <row r="183" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A183" s="84"/>
-      <c r="B183" s="87"/>
-      <c r="C183" s="88"/>
+      <c r="A183" s="64"/>
+      <c r="B183" s="85"/>
+      <c r="C183" s="86"/>
       <c r="D183" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E183" s="42"/>
       <c r="F183" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G183" s="42"/>
-      <c r="H183" s="68"/>
+      <c r="H183" s="61"/>
       <c r="I183" s="57"/>
       <c r="J183" s="57"/>
       <c r="K183" s="57"/>
@@ -50183,20 +50178,20 @@
       <c r="IV183" s="54"/>
     </row>
     <row r="184" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A184" s="84"/>
-      <c r="B184" s="87"/>
-      <c r="C184" s="64" t="s">
-        <v>293</v>
+      <c r="A184" s="64"/>
+      <c r="B184" s="85"/>
+      <c r="C184" s="81" t="s">
+        <v>292</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E184" s="42"/>
       <c r="F184" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G184" s="42"/>
-      <c r="H184" s="68"/>
+      <c r="H184" s="61"/>
       <c r="I184" s="57"/>
       <c r="J184" s="57"/>
       <c r="K184" s="57"/>
@@ -50447,16 +50442,16 @@
       <c r="IV184" s="54"/>
     </row>
     <row r="185" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A185" s="84"/>
-      <c r="B185" s="87"/>
-      <c r="C185" s="87"/>
+      <c r="A185" s="64"/>
+      <c r="B185" s="85"/>
+      <c r="C185" s="85"/>
       <c r="D185" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E185" s="42"/>
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
-      <c r="H185" s="68"/>
+      <c r="H185" s="61"/>
       <c r="I185" s="57"/>
       <c r="J185" s="57"/>
       <c r="K185" s="57"/>
@@ -50707,16 +50702,16 @@
       <c r="IV185" s="54"/>
     </row>
     <row r="186" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A186" s="84"/>
-      <c r="B186" s="88"/>
-      <c r="C186" s="88"/>
+      <c r="A186" s="64"/>
+      <c r="B186" s="86"/>
+      <c r="C186" s="86"/>
       <c r="D186" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
       <c r="G186" s="42"/>
-      <c r="H186" s="69"/>
+      <c r="H186" s="62"/>
       <c r="I186" s="57"/>
       <c r="J186" s="57"/>
       <c r="K186" s="57"/>
@@ -50967,18 +50962,18 @@
       <c r="IV186" s="54"/>
     </row>
     <row r="187" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A187" s="84"/>
-      <c r="B187" s="64" t="s">
-        <v>295</v>
+      <c r="A187" s="64"/>
+      <c r="B187" s="81" t="s">
+        <v>294</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D187" s="42"/>
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
-      <c r="H187" s="67">
+      <c r="H187" s="60">
         <v>0.5</v>
       </c>
       <c r="I187" s="57"/>
@@ -51231,20 +51226,20 @@
       <c r="IV187" s="54"/>
     </row>
     <row r="188" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A188" s="84"/>
-      <c r="B188" s="96"/>
-      <c r="C188" s="86" t="s">
-        <v>297</v>
+      <c r="A188" s="64"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="77" t="s">
+        <v>296</v>
       </c>
       <c r="D188" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E188" s="42"/>
       <c r="F188" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G188" s="42"/>
-      <c r="H188" s="68"/>
+      <c r="H188" s="61"/>
       <c r="I188" s="57"/>
       <c r="J188" s="57"/>
       <c r="K188" s="57"/>
@@ -51495,18 +51490,18 @@
       <c r="IV188" s="54"/>
     </row>
     <row r="189" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A189" s="84"/>
-      <c r="B189" s="74"/>
-      <c r="C189" s="86"/>
+      <c r="A189" s="64"/>
+      <c r="B189" s="83"/>
+      <c r="C189" s="77"/>
       <c r="D189" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E189" s="42"/>
       <c r="F189" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G189" s="42"/>
-      <c r="H189" s="68"/>
+      <c r="H189" s="61"/>
       <c r="I189" s="57"/>
       <c r="J189" s="57"/>
       <c r="K189" s="57"/>
@@ -51757,18 +51752,18 @@
       <c r="IV189" s="54"/>
     </row>
     <row r="190" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A190" s="84"/>
-      <c r="B190" s="74"/>
-      <c r="C190" s="86"/>
+      <c r="A190" s="64"/>
+      <c r="B190" s="83"/>
+      <c r="C190" s="77"/>
       <c r="D190" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E190" s="42"/>
       <c r="F190" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G190" s="42"/>
-      <c r="H190" s="68"/>
+      <c r="H190" s="61"/>
       <c r="I190" s="57"/>
       <c r="J190" s="57"/>
       <c r="K190" s="57"/>
@@ -52019,20 +52014,20 @@
       <c r="IV190" s="54"/>
     </row>
     <row r="191" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A191" s="84"/>
-      <c r="B191" s="74"/>
-      <c r="C191" s="86" t="s">
-        <v>302</v>
+      <c r="A191" s="64"/>
+      <c r="B191" s="83"/>
+      <c r="C191" s="77" t="s">
+        <v>301</v>
       </c>
       <c r="D191" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E191" s="42"/>
       <c r="F191" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G191" s="42"/>
-      <c r="H191" s="68"/>
+      <c r="H191" s="61"/>
       <c r="I191" s="57"/>
       <c r="J191" s="57"/>
       <c r="K191" s="57"/>
@@ -52283,18 +52278,18 @@
       <c r="IV191" s="54"/>
     </row>
     <row r="192" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A192" s="84"/>
-      <c r="B192" s="74"/>
-      <c r="C192" s="86"/>
+      <c r="A192" s="64"/>
+      <c r="B192" s="83"/>
+      <c r="C192" s="77"/>
       <c r="D192" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E192" s="42"/>
       <c r="F192" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G192" s="42"/>
-      <c r="H192" s="68"/>
+      <c r="H192" s="61"/>
       <c r="I192" s="57"/>
       <c r="J192" s="57"/>
       <c r="K192" s="57"/>
@@ -52545,20 +52540,20 @@
       <c r="IV192" s="54"/>
     </row>
     <row r="193" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A193" s="84"/>
-      <c r="B193" s="74"/>
-      <c r="C193" s="86" t="s">
-        <v>306</v>
+      <c r="A193" s="64"/>
+      <c r="B193" s="83"/>
+      <c r="C193" s="77" t="s">
+        <v>305</v>
       </c>
       <c r="D193" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E193" s="42"/>
       <c r="F193" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G193" s="42"/>
-      <c r="H193" s="68"/>
+      <c r="H193" s="61"/>
       <c r="I193" s="57"/>
       <c r="J193" s="57"/>
       <c r="K193" s="57"/>
@@ -52809,18 +52804,18 @@
       <c r="IV193" s="54"/>
     </row>
     <row r="194" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A194" s="84"/>
-      <c r="B194" s="77"/>
-      <c r="C194" s="86"/>
+      <c r="A194" s="64"/>
+      <c r="B194" s="84"/>
+      <c r="C194" s="77"/>
       <c r="D194" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E194" s="42"/>
       <c r="F194" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G194" s="42"/>
-      <c r="H194" s="68"/>
+      <c r="H194" s="61"/>
       <c r="I194" s="57"/>
       <c r="J194" s="57"/>
       <c r="K194" s="57"/>
@@ -53071,24 +53066,24 @@
       <c r="IV194" s="54"/>
     </row>
     <row r="195" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A195" s="84"/>
-      <c r="B195" s="86" t="s">
+      <c r="A195" s="64"/>
+      <c r="B195" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C195" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="C195" s="86" t="s">
+      <c r="D195" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="D195" s="42" t="s">
+      <c r="E195" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F195" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="E195" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="F195" s="42" t="s">
-        <v>313</v>
-      </c>
       <c r="G195" s="42"/>
-      <c r="H195" s="68"/>
+      <c r="H195" s="61"/>
       <c r="I195" s="57"/>
       <c r="J195" s="57"/>
       <c r="K195" s="57"/>
@@ -53339,18 +53334,18 @@
       <c r="IV195" s="54"/>
     </row>
     <row r="196" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A196" s="84"/>
-      <c r="B196" s="86"/>
-      <c r="C196" s="86"/>
+      <c r="A196" s="64"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="77"/>
       <c r="D196" s="42"/>
       <c r="E196" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F196" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G196" s="42"/>
-      <c r="H196" s="68"/>
+      <c r="H196" s="61"/>
       <c r="I196" s="57"/>
       <c r="J196" s="57"/>
       <c r="K196" s="57"/>
@@ -53601,24 +53596,24 @@
       <c r="IV196" s="54"/>
     </row>
     <row r="197" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A197" s="84"/>
-      <c r="B197" s="86" t="s">
+      <c r="A197" s="64"/>
+      <c r="B197" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="C197" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="C197" s="86" t="s">
+      <c r="D197" s="42" t="s">
         <v>316</v>
-      </c>
-      <c r="D197" s="42" t="s">
-        <v>317</v>
       </c>
       <c r="E197" s="42"/>
       <c r="F197" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G197" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="G197" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="H197" s="68"/>
+      <c r="H197" s="61"/>
       <c r="I197" s="57"/>
       <c r="J197" s="57"/>
       <c r="K197" s="57"/>
@@ -53869,18 +53864,18 @@
       <c r="IV197" s="54"/>
     </row>
     <row r="198" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A198" s="84"/>
-      <c r="B198" s="86"/>
-      <c r="C198" s="86"/>
+      <c r="A198" s="64"/>
+      <c r="B198" s="77"/>
+      <c r="C198" s="77"/>
       <c r="D198" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E198" s="42"/>
       <c r="F198" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G198" s="42"/>
-      <c r="H198" s="68"/>
+      <c r="H198" s="61"/>
       <c r="I198" s="57"/>
       <c r="J198" s="57"/>
       <c r="K198" s="57"/>
@@ -54131,18 +54126,18 @@
       <c r="IV198" s="54"/>
     </row>
     <row r="199" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A199" s="85"/>
-      <c r="B199" s="86"/>
-      <c r="C199" s="86"/>
+      <c r="A199" s="65"/>
+      <c r="B199" s="77"/>
+      <c r="C199" s="77"/>
       <c r="D199" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E199" s="42"/>
       <c r="F199" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G199" s="42"/>
-      <c r="H199" s="69"/>
+      <c r="H199" s="62"/>
       <c r="I199" s="57"/>
       <c r="J199" s="57"/>
       <c r="K199" s="57"/>
@@ -54393,21 +54388,21 @@
       <c r="IV199" s="54"/>
     </row>
     <row r="200" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A200" s="83" t="s">
-        <v>322</v>
+      <c r="A200" s="63" t="s">
+        <v>321</v>
       </c>
-      <c r="B200" s="92" t="s">
+      <c r="B200" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C200" s="95" t="s">
+      <c r="D200" s="44" t="s">
         <v>42</v>
-      </c>
-      <c r="D200" s="44" t="s">
-        <v>43</v>
       </c>
       <c r="E200" s="44"/>
       <c r="F200" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G200" s="44"/>
       <c r="H200" s="57"/>
@@ -54661,15 +54656,15 @@
       <c r="IV200" s="54"/>
     </row>
     <row r="201" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A201" s="84"/>
-      <c r="B201" s="93"/>
-      <c r="C201" s="95"/>
+      <c r="A201" s="64"/>
+      <c r="B201" s="78"/>
+      <c r="C201" s="80"/>
       <c r="D201" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E201" s="44"/>
       <c r="F201" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G201" s="44"/>
       <c r="H201" s="57"/>
@@ -54923,15 +54918,15 @@
       <c r="IV201" s="54"/>
     </row>
     <row r="202" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A202" s="84"/>
-      <c r="B202" s="93"/>
-      <c r="C202" s="95"/>
+      <c r="A202" s="64"/>
+      <c r="B202" s="78"/>
+      <c r="C202" s="80"/>
       <c r="D202" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E202" s="44"/>
       <c r="F202" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G202" s="44"/>
       <c r="H202" s="57"/>
@@ -55185,15 +55180,15 @@
       <c r="IV202" s="54"/>
     </row>
     <row r="203" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A203" s="84"/>
-      <c r="B203" s="93"/>
-      <c r="C203" s="95"/>
+      <c r="A203" s="64"/>
+      <c r="B203" s="78"/>
+      <c r="C203" s="80"/>
       <c r="D203" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E203" s="44"/>
       <c r="F203" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G203" s="44"/>
       <c r="H203" s="57"/>
@@ -55447,17 +55442,17 @@
       <c r="IV203" s="54"/>
     </row>
     <row r="204" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A204" s="84"/>
-      <c r="B204" s="93"/>
-      <c r="C204" s="95"/>
-      <c r="D204" s="92" t="s">
+      <c r="A204" s="64"/>
+      <c r="B204" s="78"/>
+      <c r="C204" s="80"/>
+      <c r="D204" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="E204" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="E204" s="44" t="s">
+      <c r="F204" s="44" t="s">
         <v>330</v>
-      </c>
-      <c r="F204" s="44" t="s">
-        <v>331</v>
       </c>
       <c r="G204" s="44"/>
       <c r="H204" s="57"/>
@@ -55711,15 +55706,15 @@
       <c r="IV204" s="54"/>
     </row>
     <row r="205" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A205" s="84"/>
-      <c r="B205" s="93"/>
-      <c r="C205" s="95"/>
-      <c r="D205" s="98"/>
+      <c r="A205" s="64"/>
+      <c r="B205" s="78"/>
+      <c r="C205" s="80"/>
+      <c r="D205" s="67"/>
       <c r="E205" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F205" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G205" s="44"/>
       <c r="H205" s="57"/>
@@ -55973,15 +55968,15 @@
       <c r="IV205" s="54"/>
     </row>
     <row r="206" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A206" s="84"/>
-      <c r="B206" s="93"/>
-      <c r="C206" s="95"/>
-      <c r="D206" s="98"/>
+      <c r="A206" s="64"/>
+      <c r="B206" s="78"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="67"/>
       <c r="E206" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F206" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G206" s="44"/>
       <c r="H206" s="57"/>
@@ -56235,15 +56230,15 @@
       <c r="IV206" s="54"/>
     </row>
     <row r="207" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A207" s="84"/>
-      <c r="B207" s="93"/>
-      <c r="C207" s="95"/>
-      <c r="D207" s="99"/>
+      <c r="A207" s="64"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="68"/>
       <c r="E207" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F207" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G207" s="44"/>
       <c r="H207" s="57"/>
@@ -56497,15 +56492,15 @@
       <c r="IV207" s="54"/>
     </row>
     <row r="208" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A208" s="84"/>
-      <c r="B208" s="93"/>
-      <c r="C208" s="95"/>
+      <c r="A208" s="64"/>
+      <c r="B208" s="78"/>
+      <c r="C208" s="80"/>
       <c r="D208" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E208" s="44"/>
       <c r="F208" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G208" s="44"/>
       <c r="H208" s="57"/>
@@ -56759,15 +56754,15 @@
       <c r="IV208" s="54"/>
     </row>
     <row r="209" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A209" s="84"/>
-      <c r="B209" s="93"/>
-      <c r="C209" s="95"/>
+      <c r="A209" s="64"/>
+      <c r="B209" s="78"/>
+      <c r="C209" s="80"/>
       <c r="D209" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E209" s="44"/>
       <c r="F209" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G209" s="44"/>
       <c r="H209" s="57"/>
@@ -57021,15 +57016,15 @@
       <c r="IV209" s="54"/>
     </row>
     <row r="210" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A210" s="85"/>
-      <c r="B210" s="94"/>
-      <c r="C210" s="95"/>
+      <c r="A210" s="65"/>
+      <c r="B210" s="79"/>
+      <c r="C210" s="80"/>
       <c r="D210" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E210" s="44"/>
       <c r="F210" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G210" s="44"/>
       <c r="H210" s="57"/>
@@ -57283,19 +57278,19 @@
       <c r="IV210" s="54"/>
     </row>
     <row r="211" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A211" s="83" t="s">
+      <c r="A211" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B211" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="B211" s="45" t="s">
+      <c r="C211" s="45" t="s">
         <v>342</v>
-      </c>
-      <c r="C211" s="45" t="s">
-        <v>343</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G211" s="45"/>
       <c r="H211" s="57"/>
@@ -57547,15 +57542,15 @@
       <c r="IT211" s="54"/>
     </row>
     <row r="212" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A212" s="84"/>
+      <c r="A212" s="64"/>
       <c r="B212" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C212" s="46"/>
       <c r="D212" s="46"/>
       <c r="E212" s="46"/>
       <c r="F212" s="46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G212" s="46"/>
       <c r="H212" s="57"/>
@@ -57807,15 +57802,15 @@
       <c r="IT212" s="54"/>
     </row>
     <row r="213" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A213" s="84"/>
-      <c r="B213" s="101" t="s">
-        <v>20</v>
+      <c r="A213" s="64"/>
+      <c r="B213" s="71" t="s">
+        <v>19</v>
       </c>
       <c r="C213" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D213" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E213" s="46"/>
       <c r="F213" s="46"/>
@@ -58069,13 +58064,13 @@
       <c r="IT213" s="54"/>
     </row>
     <row r="214" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A214" s="84"/>
-      <c r="B214" s="101"/>
+      <c r="A214" s="64"/>
+      <c r="B214" s="71"/>
       <c r="C214" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E214" s="47"/>
       <c r="F214" s="46"/>
@@ -58329,18 +58324,18 @@
       <c r="IT214" s="54"/>
     </row>
     <row r="215" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A215" s="84"/>
-      <c r="B215" s="101" t="s">
+      <c r="A215" s="64"/>
+      <c r="B215" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C215" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D215" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C215" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D215" s="91" t="s">
+      <c r="E215" s="48" t="s">
         <v>351</v>
-      </c>
-      <c r="E215" s="48" t="s">
-        <v>352</v>
       </c>
       <c r="F215" s="46"/>
       <c r="G215" s="46"/>
@@ -58593,15 +58588,15 @@
       <c r="IT215" s="54"/>
     </row>
     <row r="216" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A216" s="84"/>
-      <c r="B216" s="101"/>
-      <c r="C216" s="101"/>
-      <c r="D216" s="102"/>
+      <c r="A216" s="64"/>
+      <c r="B216" s="71"/>
+      <c r="C216" s="71"/>
+      <c r="D216" s="73"/>
       <c r="E216" s="46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F216" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G216" s="46"/>
       <c r="H216" s="57"/>
@@ -58853,15 +58848,15 @@
       <c r="IT216" s="54"/>
     </row>
     <row r="217" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A217" s="84"/>
-      <c r="B217" s="101"/>
-      <c r="C217" s="101"/>
-      <c r="D217" s="102"/>
+      <c r="A217" s="64"/>
+      <c r="B217" s="71"/>
+      <c r="C217" s="71"/>
+      <c r="D217" s="73"/>
       <c r="E217" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F217" s="46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G217" s="46"/>
       <c r="H217" s="57"/>
@@ -59113,15 +59108,15 @@
       <c r="IT217" s="54"/>
     </row>
     <row r="218" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A218" s="84"/>
-      <c r="B218" s="101"/>
-      <c r="C218" s="101"/>
-      <c r="D218" s="90"/>
+      <c r="A218" s="64"/>
+      <c r="B218" s="71"/>
+      <c r="C218" s="71"/>
+      <c r="D218" s="74"/>
       <c r="E218" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F218" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G218" s="46"/>
       <c r="H218" s="57"/>
@@ -59373,17 +59368,17 @@
       <c r="IT218" s="54"/>
     </row>
     <row r="219" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A219" s="84"/>
-      <c r="B219" s="101"/>
-      <c r="C219" s="101"/>
-      <c r="D219" s="89" t="s">
+      <c r="A219" s="64"/>
+      <c r="B219" s="71"/>
+      <c r="C219" s="71"/>
+      <c r="D219" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="E219" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="E219" s="46" t="s">
+      <c r="F219" s="47" t="s">
         <v>360</v>
-      </c>
-      <c r="F219" s="47" t="s">
-        <v>361</v>
       </c>
       <c r="G219" s="46"/>
       <c r="H219" s="57"/>
@@ -59635,15 +59630,15 @@
       <c r="IT219" s="54"/>
     </row>
     <row r="220" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A220" s="84"/>
-      <c r="B220" s="101"/>
-      <c r="C220" s="101"/>
-      <c r="D220" s="102"/>
+      <c r="A220" s="64"/>
+      <c r="B220" s="71"/>
+      <c r="C220" s="71"/>
+      <c r="D220" s="73"/>
       <c r="E220" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F220" s="46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G220" s="46"/>
       <c r="H220" s="57"/>
@@ -59895,15 +59890,15 @@
       <c r="IT220" s="54"/>
     </row>
     <row r="221" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A221" s="84"/>
-      <c r="B221" s="101"/>
-      <c r="C221" s="101"/>
-      <c r="D221" s="102"/>
+      <c r="A221" s="64"/>
+      <c r="B221" s="71"/>
+      <c r="C221" s="71"/>
+      <c r="D221" s="73"/>
       <c r="E221" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F221" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G221" s="46"/>
       <c r="H221" s="57"/>
@@ -60155,15 +60150,15 @@
       <c r="IT221" s="54"/>
     </row>
     <row r="222" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A222" s="84"/>
-      <c r="B222" s="101"/>
-      <c r="C222" s="101"/>
-      <c r="D222" s="90"/>
+      <c r="A222" s="64"/>
+      <c r="B222" s="71"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="74"/>
       <c r="E222" s="46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F222" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G222" s="46"/>
       <c r="H222" s="57"/>
@@ -60415,21 +60410,21 @@
       <c r="IT222" s="54"/>
     </row>
     <row r="223" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A223" s="84"/>
-      <c r="B223" s="101"/>
-      <c r="C223" s="91" t="s">
-        <v>365</v>
+      <c r="A223" s="64"/>
+      <c r="B223" s="71"/>
+      <c r="C223" s="72" t="s">
+        <v>364</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E223" s="46"/>
       <c r="F223" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G223" s="46"/>
       <c r="H223" s="57"/>
-      <c r="I223" s="67">
+      <c r="I223" s="60">
         <v>0.5</v>
       </c>
       <c r="J223" s="57"/>
@@ -60679,19 +60674,19 @@
       <c r="IT223" s="54"/>
     </row>
     <row r="224" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A224" s="84"/>
-      <c r="B224" s="101"/>
-      <c r="C224" s="90"/>
+      <c r="A224" s="64"/>
+      <c r="B224" s="71"/>
+      <c r="C224" s="74"/>
       <c r="D224" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E224" s="46"/>
       <c r="F224" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G224" s="46"/>
       <c r="H224" s="57"/>
-      <c r="I224" s="68"/>
+      <c r="I224" s="61"/>
       <c r="J224" s="57"/>
       <c r="K224" s="57"/>
       <c r="L224" s="57"/>
@@ -60939,21 +60934,21 @@
       <c r="IT224" s="54"/>
     </row>
     <row r="225" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A225" s="84"/>
-      <c r="B225" s="101"/>
-      <c r="C225" s="101" t="s">
-        <v>370</v>
+      <c r="A225" s="64"/>
+      <c r="B225" s="71"/>
+      <c r="C225" s="71" t="s">
+        <v>369</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E225" s="46"/>
       <c r="F225" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G225" s="46"/>
       <c r="H225" s="57"/>
-      <c r="I225" s="68"/>
+      <c r="I225" s="61"/>
       <c r="J225" s="57"/>
       <c r="K225" s="57"/>
       <c r="L225" s="57"/>
@@ -61201,17 +61196,17 @@
       <c r="IT225" s="54"/>
     </row>
     <row r="226" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A226" s="84"/>
-      <c r="B226" s="101"/>
-      <c r="C226" s="101"/>
+      <c r="A226" s="64"/>
+      <c r="B226" s="71"/>
+      <c r="C226" s="71"/>
       <c r="D226" s="46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E226" s="48"/>
       <c r="F226" s="46"/>
       <c r="G226" s="46"/>
       <c r="H226" s="57"/>
-      <c r="I226" s="68"/>
+      <c r="I226" s="61"/>
       <c r="J226" s="57"/>
       <c r="K226" s="57"/>
       <c r="L226" s="57"/>
@@ -61459,17 +61454,17 @@
       <c r="IT226" s="54"/>
     </row>
     <row r="227" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A227" s="84"/>
-      <c r="B227" s="101"/>
-      <c r="C227" s="101"/>
+      <c r="A227" s="64"/>
+      <c r="B227" s="71"/>
+      <c r="C227" s="71"/>
       <c r="D227" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E227" s="46"/>
       <c r="F227" s="46"/>
       <c r="G227" s="46"/>
       <c r="H227" s="57"/>
-      <c r="I227" s="69"/>
+      <c r="I227" s="62"/>
       <c r="J227" s="57"/>
       <c r="K227" s="57"/>
       <c r="L227" s="57"/>
@@ -61717,21 +61712,21 @@
       <c r="IT227" s="54"/>
     </row>
     <row r="228" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A228" s="84"/>
-      <c r="B228" s="91" t="s">
-        <v>375</v>
+      <c r="A228" s="64"/>
+      <c r="B228" s="72" t="s">
+        <v>374</v>
       </c>
       <c r="C228" s="46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D228" s="46"/>
       <c r="E228" s="46"/>
       <c r="F228" s="46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G228" s="46"/>
       <c r="H228" s="46"/>
-      <c r="I228" s="67">
+      <c r="I228" s="60">
         <v>1</v>
       </c>
       <c r="J228" s="57"/>
@@ -61981,19 +61976,19 @@
       <c r="IT228" s="54"/>
     </row>
     <row r="229" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A229" s="84"/>
-      <c r="B229" s="103"/>
+      <c r="A229" s="64"/>
+      <c r="B229" s="76"/>
       <c r="C229" s="46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D229" s="46"/>
       <c r="E229" s="46"/>
       <c r="F229" s="46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G229" s="46"/>
       <c r="H229" s="46"/>
-      <c r="I229" s="68"/>
+      <c r="I229" s="61"/>
       <c r="J229" s="57"/>
       <c r="K229" s="57"/>
       <c r="L229" s="57"/>
@@ -62241,21 +62236,21 @@
       <c r="IT229" s="54"/>
     </row>
     <row r="230" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A230" s="84"/>
-      <c r="B230" s="102"/>
-      <c r="C230" s="91" t="s">
-        <v>380</v>
+      <c r="A230" s="64"/>
+      <c r="B230" s="73"/>
+      <c r="C230" s="72" t="s">
+        <v>379</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E230" s="46"/>
       <c r="F230" s="46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G230" s="46"/>
       <c r="H230" s="46"/>
-      <c r="I230" s="68"/>
+      <c r="I230" s="61"/>
       <c r="J230" s="57"/>
       <c r="K230" s="57"/>
       <c r="L230" s="57"/>
@@ -62503,19 +62498,19 @@
       <c r="IT230" s="54"/>
     </row>
     <row r="231" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A231" s="84"/>
-      <c r="B231" s="102"/>
-      <c r="C231" s="90"/>
+      <c r="A231" s="64"/>
+      <c r="B231" s="73"/>
+      <c r="C231" s="74"/>
       <c r="D231" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E231" s="46"/>
       <c r="F231" s="46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G231" s="46"/>
       <c r="H231" s="46"/>
-      <c r="I231" s="68"/>
+      <c r="I231" s="61"/>
       <c r="J231" s="57"/>
       <c r="K231" s="57"/>
       <c r="L231" s="57"/>
@@ -62763,21 +62758,21 @@
       <c r="IT231" s="54"/>
     </row>
     <row r="232" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A232" s="84"/>
-      <c r="B232" s="102"/>
-      <c r="C232" s="101" t="s">
-        <v>385</v>
+      <c r="A232" s="64"/>
+      <c r="B232" s="73"/>
+      <c r="C232" s="71" t="s">
+        <v>384</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E232" s="46"/>
       <c r="F232" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G232" s="46"/>
       <c r="H232" s="46"/>
-      <c r="I232" s="68"/>
+      <c r="I232" s="61"/>
       <c r="J232" s="57"/>
       <c r="K232" s="57"/>
       <c r="L232" s="57"/>
@@ -63025,19 +63020,19 @@
       <c r="IT232" s="54"/>
     </row>
     <row r="233" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A233" s="84"/>
-      <c r="B233" s="102"/>
-      <c r="C233" s="101"/>
+      <c r="A233" s="64"/>
+      <c r="B233" s="73"/>
+      <c r="C233" s="71"/>
       <c r="D233" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E233" s="46"/>
       <c r="F233" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G233" s="46"/>
       <c r="H233" s="46"/>
-      <c r="I233" s="68"/>
+      <c r="I233" s="61"/>
       <c r="J233" s="57"/>
       <c r="K233" s="57"/>
       <c r="L233" s="57"/>
@@ -63285,19 +63280,19 @@
       <c r="IT233" s="54"/>
     </row>
     <row r="234" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A234" s="84"/>
-      <c r="B234" s="102"/>
-      <c r="C234" s="101"/>
+      <c r="A234" s="64"/>
+      <c r="B234" s="73"/>
+      <c r="C234" s="71"/>
       <c r="D234" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E234" s="46"/>
       <c r="F234" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G234" s="46"/>
       <c r="H234" s="46"/>
-      <c r="I234" s="68"/>
+      <c r="I234" s="61"/>
       <c r="J234" s="57"/>
       <c r="K234" s="57"/>
       <c r="L234" s="57"/>
@@ -63545,21 +63540,21 @@
       <c r="IT234" s="54"/>
     </row>
     <row r="235" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A235" s="84"/>
-      <c r="B235" s="90"/>
+      <c r="A235" s="64"/>
+      <c r="B235" s="74"/>
       <c r="C235" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E235" s="46"/>
       <c r="F235" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G235" s="46"/>
       <c r="H235" s="46"/>
-      <c r="I235" s="68"/>
+      <c r="I235" s="61"/>
       <c r="J235" s="57"/>
       <c r="K235" s="57"/>
       <c r="L235" s="57"/>
@@ -63807,23 +63802,23 @@
       <c r="IT235" s="54"/>
     </row>
     <row r="236" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A236" s="84"/>
-      <c r="B236" s="89" t="s">
+      <c r="A236" s="64"/>
+      <c r="B236" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="C236" s="72" t="s">
         <v>395</v>
       </c>
-      <c r="C236" s="91" t="s">
+      <c r="D236" s="46" t="s">
         <v>396</v>
-      </c>
-      <c r="D236" s="46" t="s">
-        <v>397</v>
       </c>
       <c r="E236" s="46"/>
       <c r="F236" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G236" s="46"/>
       <c r="H236" s="46"/>
-      <c r="I236" s="68"/>
+      <c r="I236" s="61"/>
       <c r="J236" s="57"/>
       <c r="K236" s="57"/>
       <c r="L236" s="57"/>
@@ -64071,19 +64066,19 @@
       <c r="IT236" s="54"/>
     </row>
     <row r="237" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A237" s="85"/>
-      <c r="B237" s="90"/>
-      <c r="C237" s="90"/>
+      <c r="A237" s="65"/>
+      <c r="B237" s="74"/>
+      <c r="C237" s="74"/>
       <c r="D237" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E237" s="46"/>
       <c r="F237" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G237" s="46"/>
       <c r="H237" s="46"/>
-      <c r="I237" s="69"/>
+      <c r="I237" s="62"/>
       <c r="J237" s="57"/>
       <c r="K237" s="57"/>
       <c r="L237" s="57"/>
@@ -64331,19 +64326,19 @@
       <c r="IT237" s="54"/>
     </row>
     <row r="238" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A238" s="83" t="s">
+      <c r="A238" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="B238" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="B238" s="50" t="s">
+      <c r="C238" s="50" t="s">
         <v>402</v>
-      </c>
-      <c r="C238" s="50" t="s">
-        <v>403</v>
       </c>
       <c r="D238" s="51"/>
       <c r="E238" s="51"/>
       <c r="F238" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G238" s="51"/>
       <c r="H238" s="57"/>
@@ -64597,17 +64592,17 @@
       <c r="IV238" s="54"/>
     </row>
     <row r="239" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A239" s="84"/>
+      <c r="A239" s="64"/>
       <c r="B239" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C239" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D239" s="52"/>
       <c r="E239" s="52"/>
       <c r="F239" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G239" s="52"/>
       <c r="H239" s="57"/>
@@ -64861,17 +64856,17 @@
       <c r="IV239" s="54"/>
     </row>
     <row r="240" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A240" s="84"/>
+      <c r="A240" s="64"/>
       <c r="B240" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C240" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D240" s="52"/>
       <c r="E240" s="52"/>
       <c r="F240" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G240" s="52"/>
       <c r="H240" s="57"/>
@@ -65125,15 +65120,15 @@
       <c r="IV240" s="54"/>
     </row>
     <row r="241" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A241" s="84"/>
+      <c r="A241" s="64"/>
       <c r="B241" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C241" s="52"/>
       <c r="D241" s="52"/>
       <c r="E241" s="52"/>
       <c r="F241" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G241" s="52"/>
       <c r="H241" s="57"/>
@@ -65387,21 +65382,21 @@
       <c r="IV241" s="54"/>
     </row>
     <row r="242" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A242" s="84"/>
-      <c r="B242" s="97" t="s">
-        <v>407</v>
+      <c r="A242" s="64"/>
+      <c r="B242" s="66" t="s">
+        <v>406</v>
       </c>
       <c r="C242" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D242" s="52"/>
       <c r="E242" s="52"/>
       <c r="F242" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G242" s="52"/>
       <c r="H242" s="57"/>
-      <c r="I242" s="67">
+      <c r="I242" s="60">
         <v>1</v>
       </c>
       <c r="J242" s="57"/>
@@ -65653,19 +65648,19 @@
       <c r="IV242" s="54"/>
     </row>
     <row r="243" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A243" s="84"/>
-      <c r="B243" s="98"/>
+      <c r="A243" s="64"/>
+      <c r="B243" s="67"/>
       <c r="C243" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D243" s="52"/>
       <c r="E243" s="52"/>
       <c r="F243" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G243" s="52"/>
       <c r="H243" s="57"/>
-      <c r="I243" s="68"/>
+      <c r="I243" s="61"/>
       <c r="J243" s="57"/>
       <c r="K243" s="57"/>
       <c r="L243" s="57"/>
@@ -65915,19 +65910,19 @@
       <c r="IV243" s="54"/>
     </row>
     <row r="244" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A244" s="84"/>
-      <c r="B244" s="98"/>
+      <c r="A244" s="64"/>
+      <c r="B244" s="67"/>
       <c r="C244" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D244" s="52"/>
       <c r="E244" s="52"/>
       <c r="F244" s="52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G244" s="52"/>
       <c r="H244" s="57"/>
-      <c r="I244" s="68"/>
+      <c r="I244" s="61"/>
       <c r="J244" s="57"/>
       <c r="K244" s="57"/>
       <c r="L244" s="57"/>
@@ -66177,19 +66172,19 @@
       <c r="IV244" s="54"/>
     </row>
     <row r="245" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A245" s="84"/>
-      <c r="B245" s="98"/>
+      <c r="A245" s="64"/>
+      <c r="B245" s="67"/>
       <c r="C245" s="52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D245" s="52"/>
       <c r="E245" s="52"/>
       <c r="F245" s="52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G245" s="52"/>
       <c r="H245" s="57"/>
-      <c r="I245" s="68"/>
+      <c r="I245" s="61"/>
       <c r="J245" s="57"/>
       <c r="K245" s="57"/>
       <c r="L245" s="57"/>
@@ -66439,19 +66434,19 @@
       <c r="IV245" s="54"/>
     </row>
     <row r="246" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A246" s="84"/>
-      <c r="B246" s="98"/>
+      <c r="A246" s="64"/>
+      <c r="B246" s="67"/>
       <c r="C246" s="52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D246" s="52"/>
       <c r="E246" s="52"/>
       <c r="F246" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G246" s="52"/>
       <c r="H246" s="57"/>
-      <c r="I246" s="68"/>
+      <c r="I246" s="61"/>
       <c r="J246" s="57"/>
       <c r="K246" s="57"/>
       <c r="L246" s="57"/>
@@ -66701,19 +66696,19 @@
       <c r="IV246" s="54"/>
     </row>
     <row r="247" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A247" s="84"/>
-      <c r="B247" s="98"/>
+      <c r="A247" s="64"/>
+      <c r="B247" s="67"/>
       <c r="C247" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D247" s="52"/>
       <c r="E247" s="52"/>
       <c r="F247" s="52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G247" s="52"/>
       <c r="H247" s="57"/>
-      <c r="I247" s="68"/>
+      <c r="I247" s="61"/>
       <c r="J247" s="57"/>
       <c r="K247" s="57"/>
       <c r="L247" s="57"/>
@@ -66963,19 +66958,19 @@
       <c r="IV247" s="54"/>
     </row>
     <row r="248" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A248" s="84"/>
-      <c r="B248" s="99"/>
+      <c r="A248" s="64"/>
+      <c r="B248" s="68"/>
       <c r="C248" s="52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D248" s="52"/>
       <c r="E248" s="52"/>
       <c r="F248" s="52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G248" s="52"/>
       <c r="H248" s="57"/>
-      <c r="I248" s="68"/>
+      <c r="I248" s="61"/>
       <c r="J248" s="57"/>
       <c r="K248" s="57"/>
       <c r="L248" s="57"/>
@@ -67225,23 +67220,23 @@
       <c r="IV248" s="54"/>
     </row>
     <row r="249" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A249" s="84"/>
-      <c r="B249" s="100" t="s">
+      <c r="A249" s="64"/>
+      <c r="B249" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="C249" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="C249" s="53" t="s">
-        <v>423</v>
-      </c>
       <c r="D249" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E249" s="53"/>
       <c r="F249" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G249" s="53"/>
       <c r="H249" s="57"/>
-      <c r="I249" s="68"/>
+      <c r="I249" s="61"/>
       <c r="J249" s="57"/>
       <c r="K249" s="57"/>
       <c r="L249" s="57"/>
@@ -67491,21 +67486,21 @@
       <c r="IV249" s="54"/>
     </row>
     <row r="250" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A250" s="84"/>
-      <c r="B250" s="100"/>
-      <c r="C250" s="100" t="s">
-        <v>425</v>
+      <c r="A250" s="64"/>
+      <c r="B250" s="69"/>
+      <c r="C250" s="69" t="s">
+        <v>424</v>
       </c>
       <c r="D250" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E250" s="53"/>
       <c r="F250" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G250" s="53"/>
       <c r="H250" s="57"/>
-      <c r="I250" s="68"/>
+      <c r="I250" s="61"/>
       <c r="J250" s="57"/>
       <c r="K250" s="57"/>
       <c r="L250" s="57"/>
@@ -67755,17 +67750,17 @@
       <c r="IV250" s="54"/>
     </row>
     <row r="251" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A251" s="84"/>
-      <c r="B251" s="100"/>
-      <c r="C251" s="100"/>
+      <c r="A251" s="64"/>
+      <c r="B251" s="69"/>
+      <c r="C251" s="69"/>
       <c r="D251" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E251" s="53"/>
       <c r="F251" s="53"/>
       <c r="G251" s="53"/>
       <c r="H251" s="57"/>
-      <c r="I251" s="68"/>
+      <c r="I251" s="61"/>
       <c r="J251" s="57"/>
       <c r="K251" s="57"/>
       <c r="L251" s="57"/>
@@ -68015,17 +68010,17 @@
       <c r="IV251" s="54"/>
     </row>
     <row r="252" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A252" s="84"/>
-      <c r="B252" s="100"/>
-      <c r="C252" s="100"/>
+      <c r="A252" s="64"/>
+      <c r="B252" s="69"/>
+      <c r="C252" s="69"/>
       <c r="D252" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E252" s="53"/>
       <c r="F252" s="53"/>
       <c r="G252" s="53"/>
       <c r="H252" s="57"/>
-      <c r="I252" s="68"/>
+      <c r="I252" s="61"/>
       <c r="J252" s="57"/>
       <c r="K252" s="57"/>
       <c r="L252" s="57"/>
@@ -68275,21 +68270,21 @@
       <c r="IV252" s="54"/>
     </row>
     <row r="253" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A253" s="84"/>
-      <c r="B253" s="97" t="s">
-        <v>427</v>
+      <c r="A253" s="64"/>
+      <c r="B253" s="66" t="s">
+        <v>426</v>
       </c>
       <c r="C253" s="52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D253" s="52"/>
       <c r="E253" s="52"/>
       <c r="F253" s="52" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G253" s="52"/>
       <c r="H253" s="57"/>
-      <c r="I253" s="68"/>
+      <c r="I253" s="61"/>
       <c r="J253" s="57"/>
       <c r="K253" s="57"/>
       <c r="L253" s="57"/>
@@ -68539,19 +68534,19 @@
       <c r="IV253" s="54"/>
     </row>
     <row r="254" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A254" s="84"/>
-      <c r="B254" s="98"/>
+      <c r="A254" s="64"/>
+      <c r="B254" s="67"/>
       <c r="C254" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D254" s="52"/>
       <c r="E254" s="52"/>
       <c r="F254" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G254" s="52"/>
       <c r="H254" s="57"/>
-      <c r="I254" s="68"/>
+      <c r="I254" s="61"/>
       <c r="J254" s="57"/>
       <c r="K254" s="57"/>
       <c r="L254" s="57"/>
@@ -68801,17 +68796,17 @@
       <c r="IV254" s="54"/>
     </row>
     <row r="255" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A255" s="84"/>
-      <c r="B255" s="98"/>
+      <c r="A255" s="64"/>
+      <c r="B255" s="67"/>
       <c r="C255" s="52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D255" s="52"/>
       <c r="E255" s="52"/>
       <c r="F255" s="52"/>
       <c r="G255" s="52"/>
       <c r="H255" s="57"/>
-      <c r="I255" s="68"/>
+      <c r="I255" s="61"/>
       <c r="J255" s="57"/>
       <c r="K255" s="57"/>
       <c r="L255" s="57"/>
@@ -69061,17 +69056,17 @@
       <c r="IV255" s="54"/>
     </row>
     <row r="256" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A256" s="84"/>
-      <c r="B256" s="98"/>
+      <c r="A256" s="64"/>
+      <c r="B256" s="67"/>
       <c r="C256" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D256" s="52"/>
       <c r="E256" s="52"/>
       <c r="F256" s="52"/>
       <c r="G256" s="52"/>
       <c r="H256" s="57"/>
-      <c r="I256" s="69"/>
+      <c r="I256" s="62"/>
       <c r="J256" s="57"/>
       <c r="K256" s="57"/>
       <c r="L256" s="57"/>
@@ -69321,10 +69316,10 @@
       <c r="IV256" s="54"/>
     </row>
     <row r="257" spans="1:256" s="55" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A257" s="85"/>
-      <c r="B257" s="99"/>
+      <c r="A257" s="65"/>
+      <c r="B257" s="68"/>
       <c r="C257" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D257" s="52"/>
       <c r="E257" s="52"/>
@@ -69582,7 +69577,7 @@
     </row>
     <row r="258" spans="1:256" ht="12" customHeight="1">
       <c r="A258" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -69603,7 +69598,7 @@
     </row>
     <row r="259" spans="1:256" ht="12" customHeight="1">
       <c r="A259" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -69624,7 +69619,7 @@
     </row>
     <row r="260" spans="1:256" ht="12" customHeight="1">
       <c r="A260" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -69645,7 +69640,7 @@
     </row>
     <row r="261" spans="1:256" ht="12" customHeight="1">
       <c r="A261" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -69666,7 +69661,7 @@
     </row>
     <row r="262" spans="1:256" ht="12" customHeight="1">
       <c r="A262" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -69687,7 +69682,7 @@
     </row>
     <row r="263" spans="1:256" ht="12" customHeight="1">
       <c r="A263" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
@@ -69708,7 +69703,7 @@
     </row>
     <row r="264" spans="1:256" ht="12" customHeight="1">
       <c r="A264" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
@@ -69759,7 +69754,7 @@
     </row>
     <row r="265" spans="1:256" ht="40.049999999999997" customHeight="1">
       <c r="A265" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B265" s="33"/>
       <c r="C265" s="33"/>
@@ -69810,7 +69805,7 @@
     </row>
     <row r="266" spans="1:256" ht="12" customHeight="1">
       <c r="A266" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
@@ -69818,23 +69813,23 @@
       <c r="E266" s="33"/>
       <c r="F266" s="34"/>
       <c r="G266" s="34"/>
-      <c r="H266" s="82">
+      <c r="H266" s="92">
         <f>H265+I265+J265+K265+L265+M265+N265+O265+P265+Q265</f>
         <v>5091.4285714285716</v>
       </c>
-      <c r="I266" s="61"/>
-      <c r="J266" s="61"/>
-      <c r="K266" s="61"/>
-      <c r="L266" s="61"/>
-      <c r="M266" s="61"/>
-      <c r="N266" s="61"/>
-      <c r="O266" s="61"/>
-      <c r="P266" s="61"/>
-      <c r="Q266" s="61"/>
+      <c r="I266" s="93"/>
+      <c r="J266" s="93"/>
+      <c r="K266" s="93"/>
+      <c r="L266" s="93"/>
+      <c r="M266" s="93"/>
+      <c r="N266" s="93"/>
+      <c r="O266" s="93"/>
+      <c r="P266" s="93"/>
+      <c r="Q266" s="93"/>
     </row>
     <row r="267" spans="1:256" ht="12" customHeight="1">
       <c r="A267" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B267" s="33"/>
       <c r="C267" s="33"/>
@@ -69842,43 +69837,123 @@
       <c r="E267" s="33"/>
       <c r="F267" s="34"/>
       <c r="G267" s="34"/>
-      <c r="H267" s="82">
+      <c r="H267" s="92">
         <f>H266*1.06</f>
         <v>5396.9142857142861</v>
       </c>
-      <c r="I267" s="61"/>
-      <c r="J267" s="61"/>
-      <c r="K267" s="61"/>
-      <c r="L267" s="61"/>
-      <c r="M267" s="61"/>
-      <c r="N267" s="61"/>
-      <c r="O267" s="61"/>
-      <c r="P267" s="61"/>
-      <c r="Q267" s="61"/>
+      <c r="I267" s="93"/>
+      <c r="J267" s="93"/>
+      <c r="K267" s="93"/>
+      <c r="L267" s="93"/>
+      <c r="M267" s="93"/>
+      <c r="N267" s="93"/>
+      <c r="O267" s="93"/>
+      <c r="P267" s="93"/>
+      <c r="Q267" s="93"/>
     </row>
     <row r="268" spans="1:256" ht="12" customHeight="1">
-      <c r="A268" s="79" t="s">
-        <v>72</v>
+      <c r="A268" s="89" t="s">
+        <v>71</v>
       </c>
-      <c r="B268" s="80"/>
-      <c r="C268" s="80"/>
-      <c r="D268" s="80"/>
-      <c r="E268" s="80"/>
-      <c r="F268" s="80"/>
-      <c r="G268" s="80"/>
-      <c r="H268" s="80"/>
-      <c r="I268" s="80"/>
-      <c r="J268" s="80"/>
-      <c r="K268" s="80"/>
-      <c r="L268" s="80"/>
-      <c r="M268" s="80"/>
-      <c r="N268" s="80"/>
-      <c r="O268" s="80"/>
-      <c r="P268" s="80"/>
-      <c r="Q268" s="81"/>
+      <c r="B268" s="90"/>
+      <c r="C268" s="90"/>
+      <c r="D268" s="90"/>
+      <c r="E268" s="90"/>
+      <c r="F268" s="90"/>
+      <c r="G268" s="90"/>
+      <c r="H268" s="90"/>
+      <c r="I268" s="90"/>
+      <c r="J268" s="90"/>
+      <c r="K268" s="90"/>
+      <c r="L268" s="90"/>
+      <c r="M268" s="90"/>
+      <c r="N268" s="90"/>
+      <c r="O268" s="90"/>
+      <c r="P268" s="90"/>
+      <c r="Q268" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="I21:I31"/>
+    <mergeCell ref="H32:H102"/>
+    <mergeCell ref="I32:I102"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C59:C80"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="A268:Q268"/>
+    <mergeCell ref="H266:Q266"/>
+    <mergeCell ref="H267:Q267"/>
+    <mergeCell ref="A7:A199"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="C8:C19"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C81:C102"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="B32:B102"/>
+    <mergeCell ref="C32:C58"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="B131:B178"/>
+    <mergeCell ref="C131:C174"/>
+    <mergeCell ref="D133:D165"/>
+    <mergeCell ref="B103:B123"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C119"/>
+    <mergeCell ref="D109:D117"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="D166:D173"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="B179:B186"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E143:E147"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="B187:B194"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
     <mergeCell ref="I228:I237"/>
     <mergeCell ref="I223:I227"/>
     <mergeCell ref="I242:I256"/>
@@ -69903,86 +69978,6 @@
     <mergeCell ref="B228:B235"/>
     <mergeCell ref="C230:C231"/>
     <mergeCell ref="C232:C234"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="B187:B194"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="D166:D173"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="B179:B186"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="E143:E147"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="B131:B178"/>
-    <mergeCell ref="C131:C174"/>
-    <mergeCell ref="D133:D165"/>
-    <mergeCell ref="B103:B123"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C119"/>
-    <mergeCell ref="D109:D117"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="A268:Q268"/>
-    <mergeCell ref="H266:Q266"/>
-    <mergeCell ref="H267:Q267"/>
-    <mergeCell ref="A7:A199"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:C19"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C81:C102"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D92:D97"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="B32:B102"/>
-    <mergeCell ref="C32:C58"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="I21:I31"/>
-    <mergeCell ref="H32:H102"/>
-    <mergeCell ref="I32:I102"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C59:C80"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D78"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
